--- a/xueqiu.xlsx
+++ b/xueqiu.xlsx
@@ -455,16 +455,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7402704120</v>
+        <v>6789684028</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>手扶不住拖拉机</t>
+          <t>快乐投资长期</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>美国国会议员又搞了个针对中国资本市场的提案，非常精准、非常狠毒，虽然离最终成为法律还很遥远，但是代表了美国对中国资本市场制裁的基本思路，也说明了美国对华制裁又升级到了新高度。其中包括4个法案：1.《美国对手不允许减免资本利得税法案》，取消美国人投资中国、俄罗斯、白俄罗斯、伊朗和朝鲜公司的资本利得税优惠。2.《中国风险报告法案》，要求公司报告在多大程度上依赖中国及中国带来的风险，以及公司为减少其中国风险所采取的措施。3.《中国军事和人权资本市场制裁法案》，禁止美国人投资于已经在制裁名单上的中国公司的股票或分支机构。4.《指数基金中不得包含中国法案》。$上证指数(SH000001)$ $沪深300(SH000300)$ $创业板指(SZ399006)$</t>
+          <t>沪深300点数3543.75， +0.51%。中国10年期国债收益率2.312%。黄金2181.4美元/盎司。投资知识：走到人生某个阶段往回看，才猛然发现，处处皆是选择和取舍，关键在于是否勇于承担！今日读《价值》：这是一条长期主义之路 在纷繁复杂的世界中，变化可能是唯一永恒的主题。我时常思考：究竟怎样才能在这样的世界中保持心灵的宁静？作为一名投资人，究竟怎样才能找到穿越周期和迷雾的指南针？作为一名创业者，究竟怎样才能持续不断地创造价值？ 当这些问题交织在一起时，有一个非常清晰的答案闪耀在那里，那就是“长期主义”——把时间和信念投入能够长期产生价值的事情中，尽力学习最有效率的思维方式和行为标准，遵循第一性原理，永远探求真理。</t>
         </is>
       </c>
     </row>
@@ -473,16 +473,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4428415657</v>
+        <v>6573701491</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>剑四顾</t>
+          <t>悟道长征路</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">     上证在连续5周收出阳线后，本周收出阴线。这五周的反弹力度（+4.97%， +4.85%， + 0.74%， + 0.63%， + 0.28%）明显看到反弹力气逐渐减弱。本周周线收阴符合预期，需要休整才能上攻。作为大数投资人，不去猜测大盘走势，无论涨跌都有应对！       回到本人大数实盘，大数数组合继续本周也是负收益。但继续跑赢主要四大指数（上证、深成、创业、沪深300）！2024年大数投资组合收益来到3.76%，跑赢大盘（2.46%），跑赢沪深300（3.32%），本周过后大数投资总收益录得0.98%（2023.08.02开始建仓）。（其中2023年收益率为-2.78%，2024截止这周五收盘收益3.76%）。本周持仓没动，没卖也没卖。最近翻石头没发现更好的标的所以保持现有仓位不动。</t>
+          <t>$同仁堂(SH600085)$ 今天加仓同仁堂，准备加到云南白药一样的股数。中药上市公司从2022年5月算，3年不开张，开张吃3年。收集中药上市公司股权，努力搬砖买股。我把中药比作20年以前从2002年到2021年的白酒，买入套3年，大牛市20年中间可以有无数次危机。重点等沪深300中药上市公司买入机会。</t>
         </is>
       </c>
     </row>
@@ -491,16 +491,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8441395291</v>
+        <v>5181965288</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hello小牛</t>
+          <t>ETFoption</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>今日 沪深300-情绪值：53.75，可转债-情绪值：47.82成交额：10973.06，成交额/两融余额：0.71。今天终于调整了，满足了我的期待啊，在3.552，3.540，3.520，买进了三笔 沪深300ETF60分钟海龟，跌破25小时最低点，可能还要调整，底仓还没买，再看看可转债中位数价格 113.429，中位数溢价率 41.28%，无操作 $沪深300ETF(SH510300)$</t>
+          <t>一、ETF期权主要股票指数ETF及其期权波动率情况：（一）上证501.隐波变动2.隐波结构3.标的量价（二）科创501.隐波变动2.隐波结构3.标的量价（三）创业板1.隐波变动2.隐波结构3.标的量价（四）沪深3001.隐波变动2.隐波结构3.标的量价二、股指期货（一）期限结构主要股票指数期货期限结构：1.沪深3002.上证503.中证5004.中证1000（二）期权隐波主要股票指数期货期权隐波：1.沪深3002.上证503.中证1000三、经济数据四、市场情绪（一）北向资金（二）涨跌家数五、行业轮动部分自选ETF行业轮动：（一）10日排名（二）20日排名（三）60日排名（四）年初至今六、个人思考$上证50ETF(SH510050)$ ，其平值期权隐波以降为主，沽购均无近高。标的短期波动率处于统计历史极低区间，分位数为1.14%，标的继续缩量，关注放量方向。588000科创50ETF，其平值期权隐波沽升购降，沽购均略显近高。标的K线4连阴，短期偏空。$创业板ETF(SZ159915)$ ，其平值期权隐波沽略升购略降，认沽隐波走平，认购略显近高。标的强于科创，仍在升势中。$沪深300ETF(SH510300)$ ，其平值期权隐波也降为主，沽购均无近高。标的短期波动率也处于统计历史较低区间。股指期货期限结构，大票各月同涨，小票走弱且远月更弱，远月贴水再走扩。股指期货期权，平值认沽期权隐波，大票以降为主；小票近月略升，未近高。北向继续保持净流入，达47.25亿，沪流入22.52亿，深流入24.73亿。市场成交缩至9608亿，涨跌各半，个股中位数涨跌幅为下跌0.13%。固态电池预期带动锂电池走强，前期强势板块通信、人工智能等与煤炭同跌，红利比煤炭表现要好。总结，大票估值低位，平值认沽隐波还在降，看不到多少调整空间。小票连续调整4天，平值认沽隐波有一定累积升幅，短期需要警惕一下。大票短期波动率压在历史低位，关注放量方向。免责声明：该报告或该文章旨在用于作者记录学习，并非构成投资建议。投资涉及风险，且市场变化可能导致投资损失，任何投资决策均由投资者自行承担。投资是一件严肃和专业的工作，读者在投资之前应咨询专业投资顾问，以确定其个人财务情况和投资目标是否适合特定的投资产品和投资策略，所有投资由读者自行承担风险。该报告或该文章中的信息可能会随市场情况和其他因素而变化，作者保留在任何时间、任何情况下更改或更新该报告或该文章的权利，而无需事先通知。再次特别声明任何投资决策均由投资者自行承担，作者对因使用或依赖该报告或该文章中的信息而导致的任何直接或间接损失概不负责。免责声明的目的是提醒读者：尊重自己的每一分钱，从严肃认真的投资决策开始！投资有风险，任何投资决策均由投资者自行承担。</t>
         </is>
       </c>
     </row>
@@ -509,16 +509,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8466543894</v>
+        <v>1537336131</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>蒋一丁</t>
+          <t>企鹅猫</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>今年超越沪深300了 加油</t>
+          <t>一：今日持股情况：今日实盘上涨2.48%，净值1.043，全年累计上涨4.26%，跑赢沪深300  0.98%。净值达到入手以来的新高，开始跑赢沪深300，值得高兴的一天!。二：大盘情况：两市总成交0.96万亿，较昨日缩量87.8亿，北向净流入47亿，连续两天净流入，上涨2467家，下跌2449家；三：其他情况：1、连续第3日回购10亿元！腾讯控股3月26日回购340万股，每股回购价为288.2--300.6港元，共耗资约10亿港元！2、2023年海底捞整体收入为人民币414.53亿元，同比增长33.6%。净利润为人民币44.95亿元，同比增长约174.6%。整体符合预期。作为对比，2023年全国餐饮收入52890亿元，同比上升20.4%，海底捞显著优于行业，最主要就是翻台率的显著提升。2023年海底捞餐厅整体翻台率为3.8次/天，同比增长26.7%。950家同店翻台率为3.9次/天，增长约30%。历史翻台率：2018年5次/天，2019年4.8次/天，2020年3.5次/天，2021年与2022年都徘徊在3次/天。相对于19年4.8次/天的翻台率，目前还有20%的增长空间，所以预期24年的收入增速为20%+，一是店铺的增加，二是翻台率的提升。</t>
         </is>
       </c>
     </row>
@@ -527,16 +527,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6296289557</v>
+        <v>6543771378</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>何大能耐</t>
+          <t>yyyyyymmmmmm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>回复@满意的涨幅小浪漫: 大家都在说等牛市，我感觉牛市已经过了一波了，指数早就失真了，沪深300，21年最高5900多点，，08年15年大牛市沪深300也不过6000左右，这两三年慢慢熊途，说白了券商要大涨也只能等下一波了，下一波不知道是几年后，只是后知后觉拿了几年也不甘心就这么走了……//@满意的涨幅小浪漫:回复@何大能耐:券商的却没得盈利增长点，这些年新上了那么多家券商，争业务都已经是白刃战，卷出了一片红海了，去年八月对放开T+0有很高的期待，当天东方财富一百多亿的放量上涨，直接带动指数上了3200，后面又说没那么回事，还要让券商让利，直接调头向下，顺便把指数也带崩了，说真的，T+1的交易制度真的是落后世界几百年了，难道那些人真的不知道提高资金的周转率，就可以让市场活跃几个指数级吗？</t>
+          <t>今天盈利六千，2024年勉强实现正收益。尾盘出掉了240000股恒生科技指数etf，原因主要是这十万块这周要提到银行卡上用，下周会转回到证券账户里。今天大盘的表现不错，或许A股的调整已经到了尾声，希望三月份的收益能跑赢沪深300。</t>
         </is>
       </c>
     </row>
@@ -545,16 +545,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5990855130</v>
+        <v>9321510628</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>白投资</t>
+          <t>吾有三宝666</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>本人核心投资理念：便宜买好货。一、本周操作无二、持仓情况注：石药集团持仓数量变化，是因为我把港币和人民币的汇率（1:0.9244）算在持仓数量里面了，这样可以通过一个数量的变化，同步修正“本钱”和“持仓市值”两个数值。目前持股：山西汾酒、泸州老窖、石药集团、健民集团。本周沪深300跌幅-0.69%，实盘下跌3.24%。目前持仓总收益8.13%，沪深300年内涨幅3.29%。三、本周思考1.关注极少数股票市场当中，只有极少数公司是真正赚钱的公司。投资就是要寻找和关注这样的公司，一季度或者半年了解一下公司的具体情况。2.极少数股票的特性一些简单的指标，还是从Roe开始。Roe长期大于20%。Roa长期大于6%。毛利率长期大于40%。有息负债率长期小于40%。净利率长期大于15%。净现比长期大于1。自由现金流长期大于1。3.定性分析和定量分析通过财务指标，淘汰公司。然后收集大量的资料，完成对公司的定性分析。定性分析，是决策因素。4.便宜的价格通过这些内容筛选出来的公司，一般来说不会出什么大问题。这时候，我们一定要注意，保持耐心，等待好价格。只击打进入击球区的球。我认为的好价格，就是当市场普遍悲观的时候，了解到公司的经营情况没有发生大的变化，而仅仅因为市场情绪的原因，导致公司市值变化。这个时候，就抓紧时间进场吧。</t>
+          <t>$沪深300(SH000300)$ 当你花自己的钱为自己时，你会智慧使用；当你花自己的钱为别人时，会尽量节省；当你花别人的钱为自己时，就会浪费；最坏的情况是，花别人的钱为别人，它永不会有效率</t>
         </is>
       </c>
     </row>
@@ -563,16 +563,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1335328516</v>
+        <v>2615826699</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>最笨的股民</t>
+          <t>花轮哥哥</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>#沪深300# $紫金矿业(SH601899)$ $中国铝业(SH601600)$ 跟踪锌</t>
+          <t>回复@请多喝热水: 指数基金不容纳亏损股，如果今年赛力斯能扭亏为盈，有可能会加入沪深300//@请多喝热水:回复@万事皆波澜:目前为止赛力斯还没加入任何一个指数基金，本身就很奇怪。1500亿市值了</t>
         </is>
       </c>
     </row>
@@ -581,16 +581,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7961082554</v>
+        <v>1996362963</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>远方问道</t>
+          <t>欢实的蹦蹦跶</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>阿里AI出手？通义千问向所有人免费、免费开放1000万字长文你们没有看错，我也没有说错！Kimi爆火后，阿里主动出击3月22日晚间阿里“通义千问”重磅升级，向所有人免费开放1000万字的长文档处理功能，成为全球文档处理容量第一的AI应用。$上证指数(SH000001)$ $沪深300(SH000300)$</t>
+          <t>Glance Today ：沪深300和上证上行+0.5%，碳中和、基建全线up，科技信息和文化娱乐全线down。Top 3 uppers：电池（3.11）、新能源车（2.53）、新能源（2.08）。川建国身背1.75亿美金罚款仍然奋斗面试中。。。吐血。。。</t>
         </is>
       </c>
     </row>
@@ -599,16 +599,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6022681001</v>
+        <v>6427684694</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>末将于禁</t>
+          <t>二年线定牛熊弹转</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>回复@晚舟夕照: 哦，舟兄也研究过缠论？不过雪球总体还是一个重视基本面而轻视技术面的地方，贸然谈技术容易被喷。而且本身我也认为基本面离开技术面仍然能活，而技术面离开基本面还蛮难的（结合情绪面、资金面可以适度仓位玩），要下重手的话还是得“四面共振”或“基本面+其它任意二面”。$沪深300(SH000300)$没有基本面或者说基本面生变，那靠其它三面进去的资金是否被埋就得很大程度上看天意了。$神农集团(SH605296)$“四面共振”的机会比“三面”少很多，之前在2019年和2020年有过两次经历，那两个票是周K级别的“缠论一买”，这次渣牧是“缠论二买”，二买可能是一个点也可能呈现为震荡区域（更小级别下出现二买），哈哈哈，要是复制之前的成功固然是好，要是其它三面不灵（或有更高维度的压制，比如全球局势、国运什么的完全不在我等掌控之内的东东），那真就只能找个永续行业摆烂、靠基本面吃股息了$牧原股份(SZ002714)$//@晚舟夕照:回复@末将于禁:缠论我一直在用。对于盘感的锻炼非常之大。操作上好几次都是靠着缠论死里逃生。不过纬度还是技术面，市场面，基本面的统一胜率最大。</t>
+          <t xml:space="preserve">《教父  二》很难看懂，你看懂了吗？《教父》系列，绝对经典中的经典，人物冷静、镇定的风格，适合人生方方面面，事业、修行，也适合金融投资（投机）。《教父  一》情节也不简单，但因为有小说原著，去看原著，就基本都弄懂了。而《教父》续集二、三，没有小说原著，纯粹是电影编剧编出来、导演导出来的作品，是用电影这一特殊的言语来推动情节，因此很多细节容易忽略，不看四五遍以上甚至更多，甚至拿着遥控器一帧一帧地细看，才能看懂一些。现在就聊聊《教父  二》，《教父 二》与《教父 一》时代背景不太远，是七年时间，老教父已经去世，二代教父麦克已经接班，对纽约敌对家族首脑与拉斯维加斯的格林全部格杀，然后麦克家族离开纽约，移居西海岸，开始洗白家族事业。原教父手下的两大军事首领，泰西奥因叛变已被麦克除掉。克莱门扎也已去世，其在纽约的地盘交给了其手下弗兰克（潘塔吉利）。这就是《教父  二》的背景。一，《教父  二》的主线，主要就是二代教父麦克与老教父原来的生意伙伴、犹太人海曼劳斯之间的斗争。老奸巨猾的海曼劳斯经营古巴已经二十多年，身家三亿美元，但绝大多数应是固定资产，此时古巴已经闹起革命，海曼与古巴总统等上层关系密切，这老狐狸应该已经嗅到古巴的革命危机，已经将威胁到其在古巴的巨量投资，因此，海曼假惺惺地想怂恿、欺骗麦克这些美国商界巨头大佬来古巴投资，想把自己的投资股份卖给麦克等商界巨头，好在古巴革命成功之前、自己能脱身、套现出来。二代教父麦克的洗白事业还没有最后完成，在海曼劳斯的鼓动下，有点动心，起码可以先去古巴那边看看、考察下。但海曼劳斯这个老奸巨猾，也极其狠毒，他了解麦克责任很精明，可能不会轻易上当受骗，自己想急于从古巴脱身的如意算盘，不一定敲得响。因此，海曼从麦克的二哥弗雷多身上打主意。弗雷多这人较蠢，也无能，只能从事些不很重要的工作，但他又是麦克的哥哥，因此总有怨气郁闷，认为自己很不得志。海曼劳斯利用了弗雷多的弱点，哄骗误导了弗雷多，使其成为了麦克这边的内鬼。海曼的算盘是最好能除掉精明过人的麦克，这样的话，弗雷多大概率会成为克里昂家族事业的首领，最起码话语权会提升，弗雷多这种蠢蛋好骗，可以诱使其投资古巴、买下海曼想脱手的股份，即可达到脱身危机四伏的古巴的目的。因此，在麦克家族庄园举办的大派对的夜晚，海曼的人动手枪机扫射麦克的房间，但麦克命大，海曼的第一次刺杀未成。纽约的家族老人弗兰克（潘塔吉利）与麦克有些小误解、矛盾，但精明冷静的麦克，在当晚的刺杀未遂事件后，应该就已经判断出刺杀他的人应是海曼劳斯，而不是弗兰克。我为什么认为刺杀未遂后，麦克即已经认定杀手是海曼派来的，下面再细说，因为这涉及纽约的弗兰克与海曼的势力、利益冲突矛盾。但为了不惊动海曼，还要安抚、麻痹海曼劳斯，以便报复刺杀海曼，其次，麦克还要查出内鬼，因此，麦克还是带着杀手保镖去与海曼见面，并一同去古巴假意“考察”投资，并伺机暗杀海曼劳斯。在古巴，麦克目睹了革命党的英勇行为，已经切实了解、坐实海曼劳斯的所谓“投资”应是个其做的局、骗人的投资骗局。同时，愚蠢的弗雷多，在古巴酒后失言，无意间泄露出了其与海曼劳斯及其手下强尼欧拉早就认识了！麦克识破真相后，知道哥哥弗雷多欺骗了他，哥哥弗雷多就是内鬼，麦克痛苦万分。海曼也极其狠毒，第一次在庄园冲锋枪刺杀麦克失败，又组织策划了二杀：新年晚会后，汽车回酒店的路上刺杀麦克。但作为七年前、曾经在纽约主导报复行动的二代教父，麦克已经事先预判到了。二，好了，这里，再插入一下在纽约的弗兰克（潘塔吉利）与海曼劳斯及其代理人罗萨托兄弟的冲突矛盾。一代老教父的军事首领之一，克莱门扎，在其死前应答应，在其死后，将其在纽约的一部分地盘，给予罗萨托兄弟，罗萨托兄弟是海曼劳斯的人。但克莱门扎的继承人，即弗兰克，应是食言了（或是没有得到克莱门扎的生前嘱托），没有将地盘给予罗萨托兄弟，罗萨托感觉受到欺骗，因此两派结下了梁子，冲突不断。现在回答上面的问题，后来，海曼劳斯，为什么想除掉麦克及弗兰克（潘塔吉利）？我分析是这样，海曼是想，若能从古巴骗得国内的商界大佬入局古巴、自己套现脱身后，他的巨资，应要有个出路，他应该是瞄上了纽约的地盘。海曼原来在国内，是经营南部的迈阿密，后来才去的古巴，其在迈阿密还是有根据地的，但他应觉得迈阿密的市场还是太小了，容不下他可能戴回国内的巨资。美国西海岸、赌城，又被麦克控制，他暂时无法下手。因此，为了以后能进军纽约地盘，海曼要除掉弗兰克（潘塔吉利）。为了能顺利骗的麦克家族的投资，及以后瞄准西海岸的休闲事业、赌城生意，也要除掉麦克这个垫脚石。海曼的敌人的是麦克，麦克也是知道的，弗兰克曾对麦克说过：“老教父与海曼劳斯是生意伙伴，也尊敬海曼，但从未信任过海曼劳斯，这个犹太人。”因此，麦克内心对海曼是什么态度，是很清楚的，他老爸、一代教父的话，他应是充分相信的。三，弗兰克为什么后来与麦克反目、想在听证会上与政府合作、指证麦克？罗萨托兄弟想在谈判的杂货店里干掉弗兰克，这是海曼指使的，是海曼想除掉弗兰克。（就此事，麦克因此在古巴，当面责问海曼。）但事先，麦克与弗兰克交代，要麻痹海曼，要与罗萨托兄弟和解，但罗萨托兄弟由于受到海曼的指示，却突然借此机会下手，完全出乎弗兰克预料（本来弗兰克以为麦克已经安抚好并与海曼达成了意向。）弗兰克大难不死，就误以为是麦克出卖了他，因此，后来弗兰克才想反目，想报复麦克，想在听证会上指证麦克。但最后，弗兰克在听证会上见到了麦克从意大利西西里搬来的弗兰克的亲哥哥，他立即领会了意大利黑帮内部的秘密--缄默法则，知道自己什么都不该说了，因此在听证会上全部推翻了自己早先的供词，并最后，在军师汤姆的暗示下，选择了自保家族的手段---自杀。对麦克的听证会，是海曼劳斯对麦克的再次报复，是海曼指使人搞的。主要难懂的梗，大概就是这些了，其他都是小节。$上证指数(SH000001)$ $沪深300(SH000300)$ $深证成指(SZ399001)$ </t>
         </is>
       </c>
     </row>
@@ -617,16 +617,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1151862698</v>
+        <v>7760576114</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>喜欢玩基金的小瑜哥</t>
+          <t>股息如山</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>今天预计-0.3%，更新后-0.47%，比我预计多亏了0.17%，我不能接受。不过今天还是大幅跌赢新对手创业板和老对手沪深300，我觉得还不错，反正跌赢也是赢。今年以来-21.71%，超过0.08%全国基友，我投资从不看累计收益，我只看持有收益，目前我持有收益还是正，我觉得我还行。</t>
+          <t>今年我会重点看好沪深300#分红超220亿！宁德时代继续飙升# #持续飙升！宁王回来了？# @雪球创作者中心 $中国平安(SH601318)$</t>
         </is>
       </c>
     </row>
@@ -635,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8462115075</v>
+        <v>2005727406</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>将认知变现</t>
+          <t>有田有闲无病无灾</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>股票收益率超沪深300两位数...那投资亏在哪啊</t>
+          <t xml:space="preserve">接上文。如果我们每年从账户里提10%出来改善生活，会发生什么呢？纳指账户，投入660万，取出392万，实际投入268万，最终账户809万，涨幅为3倍。沪深300账户，投入660万，取出236万，实际投入424万，最终账户394万，亏损30万。总的来说，比只投入不提钱好很多。纳指账户很快就能不需要再投入，自我生长了。而沪深300账户亏损额度要少了不少。这种每年提10%的操作，更加接近现实生活。把它作为一个奶牛，每年挤10%的奶出来。在实际操作中，我们也可以在前几年账户较小的时候不提钱，等账户里的钱比较多后再开始挤奶，或者每年挤定量的奶，这些操作都能提高收益。我想要表达的观点，就是我们投资是一条很长的路，一定要兼顾好投资和生活，不能为了投资而牺牲生活，过苦行僧的生活，这不是我们要的结果，而且也不利于长期投资。而从股市里提钱，我们可能想当然的认为会损害账户的增长，但实际上却是有利于账户的增长。所以，富足的生活，和投资是相辅相成的，缺一不可。$纳指ETF(SH513100)$ $纳斯达克ETF(SH513300)$ </t>
         </is>
       </c>
     </row>
@@ -653,16 +653,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7083498723</v>
+        <v>9579540574</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>贵出贱取之道</t>
+          <t>动人的金条名师</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.   前言前面两篇讲了大盘价值风格的宽基指数沪深300，以及我用于优化替代沪深300的央视50指数。今天来聊聊大盘成长风格的创业板指。2.   指数特点2.1   编制规则从国证指数公司网站上，可以查到创业板指详细的编制规则。该指数的编制规则，与沪深300很类似。①　首先，计算入围选样空间股票在最近半年的A股日均总市值和A股日均成交金额；②　其次，对入围股票在最近半年的A股日均成交金额按从高到低排序，剔除排名后10%的股票；③　然后，对选样空间剩余股票按照最近半年的A股日均总市值从高到低排序，选取前100名股票构成指数样本股。因此，创业板指也是典型的市值加权指数，以“成交额+市值”为依据，选取最高的股票。在定期调样频率上，创业板指与沪深300一样，每半年调一次。因此，创业板指也很容易出现一只排名在50~150位之间的股票，大幅上涨时被调入，大幅下跌时又被调出，从而完美地做了“高买低卖”。上图是创业板指每年二次的调样清单，为了验证我的上述推测，以2023-12-11被调出的6只股票为例，我对每只股票从调入到调出时间范围内的投资收益率进行了计算，如下表：累计收益率=(调出时前复权价+调入时除权价-调入时前复权价)/调入时除权价-1。年化收益率是按复合方式计算持有时间段内的收益率，即：年化收益率=power(累计收益率+1,365/(调出时间-调入时间))-1。可以看到，这6只股票中，只有1只股票的收益率为正，其余5只股票都完美地做到了“高买低卖”，胜率仅为1/6=17%。而这只正收益率的股票，其复合年化收益率也极低，且低于任何一只亏损的股票。之所以这只股票会是正收益，恰恰是因为其调入时间是2010-6-9，这只股票已经在指数里呆了13年。而那些被浮亏调出的股票，只能说短期内跌出市值排名，但不能说其基本面已经大幅恶化，只要能够一直持有，在未来的某个时刻极大概率会解套、甚至有盈利。是不是由于熊市调仓，所以容易出现“高买低卖”现象呢？为了验证这一推测，我又找了牛市高点时被调出的清单，想看一下牛市被调出胜率是否比较高？如上表是2021-6-15被调出的10只股票，当时正是创业板指在最近5年的高点。从数据来看，即使是在牛市高点被调出，针对这调出的10只股票而言，也只有3只(顺网科技、华策影视、上海钢联)是盈利调出，剩下7只都是亏损调出，胜率仅30%。更重要的是亏损调出的7只股票中，截止到当下(2024-3-19)这个创业板指阶段低点，居然有3只是盈利的(当下前复权价比调出时的高出10%以上)，2只是持平的(当下前复权价是调出时+/-10%以内)，2只是亏损的(当下前复权价比调出时的低10%以上)。因此，类似创业板指、沪深300这类市值TOP加权指数，我觉得其定期调样造成的结果，一定是多数调样都是亏损的、只有少数才会盈利。在A股这个“吃得多、拉得少”的市场里，市值和成交量排名前列的公司，在大幅跌出指数后最终退市的概率是很低的，这就造成频繁的定期调样反而是降低了指数投资的收益率。2.2   行业分布创业板指的行业分布如上图，前五大行业分别是工业(39%)、医药卫生(20%)、信息技术(17%)、电信业务(7%)、金融(6%)，行业比较集中。从前十大股票(前10%的数量)占比来看，共占有50.52%比重。而前五大股票(前5%的数量)占比，也高达37%。因此，创业板指虽然有100只样本股，其指数表现却主要集中在头部公司的情况。作为对比，沪深300指数前30大(前10%的数量)股票占比为39%；前15大(前5%的数量)股票占比为27%。都显著低于创业板指。指数权重向头部公司集中的一个显而易见的好处就是：创业板指对于中后部股票的频繁调样，虽然胜率很低，但由于中后部股票的比重极小，因此对指数收益率造成的影响，也会比沪深300小。3.   指数分析3.1   博格公式分析从理杏仁网站下载“创业板指”的历史月数据如下表：数据开始于2010-6-30，到2024-2-29为止。表中各项指标说明如下：①　收盘点位：指数的收盘点位(网站原始值)，成分股的现金分红直接除权而不复权，因此指数中未含每年的现金分红收益。②　PE：指滚动市盈率PE-TTM(网站原始值)，即指数收盘点位与最近4个季度的盈利E之间的比值。③　E：E=收盘点位/PE，计算值。④　PB：指市净率PB(网站原始值)，即指数收盘点位与最近季度财报的净资产B之间的比值。⑤　B：B=收盘点位/PB，计算值。⑥　PS：指市销率PS-TTM(网站原始值)，即指数收盘点位与最近4个季度的营收S之间的比值。⑦　S：S=收盘点位/PS，计算值。⑧　ROE：ROE=E/B，计算值。⑨　E同比增长率：最近4个季度的盈利E/一年前同期的4个季度盈利E-1，反映了当下盈利E的年度同比增长率，计算值。⑩　E-6同比增长率：再增加6个月的数据进行移动平均，计算值。如2024-2-29的E-6同比增长率=sum(2023-9~2024-2的盈利E)/sum(2022-9~2023-2的盈利E)-1，其中每个月的盈利E，其实都含了最近4个季度财报中E的总和。⑪　净利润率：E/S，计算值。⑫　S同比增长率：最近4个季度的营收S/一年前同期的4个季度营收S-1，反映了当下营收S的年度同比增长率，计算值。⑬　PEG：PEG=PE/(E同比增长率*100)，计算值。⑭　股息率：每年现金分红/总市值，网站原始值。⑮　分红率：股息率*PE，即每年的盈利E中拿出多少用于现金分红，计算值。最后一行的复合年化，针对不同的指标计算方式有所不同。收盘点位、PE、E、PB、B、PS、S：这7个指标都按照复合年化方式计算。ROE、E同比增长率、E-6同比增长率、净利润率、S同比增长率、股息率、分红率：这7个指标都直接使用算术平均值。从期初到期末，指数投资的复合年化为5.07%，而PE+E的复合年化、PB+B的复合年化、PS+S的复合年化，也基本与指数复合年化值相近，这也是博格公式所证明的结果。由于创业板指的股息率很低，因此指数复合年化收益率，基本上就是指数基金的投资收益率。期初(2010-6-30)指数的估值极高，PE高达62.74倍，因此好象长期下来的投资回报很差，其实这是一个错觉。把创业板指与沪深300指数在相同时间范围内(2011-6-30~2024-2-29)每月ROE、盈利E同比增长率、净利润率等指标平均值进行比较，如上表。可以看到，沪深300指数在ROE、股息率上占优，而创业板指在E同比增长率、净利润率、S同比增长率上占优。这个差异准确地体现了价值风格与成长风格的差异。价值风格的优势主要体现在红利和高ROE上：①　股息率的差异：其中这2个指数的分红率差距没那么大，但由于PE估值差距很大，因此导致股息率相差极大，沪深300的股息率是创业板指的4.5倍。②　ROE的差异：沪深300在ROE上稍稍占优，但优势并不明显。成长风格的优势则主要体现在高增长上：①　S同比增长率：这充分体现了创业板指的营收高增长特点。②　E同比增长率：这充分体现了创业板指的利润高增长特点。③　净利润率：由于创业板指主要集中在高附加值的新兴产业上，几乎没有传统行业，因此整体的净利润率更高一些。3.2   相关性分析采用correl函数，把上述指标分别与指数点位计算线性相关系数，得到上表。从结果中可以看到，PB、ROE与指数的相关性最高，相关系数分别为0.8、0.79；其次是盈利E、净资产B、营收S，相关系数分别为0.69、0.6、0.63；而其它指标的相关系数都不算高。不过，相关系数只能表明指数点位与这些指标在时间轴上的同期关系，而如果指标与指数之间存在提前或滞后的关系，通过相关系数是无法分析得到的，为此，还需要把这些指标与指数之间绘制相应的变化趋势图予以更深入的分析。3.3   估值分析估值指标仍采用最常用的PE-TTM、PB指标。创业板指作为大盘成长风格的指数，其成分股的盈利E不如沪深300稳定，因此PE与指数的相关性较弱，应该使用PB估值来判断。如上图是指数收盘点位与PB估值的趋势图，PB估值与指数同涨同跌，且几乎形成对绿色点位柱的包络，因此用PB估值来判断买入、卖出点的胜率较高。当下时点来看，PB为3.743倍，分位点为16.27%，处于低估区间。因此存在投资价值。3.4   ROE分析相关性分析章节里说到创业板指点位与ROE的相关系数达到0.79，如上图。除了蓝色圈的两段时间，其它时间的指数点位与ROE几乎同涨同跌。而蓝色圈的两段时间分别是：①　2018年底~2019年4月：2018年底有不少创业板股票业绩洗澡，尤其是商誉减值，导致指数的净资产B大幅减小，因此ROE(E/B)就突然上涨；而到了2019年4月，随着年报和一季报的业绩变脸，导致ROE的分子端盈利E大幅下降，ROE反而又突然下降。②　2022年10月至今：最近一年半的时间里，ROE的分子端盈利E持续提升，ROE也逐渐上涨，但同期指数却不断下跌，造成两者的背离。ROE与指数点位同步上涨也可分为三个阶段：①　2010~2015年：指数ROE持续提升，同期指数也不断创新高；②　2019~2021年：指数ROE持续提升，同期指数也不断上涨；③　2022年6月至今：指数ROE也显著提升，但同期指数却不断下跌。从上述ROE与指数点位的变化趋势图中，可以发现：①　ROE提升，是指数上涨的必要不充分条件，即创业板指的上涨往往伴随着ROE的提升；但ROE的提升，不一定就能使指数上涨。②　短期由于特殊情况导致的ROE与指数的背离，可以不予考虑。③　如果单纯以ROE提升来判断指数上涨，目前来看成功2次、失败1次，胜率为67%。不过如果放长时间周期，我相信指数点位一定还会涨回来，从而跟上ROE指标。3.5   指数-盈利E分析如上图是指数点位与盈利E的趋势图。绿色柱状图为指数点位，绿色虚线为指数趋势线；橙色曲线为盈利E，橙色虚线为盈利E趋势线。从图中可以很明显地看出规律：每次指数点位柱与盈利E曲线大幅背离时，即为买入的好时机(如图中蓝绿色双箭头竖线位置)；每次指数点位柱超越盈利E曲线时，即为卖出的好时机(如图中红色框位置)。按照该规律，从创业板指有数据至今，共有2轮买入-卖出机会：第1次：2012年初买入(大幅背离)，2015年中卖出(大幅超越)；第2次：2018年底买入(大幅背离)，2021年卖出(大幅超越)。目前来到了第3次轮回。不管是2022年10月，还是当下，指数点位与盈利E都已大幅背离，因此买入点的判断是没有问题的，接下来要做的就是持基待涨。3.6   指数-净资产B分析如上图是指数点位与净资产B的趋势图。绿色柱状图为指数点位，绿色虚线为指数趋势线；橙色曲线为净资产B，橙色虚线为净资产B趋势线。与之前“指数-盈利E”趋势图类似，“指数-净资产B”趋势图也有同样的规律：每次指数点位柱与净资产B曲线大幅背离时，即为买入的好时机(如图中蓝绿色双箭头竖线位置)；每次指数点位柱超越净资产B曲线时，即为卖出的好时机(如图中红色框位置)。3.7   E同比增长率、E-6同比增长率分析除了相关系数较高的PB、ROE、盈利E、净资产B之外，通过趋势图可以发现，创业板指与E同比增长率、E-6同比增长率指标也有明显的关系。但这种关系有时会提前，有时会滞后，因此单纯从相关系数上看并不太显著。如上图，如果基于E同比增长率、E-6同比增长率指标来投资，有3轮完整的投资机会：①　2013~2015年：E同比增长率、E-6同比增长率指标持续提升，同期指数也不断创新高。但该轮过程中，指数先见顶，而后才是增长率指标见顶回落，因此增长率成为滞后指标。②　2019~2021年6月：E同比增长率、E-6同比增长率指标持续提升，同期指数也不断上涨。该轮过程中，增长率指标先于指数见顶，因此又成为领先指标。③　2022年10月~2023年9月：E同比增长率、E-6同比增长率指标持续提升，但同期指数却不断下跌。因此，依据增长率指标来指导创业板指投资，历史胜率为2/3。3.8   复合年化三线分析与沪深300指数类似，创业板指也有对应的复合年化三线趋势，只是波动幅度更大一些。仍以10%作为中轴线，以14%、6%作为上沿和下沿，得到以下指数复合年化三线图。从图中可以找到规律：1、去除掉前8年的数据：这相当于长期持有8年，使复合年化收益率钝化，不再受到短期估值变动的影响。2、当指数点位接近或跌破6%复合年化线时，是买入的好时机。3、当指数点位接近或超过14%复合年化线时，是卖出的好时机。目前指数点位在8~9%附近，属于合理偏低区域，可以持有并等待其上涨。3.9   长期复合年化分析基于创业板指月度点位数据，每月计算PE、E、PB、B的复合年化收益率，并生成上述两张面积图。从图中可以看到以下规律：1、PE+E的复合年化相加，即为指数的实际复合年化，这就是博格公式的含义。2、PB+B的复合年化，也相同。3、不管是PE+E还是PB+B，一旦持有超过一定时间(如6~7年，即一轮牛熊周期)，估值的影响就会被钝化而消弭，只剩下盈利E或净资产B复合年化的影响。因此，指数投资，长期而言，投的就是盈利E的增长或净资产B的增长，再加上股息收益。深刻理解了这一点，就能做到长期持基、心中不慌，而不再热衷于短炒了。4.   经验教训我在2018~2021年时投资过创业板指ETF，如上图，从2018年1月开始分批定投，到2021年12月全部止盈，最终收益率为79%。5.   小结5.1   适合人群创业板指作为成长风格的宽基指数代表，适合于偏好高波动、高收益的投资者。5.2   投资依据1、基于估值可使用PB估值，当估值在长期百分位的低点(如20~30%及以下)时买入；在长期百分点的高点(如70~80%及以上)时卖出。2、基于ROE在ROE提升时买入；在ROE下降时卖出。历史数据显示胜率为67%，尤其是当ROE从低位开始向上提升时，不管从逻辑上还是从历史数据来看，就是好的买入点，如果再叠加上PB估值的判断，就更容易做出买入决策。3、基于盈利E或净资产B与盈利E或净资产B曲线背离时买入；超越盈利E或净资产B曲线时卖出。4、基于E同比增长率、E-6同比增长率在E同比增长率、E-6同比增长率提升时买入；在E同比增长率、E-6同比增长率下降时卖出。历史数据显示胜率为67%，不管从逻辑上还是从历史数据来看，就是好的买入点，如果再叠加上PB估值的判断，就更容易做出买入决策。5、复合年化三线接近或跌破6%复合年化线时买入；接近或超过14%复合年化线时卖出。6、长期复合年化创业板指的盈利E复合年化收益率在12%左右，因此只要在PE估值较低的位置买入并长期持有，一定能够赚到钱，且长期收益言能够做到12%左右。当然，创业板指与沪深300类似，由于其“成交额+市值”排名的编制和调样规则，很容易导致排名末尾的股票出现“高买低卖”现象，这种情况在震荡市里可能更易出现。因此，我在2023年初看到创业板指又开始有投资价值后(当时主要的依据是ROE、E同比增长率、E-6同比增长率在不断提升，而PB估值则跌到最近10年20%分位值以下)，就开始在找相比创业板指有更多超额的指数，下篇再聊。</t>
+          <t>反正沪深300空单开了。3000点就是顶部</t>
         </is>
       </c>
     </row>
@@ -671,16 +671,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7728722798</v>
+        <v>2005727406</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>林益龙</t>
+          <t>有田有闲无病无灾</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>这不扯淡 人家去年年底又没大跌 沪深300是大跌后涨3% 这 还不算超额很多</t>
+          <t>假设我们从2014年每年年初拿出资金投资纳指100和沪深300，就按照040046的来计算，第一年拿出10万，第二年拿出20万，以此类推，看看到底能赚多少钱？为啥会本金越投越多，那是因为咱们老百姓都是随着年龄的增长，腰包才鼓起来的，因而投入股市的闲钱才会多起来。11年总投入660万，投纳指最终1393.83万，大概是1.1倍左右，投沪深是606.88万，亏损53万多。得到的结论是：1.不能光看数据，要根据现实情况来。我们不可能在年轻的时候就拿出巨款，然后不再投钱了，我们都是慢慢的有了钱投点有了钱投点，要考虑到实际情况来。2.虽然投纳指最终是1.1倍，远小于465%的理论数据，但是完胜投沪深300，11年下来反倒亏损。这就是现实和理论数据的差别，也是很多人都觉得股市赚不到钱的原因。不是我们没有定力，不懂夹头，而是现实本来就是和理论不一样的。$纳指ETF(SH513100)$ $纳斯达克ETF(SH513300)$ 理论是理论，现实是现实，我们要正视现实，努力寻找一条赚钱的投资之路，划重点哦，是要赚钱。</t>
         </is>
       </c>
     </row>
@@ -689,16 +689,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8154778788</v>
+        <v>7680168391</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>键不灵</t>
+          <t>指慧家</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>关注股价一时的涨跌，才能感受市场的态度。比如，乐鑫科技，为什么成交平平，在大好行情中庸庸碌碌。中复神鹰，为啥不如中简科技弹性大，不如光威复材稳健。有些老师，为啥整天屁股决定脑袋，鼓吹自己的持仓，比如$上证50(SH000016)$ ，$沪深300(SH000300)$，券商股，不断贬低小微盘，$中证2000(CSI932000)$ ，即便在这么好的行情中不怎么挣钱。持仓不涨，就是市场错了，市场神经病。五日三省吾身，不做埋头的鸵鸟。公司内在价值不用去在乎？开玩笑的，谁不想拿的放心些。</t>
+          <t>【A股方面】A股主要指数今日窄幅震荡，截至收盘，沪指涨0.17%报3031点，深证成指涨0.28%，创业板指涨0.44%。全市涨跌个股数相当，全天成交9560亿元较昨日缩量874亿元，北上资金净买入47.25亿元。盘面上，宁德时代与特斯拉合作研发充电速度更快的电池，电池板块普涨，刀片电池、固态电池及麒麟电池等方向领涨，星云股份20cm涨停；小米汽车28日晚7点正式发布，小米汽车概念持续走高，奥联电子等多股涨停；氟化工概念股走高，联创股份等多股涨停；水产养殖、房地产服务及玻璃玻纤等板块涨幅居前。另外，AI语料、Kimi概念板块下挫，掌阅科技等多股跌超7%；多模态AI板块走弱，润建股份跌停；国资云概念走低，美利云跌逾7%；快手概念、全息技术及Web3.0等板块跌幅居前。【港股方面】港股午后持续冲高，科技股拉升助力大市上扬，三大指数盘中均涨超1.5%，恒指最终收涨0.88%，国指、恒生科技指数分别上涨1.23%及1%。盘面上，权重科技股纷纷上涨，腾讯盘中涨超4%，股价重回300港元大关，百度涨3.67%，京东、小米、快手皆有涨幅；商务部鼓励和推动汽车等消费品以旧换新，汽车股午后震荡攀升，特斯拉概念股、锂电池股齐涨，手游股普遍活跃，内房股、银行股全天表现强势，招商银行绩后涨超4%领衔。另一方面，全年派息削五成，粤海投资放量大跌超17%领衔水务股走低，金价走高谨防潜在波动风险，连续上涨的黄金股回调，苹果概念股延续跌势，舜宇光学录得4连跌行情。【博时ETF】【后市展望】东方证券分析称，从技术上看，指数从反弹过渡到横盘震荡，活跃资金从积极参与到谨慎做多甚至套现离场，预示着市场进入蓄势整固期，盘面热点分化但并不意味着行情结束；从时间轴来看，市场逐渐进入一季报业绩披露期，投资者需要密切关注相关主题和赛道业绩支撑状况。中信建投证券指出，随着市场逐步进入业绩披露窗口，资金关注焦点或重回基本面验证，市场的修复动能也有望逐步转向基本面好转带来的盈利推动，后续建议密切关注上市公司基本面的边际变化情况。配置上，一、重点关注新质生产力方向；二、顺应人工智能新兴产业趋势和国内大力发展数字经济政策方向的科技成长赛道；三、全球制造业活动修复正在启动，优先推荐铜、油、煤炭、资源运输（油运等）、铝和贵金属。风险提示：任何在本文出现的信息（包括但不限于评论、预测、图表、指标、理论、任何形式的表述等）均只作为参考，投资人须对任何自主决定的投资行为负责。另，本文中观点、分析及预测不构成对阅读者任何形式的投资建议，本公司亦不对因使用本文内容所引发的直接或间接损失负任何责任。基金投资有风险，基金的过往业绩并不代表其来表现，投资需谨慎。$上证指数(SH000001)$ $创业板指(SZ399006)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -707,16 +707,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1571617732</v>
+        <v>8135155318</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ETF智选</t>
+          <t>格道</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>本周一，第二批8只中证A50ETF集中上市。本想择机给大家分析一下投资价值的，结果，却发现了不得了的事。院长查了一下这8只ETF截止周一收盘的净值。同样是中证A50ETF，有的赚了将近2%，有的甚至还微亏。其中，华泰柏瑞的563350最高，为1.0188，盈利1.88%。其次是工银瑞信的561230，盈利1.87%。（来源：同花顺iFinD，2024.3.18，下同）而华宝基金的159596，净值居然只有0.9995，微亏0.05%。银华的159592也是亏的。第二批的这8家，除了大成2月29号结束募集，其他7家都是3月1号结束募集。理论上来讲，建仓期应该是几乎完全一样的。所以这个净值差异，只能理解为在建仓期，有的基金经理追高了，有的则抄到底了。有超额收益，哪里不好了？院长之前在和某基金公司市场部的人员交流时，对方说道：“ETF是紧密跟踪指数的产品，有超额收益反而不好。”单看这句话本身，感觉也还好。但是，你如果没有练习过怎么获得超额收益，不知道哪里有坑，又怎么帮大家在建仓期避免追高、跑输指数呢？院长去年盘点创新药ETF的时候也曾发现，2020年发行的某创新药ETF，长期跑输业绩比较基准。在2020年8月4日这天，业绩比较基准收益率71.52%，基金净值收益率57.20%。不知道的人，看着那个曲线，还以为是哪个医药主题的主动权益基金呢。（而且基金经理水平还不咋样）大家的钱都是大风刮来的吗？你这样嚯嚯我？如果创新药ETF就它一家，那可能也就捏着鼻子忍了，毕竟确实有稀缺性。问题是，市场上那么多创新药ETF，大家凭啥要选超额收益更低的那只呢？相比之下，有的基金经理就做的很不错。院长在翻看宣介材料的时候，曾看到过有一家公司，公开宣传某位ETF基金经理擅长在建仓期把握机会，获取一定的超额收益。从数据上看，他管理的几只ETF，确实建仓期表现也是普遍好于对应指数和同期同款ETF的。这才是对大家负责任的态度嘛！应该大力宣传才对。为了避免有拉踩的嫌疑，今天就不点名了。但是也希望某些基金经理，耗子尾汁，不要以为ETF的管理很轻松，就不去提升自己了。毕竟，ETF所在的部门一般是叫做“量化与指数部”。你都整量化了，搞一个建仓期避免跑输指数的模型，这个要求不算特别高吧？中证A50ETF，值得买吗？下面，简单聊一下中证A50ETF本身的投资价值。中证A50指数目前的数据是从2015年1月开始的。2015-2016年，中证A50与沪深300几乎完全同步；2016年底-2018年初，中证A50明显跑赢沪深300；2019-2021年，中证A50小幅跑赢沪深300；2022年至今，两者再次几乎完全同步。没有出现过A50阶段性跑输沪深300的情况。院长仔细想了一下，这个现象可能有两种解释。第一种解释是：2016年，外资刚刚进入A股，开放得还比较少，大家不熟悉，主要买最大的那一批，也就是A50成份股。所以这一段超额收益比较高。现在，外资对A股核心资产也比较熟悉了，买的股票多起来了，A50相对沪深300就没有那么大优势了。第二种解释则是：2016-2018年初是一波明确喊出口号的“慢牛”。当时针对小微盘股的炒作打击极其严厉，所有资金（甚至包括游资）都被迫以大为美，因此各行业的龙头跑赢了市值最大的300只。之后，市场先是偏向大盘成长，随后又偏向小盘，导致A50相对沪深300的超额收益下降，乃至消失。往未来看的话，如果有某种因素使得场内资金的审美改变，重新向超级大盘股倾斜，那么中证A50是有可能跑赢沪深300的。但2016-2018年初的这两种情况确实比较特殊，应该是难以再复现的。所以，院长感觉，现阶段来看，中证A50的投资价值，无论短期还是长期，应该是与沪深300几乎完全一致的。考虑到历史上没有跑输过，可能会稍微稳一点。想长期持有龙头股，该买什么？想买中证A50ETF的朋友，建议关注一些长期跑赢沪深300、中证A50的策略指数产品，现阶段可能更好。比如沪深300安中（000368），优选300（501060）等等。其中，000368是针对沪深300做行业轮动增强，有时会追涨。最近5年跑赢沪深300 57%左右，跑赢中证A50 50%左右，超额相当稳定，各个阶段都能胜出。（来源：同花顺iFinD，2024.3.19）此产品仅限场外，没有ETF。501060是一种特殊选股策略，以高ROE为标准，力求选出相对极端的大盘价值风格。历史上看，有一小段时间内没有跑赢沪深300，但大部分阶段都可以胜出。最近5年跑赢沪深300 64%左右，跑赢中证A50 57%左右。它是个LOF，场内可以交易但流动性非常差，同样建议场外。两个产品的最大区别在于：000368适应性可能更强一点。如果出现成长风格极度占优而价值风格被彻底抛弃，501060是没法调整风格的，000368会有30%的轮动调整余地。但是501060长期来看收益稍好。考虑到费后长期收益差距实在巨大，院长不是很建议利用中证A50ETF场内做T。大盘股本身波动就不那么大，5年内还是很难自己做出60%左右的超额收益的，没必要冒这个风险。最近小盘股、科技股其实调整风险不小了。但是从的表态来看，大盘股的调整风险并不大，可能会一直坚持护盘。所以，大盘风格的基金大家随时都可以开始定投，逢调整双倍发车即可。风险提示：无论是股票ETF/LOF基金，都是属于较高预期风险和预期收益的证券投资基金品种，其预期收益及预期风险水平高于混合型基金、债券型基金和货币市场基金。基金资产投资于科创板和创业板股票，会面临因投资标的、市场制度以及交易规则等差异带来的特有风险。基金资产投资于港股或海外市场，除以上风险外，还会面临汇率风险，提请投资者注意。板块/基金短期涨跌幅列示、个股短期业绩仅作为文章分析观点之辅助材料，仅供参考，不构成对基金业绩的预测或保证。以上观点仅供参考，不构成投资建议或承诺。在投资相关基金产品前，请您务必关注投资者适当性管理相关规定、提前做好风险测评，并根据您自身的风险承受能力，投资与自身实际情况相匹配的基金产品。基金有风险，投资需谨慎。</t>
+          <t>有这样一家公司：手里有一百多亿的货币资金，每年利息收入1%多一点点，但它却要去借20个亿，支付6%+利率，这样一来，20亿的贷款利率把一百多亿的利息收入吃得干干净净。有人懂的吗，解释一下，是资金被大股东挪用了还是管理层脑袋不灵光，还是其他什么原因？$沪深300(SH000300)$ $上证指数(SH000001)$ $同仁堂(SH600085)$</t>
         </is>
       </c>
     </row>
@@ -725,16 +725,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5452093386</v>
+        <v>1889357178</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>自由的路</t>
+          <t>创业板ETF159908</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">上午的跳水走势吓你一跳，下午就给拉起$沪深300(SH000300)$ $上证50(SH000016)$ 都集中放量，还是熟悉的节奏。下周一应该还会延续调整，但不会很深，随后再次拉起甚至不排除指数再创新高，到那时肯定很多人又开始亢奋了，最后咣当，给你了$上证指数(SH000001)$ </t>
+          <t>盘面追踪上个交易日，A股冲高回落。在上周触压回落的背景下，昨天四大指数小幅低开，随即盘面空方力量再度转强，各指数维持艰难整理态势。午后，大盘震荡下冲，全天上证指数最低下模至3026点位置附近。四大指数中，上证50收跌0.08%，沪深300收跌0.54%，中证500收跌1.67%，中证1000收跌2.32%。昨日工程机械、贵金属等涨幅靠前，文化传媒、休闲用品等相对落后，全天个股下跌超过4500家，汇率波动叠加消息面扰动下，市场情绪快速降温。技术追踪短期大盘进入3050一线压力区域，整体指数层面波动率下降，叠加部分行业赛道拥挤度较高，期指技术面存在压力。资金流向近期A股成交金额维持在万亿级别之上，短期换手率回温对指数下方构成支撑，北向资金净流入55.71亿元，未来趋势行情的的驱动在于外资。02 宏观分析近期值得关注的几个事件：（1）国内经济数据好于预期（尤其是今年关键的出口与地产），但修复幅度不高，整体宏观面依然处于走平阶段。中观上，从目前A股公布的财报数据来看，部分板块盈利已逐渐走出底部区间，未来基本面预期易上难下；（2）美联储议息会议后，国际市场解读偏鸽，美股科技股涨势偏强，或是带动上周国内相关概念逆势活跃的一大原因；（3）大国摩擦再起，美国对华投资法案、俄罗斯恐怖袭击等对市场情绪扰动较大。综合来看，我们认为基本面尚在底部的情况下，短期政策面以及海外市场对于市场情绪的干扰较大。一方面，一季度伴随着两会召开不少政策密集出台，短期政策面再出现超预期利好的概率不大，二季度起国内的聚焦点在于经济成效的兑现成绩上面。另一方面，中美利差倒挂问题仍是关键症结，当前美联储降息争议大、美国大选年以及国际黑天鹅事件潜在，预计对于A股指数层面构成压力。03 投资建议操作建议（期货）：短期情绪面敏感度较高，指数趋势回归震荡，单边可操作性不强，参考沪深300指数3400点支撑，若逢回踩可短线介入。低波红利+TMT短期仍有配置价值，长期建议跟踪国内地产以及中美关系。操作建议（期权）：昨日股指期权IV震荡回落，上周五小幅上冲后，昨日沪深300当月平值隐含波动率回归至15%一带上方。短期，标的指数突破未果，期权波动率与方向尚未转向正相关，鉴于隐含波动率分位数较低，投资者可选择双买+认沽/认购义务仓。来源：中金股指免责声明：转载内容仅供读者参考，版权归原作者所有，内容为作者个人观点，不代表其任职机构立场及任何产品的投资策略。本文只提供参考并不构成任何投资及应用建议。如您认为本文对您的知识产权造成了侵害，请立即告知，我们将在第一时间处理。</t>
         </is>
       </c>
     </row>
@@ -743,16 +743,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7303260928</v>
+        <v>6023028966</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>五千万者也</t>
+          <t>磊磊王</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>$沪深300ETF(SH510300)$ 一直是神秘资金的主要护盘标的，在大跌的周五反应特别明显。下午开盘之后巨量买入，两点四十分左右卖盘凶猛之时又及时介入，将沪深300的跌幅收窄在1%以内。从60分的K线看，关注点在于下周60均线是否能将指数拉回，延续牛市走法。否则，更大的回撤应该还没到。</t>
+          <t>回复@上善山水: 问题是宽基红利增长率能到多少？现有沪深300股息增长率大致7%，还是远远无法望中证红利15%的后背的//@上善山水:回复@上善山水:上投摩根和工银瑞幸卷A50ETF分红，在我看来，这是跨越时代的大事，指数强大，管理卓越，即能跑赢，又能分红，全能冠军。相对的，中证红利ETF，我自始至终只强调分红不强调跑赢，为什么？国人投资者有个小毛病。熊市来了，没爆仓，没爆雷，跌再多，他能接受。指数基金，只要不太缺德，做到那爆爆的段位，还不容易，。但是，牛市不一样了，大盘涨得猛，他涨得慢，不可以的哈，非常蓝瘦。中证红利ETF的投资者若无合理定位，遇到牛市很麻烦的。若是宽基爱上了分红，这些问题，都不存在了。</t>
         </is>
       </c>
     </row>
@@ -761,16 +761,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6263178708</v>
+        <v>1576806270</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>退之在股市</t>
+          <t>美丽的游离</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>沪深300从2021年3月10日以来收益率为-29.15%，我的账户为-8.78%，跑赢21个点。虽然还没有回本，但也算满意。三月份就是来回震荡，一点意思也没有。看看四月份是否能够出现本轮牛市主线。</t>
+          <t>老师们到处看空惨兮兮，但是指数红通通光看指数怎么有一种又完成了调整的样子？这个位置真的是不要轻易看空，多次指数都是半日左右就完成了调整，给人一种踏空资金一看到调整和下跌就疯狂涌入的错觉，给人一种下跌就会V反的错觉牛市不是不会跌，而是跌了能够快速收复（当然我没说现在就是牛市，有点像但不全像）$上证指数(SH000001)$ $创业板指(SZ399006)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -779,16 +779,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9318157559</v>
+        <v>4640076242</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>阿晖顺势而为</t>
+          <t>博纶</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GJ队购买沪深300ETF和日本央行购买日经指数ETF的目的和潜在效果在某些方面具有相似性，都是通过在市场中注入资金、支持相应指数权重股来稳定或提振股市。1.	GJ队购买沪深300ETF：•	目的：通常是为了维护金融市场稳定、提振市场信心，在市场低迷时通过购买追踪中国沪深300指数的ETF，间接投资于中国规模最大、流动性最好的300家上市公司，从而对整个市场产生积极影响，帮助大盘止跌回升。•	效果：短期内能够增加市场流动性，推动相关成分股价格上涨，并可能带动其他投资者跟随买入，有助于改善市场情绪和技术面格局。2.	日本央行购买日经指数ETF：•	目的：日本央行实施量化宽松政策的一部分，旨在刺激经济增长和抑制通缩，其大规模购买日经ETF也是为了提振国内股市，促进企业融资环境改善和财富效应。•	效果：长期且大量的购入行为使得日本央行成为许多日本大公司的主要股东之一，显著提高了日经指数的表现，同时也的确促进了股市的整体上涨和市场信心恢复。因此，两者虽然国情不同、市场环境各异，但都在各自的市场中起到了托底和稳定股市的作用。不过，长期效果、市场反应和政策可持续性等方面会因国家宏观政策、市场机制差异等因素有所不同。同时，过度依赖此类操作可能会导致市场定价扭曲等问题，这也是各国央行和监管机构需要权衡的问题。而$日经225指数主连(NKmain)$ 从2011年开始也走了十三年牛市。$沪深300(SH000300)$ 如果一直被买下去。牛市也是可以期待的</t>
+          <t>沪深300才3500不到，怎么也要到4000吧，公募肯定会想办法炒高好多赚管理费。公募私募游资，各种主力的炒作方式和获利方式不一样的</t>
         </is>
       </c>
     </row>
@@ -797,16 +797,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1996362963</v>
+        <v>8235769212</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>欢实的蹦蹦跶</t>
+          <t>未虑胜先虑败2024</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Glance Today ：沪深300和上证继续下行-1%，各行业普落，except for 文化娱乐板块 which includes 3 TOP UPPERS：影视（+3.44）、传媒（+1.70）、文娱传媒（+1.26）。TOP3 DOWNers 包括第一名有色金属（-2.73），来自碳中和板块的第二名电池（-2.64）和第三名新能源（-2.59）。</t>
+          <t>今天收益0.11%，$古井贡B(SZ200596)$ 单骑救主，加上转债TOP2仓位凯中转债和九洲转2不算拉胯，勉强收红。跑赢可转债等权，跑输沪深300盘中补仓科蓝转债，有几只题材债看来是买高了。看来不买高是投资题材债的命门。</t>
         </is>
       </c>
     </row>
@@ -815,16 +815,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7487155686</v>
+        <v>3965370993</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>肆拾启</t>
+          <t>大川成长价值投资</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>比较疑惑的是指数下跌的时候，买入上证50，沪深300，现在有中证a50了，既然认为它重要，像今天这样重要的日子，为什么不发力买入？难道它确实不重要？$上证指数(SH000001)$ $深证成指(SZ399001)$ $创业板指(SZ399006)$</t>
+          <t xml:space="preserve">大川对今明两年的a股和人民币汇率都是很乐观的，我看好今明两年的人民币汇率，也看好今明两年的a股行情！不知道你们怎么看？这场金融Z，老美就是想消耗完我们的外汇储备，搞垮我们人民币汇率，但是我们咬着后槽牙，全都扛过来的，7.5都没有到，更别说8字头了，一直稳定在7.2-7.3。六月老美大概率要开始降息了，前几天瑞士率先提前完成降息，欧洲主要国家一定会紧跟老美，一同降息的，大势所趋。我们人民币汇率一定会迎来一定幅度的升值。升值会影响我们出口吗？我们外贸出口这两年确实不好，对俄罗斯的出口倒是不错。但个人认为后市人民币的升值对出口影响不大，别忘了欧美都会陆续开始降息，这是有利于我们出口的，我预测后面美国也会主动找我们缓和关系的，当这次金融Z的僵持阶段，逐渐向我们倾斜的时候，老美后面注定会来找我们的，等着吧$上证指数(SH000001)$ $沪深300(SH000300)$ $中药(BK0041)$ </t>
         </is>
       </c>
     </row>
@@ -833,16 +833,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6789684028</v>
+        <v>1384220130</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>快乐投资长期</t>
+          <t>趋势估值V止损为王</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>沪深300点数3545.00， -1.01%。中国10年期国债收益率2.315%。黄金2169.65美元/盎司。投资知识：理财产品，简单地讲，就是把钱给别人，让别人帮你投资赚钱。今日读《买入银行股》：长期复利的关键也包括反脆弱，策略要能应对各种意外。 托尔斯泰在《安娜·卡列尼娜》中有一句名言：“幸福的家庭都是相似的，不幸的家庭各有各的不幸。”社会和文明也是如此。伟大的文明之所以伟大，往往不是因为它的优点有多么突出，而是因为它没有致命的弱。</t>
+          <t>今后十年二十年一百年，我仍然只玩沪深300成份股，甚至有一天会开始，只玩红利ETF和沪深300ETF。</t>
         </is>
       </c>
     </row>
@@ -851,16 +851,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3069361666</v>
+        <v>7130800476</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FIRE定投</t>
+          <t>步步高陈</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>今天的行情印证了A股的一个传统，就是横久必跌，简直就是一个魔咒。最近市场一直横盘没能进一步上攻，已经感觉有点不对劲了，昨天有几个板块趋势率先走坏了，包括光伏，趋势已经明显转为向下了，所以我也赶紧发了一篇文章和视频，提示光伏趋势走坏，不能重仓了要及时退回到中性仓位。进一步的仓位调整就看60日均线能否守得住了，目前暂时还没跌穿，但是看这个架势，不见的守得住，这一点风险希望大家注意吧。如果说昨天还只是少数板块趋势走坏了，那么今天一波大跌后，市场整体和多数板块趋势都开始走坏了。例如沪深300，尽管今天国家队下午进场拉了一波，但依旧跌幅不小，并跌破20日均线，将之前横盘的趋势彻底打破了。包括大盘和创业板也是类似的情况，确实也都迎来了拐点，就看下周后续怎么走了。那么，一来大盘和沪深300都到了压力位下方；二来均出现拐点；三来交易量也都逐渐看出放量后的缩量走势；四来MACD也都出现死叉。诸多信号都不是什么好的迹象，值得重点注意。当然，在我看来哈，市场整体以及很多板块，他们都算是跌破了我的第一道防线，就是趋势没有那么强势了，甚至横盘趋势都不再了。在我的策略里，一旦跌破第一道防线，我就不会再去重仓它了，避免重仓被深套，所以一些板块适当减仓是有必要的了，起码回归到中性仓位观望一下为好。另外，他们暂时还没有跌破我设置的第二道方向，就是支撑线，所以我暂时也不会考虑清仓。拿光伏举例，光伏近期持续回踩，刚好回踩到了60日均线上方还没有跌破，这里没准下周直接支撑起来恢复向上趋势，暂时没法百分百确定破位了，所以我还是会中性仓位观望一下，从20%的重仓减仓回到了10%以下的中性仓位。如果下周光伏跌破60日均线，那我会考虑进一步减仓回归到一个非常轻的仓位避免进一步下跌很多。其他板块大家也可以用类似的套路去观察，例如沪深300代表的是市场整体，当下趋势也变得不好了，形成回踩势头，那么我会考虑将我整体的仓位降低回到一个中性仓位，观望一下，等到稳定了以后再加回去。然后一边中性仓位持有一边重点关注60日均线支撑，如果跌破反倒不能犹豫要继续减仓避免被深套，因为我说实话，到如今这个情况了都能跌破60日均线的话，之后绝对不会只是一个小跌就能结束的，不然是很难跌破60日均线的。以上便是我的个人看法哈，前段时间一直横盘，小部分板块趋势走坏，昨天小幅减仓，今天这样一个特殊的行情作用下，市场整体以及多数板块都趋势走坏了，看来整体的仓位也要适当往下降一降了。而且我前几天反复跟大家说的一个我近期特别关注的一个数据，就是北向资金动态，算上今天流出的，北向资金已经连续两天比较大幅度流出了，这也是让我有点担忧的一个点。另外，前几天我其实提示过两个可能的黑天鹅，一个是美联储降息预期的放缓，这个黑天鹅前段时间算是给解除了，因为美联储给出的点阵图是超预期的宽松，年内可能降息三次；另一个黑天鹅就是日本宣布要加息退出负利率时代了，这个是最有可能成为影响全球的黑天鹅事件，不得不防一手。而今天的大跌，我看是跟汇率段突然的爆炸贬值应该是有关的，今天早上开始美元指数就一路拉升，最近美元指数反弹都挺猛的，美元指数拉升对A股肯定不是啥好事。总而言之，提醒大家最近稍微适当谨慎一些，总仓位上适当的收缩收缩，可以先观望观望，等待市场恢复稳定了再去提高仓位或许更好一些。况且，当下你明显发现市场里的投资者心也不齐了，已经不像前段时间那样一起做多，而是出现了不小分歧，抢跑跑路的资金肯定也不少，毕竟A股的投资者总会把这个游戏完成一个零和博弈，这一点也算是一个值得谨慎的点吧。OK，今天就聊这么多吧，希望今天的内容能对大家有所帮助。文章的最后，需要再做一个免责声明：上面所有的分析内容也只是我的个人推测，不代表事实一定如此，也不见得一定对，仅供参考，不构成投资建议，投资有风险，入市需谨慎。</t>
+          <t>2024年，内外重压之下，变革加速，资本市场和宏观经济都加速出清。A股宽幅震荡，熊牛转折，结构性牛市，弱化指数重个股。2月5日的恐慌性低点2635不会再跌破，系统性风险也不太可能再出现，那么，每次跌到3000点附近，都是长线布局良机。$中证1000(SZ399852)$ $沪深300(SH000300)$ $上证50(SH000016)$</t>
         </is>
       </c>
     </row>
@@ -869,16 +869,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5720458993</v>
+        <v>7244958347</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>布衣书生走天下</t>
+          <t>huadong</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">君子居易以俟命，小人行险以徼幸——《中庸》昨天文章提到：“沪深300，这种极致的收敛，已快到尽头了，后面很可能以大阳线或大阴线来选择方向”。今天，沪深300终于选择了方向，不过是向下破位。除了小盘股外，各大指数均已明显跌破均线，这是市场的客观情况，意味着可能会有一波像样的调整出现。股民大多都有个毛病，看到多头信号就很兴奋，忍不住想往里冲，而看到空头信号总是犹犹豫豫，不愿意去承认。其主要原因是，散户缺少做空工具，导致只能一心去找做多的机会，同时机构和分析师等由于种种原因，几乎都是永远只看多。由此，导致的结果就是，大多数人对空头信号视而不见，跌势中总想着抄底。交易如战争，最重要的是实事求是，按照客观规律办事，遵守策略去做。谁敢有主观偏见，违背市场趋势，市场就会处罚谁。现在的客观情况是：长期看，市场是低估的，要多点乐观；短期看，市场走得较弱，出现了破位，要多点谨慎。所以，我们的策略就是，等跌到支撑位，出现企稳信号，再勇敢加仓。还是以沪深300为例，这波破位后，向下就看哪里能支撑住，出现企稳信号，就可能出现买入机会。而短期看，如果不跌的话，必须向上突破新高，比如3600点，才可视为重拾升势。这就是交易计划，清晰明了，没有一点模棱两可。战争永远不会等你准备好了再降临，市场永远充满着意料之外。交易计划不是预测，更不是神棍，它是对未来各种情况的应对。清水出芙蓉，天然去雕饰。最深刻的哲理往往是朴素的，最有用的交易策略往往是简单的。就像孙子兵法流传千年，其中讲的道理是最浅显而又精深的，用的语言是最明快的，其内容深入浅出，雅俗共赏，而非像如今一些专家那样贩卖名词，故弄玄虚。你简单，市场就简单；你复杂，市场就复杂。$中国神华(SH601088)$ $中炬高新(SH600872)$ $格力电器(SZ000651)$ </t>
+          <t>$沪深300(SH000300)$ 今天持仓下跌-0.13，大盘上涨+0.51，跑输大盘-0.64个点。思摩尔国际跌幅较大，其它涨跌都不大。</t>
         </is>
       </c>
     </row>
@@ -887,16 +887,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3374201857</v>
+        <v>5124430882</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A股牌哥</t>
+          <t>7X24快讯</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>下午一开盘沪深300、上证50ETF  就出现了大量买单郭嘉队  这次提前上班了估计是看上午跌的太多不敢等2:30再来护盘了</t>
+          <t>【三大赛道受关注 新能源ETF易方达（516090）等产品布局热点板块】截至今日收盘，中证新能源指数上涨2.1%，中证人工智能主题指数下跌2.4%，沪深300医药卫生指数下跌0.3%。</t>
         </is>
       </c>
     </row>
@@ -905,16 +905,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9628488357</v>
+        <v>5519392453</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>boom30</t>
+          <t>汤诗语</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>回复@科创50I科创100: 场外定投的沪深300就是华夏的，不过前两天已经清仓了，手续费基金公司赚的多多的//@科创50I科创100:回复@boom30:别忘了我家的沪深300</t>
+          <t>港股那边回购力度大的公司的股价真的走稳了。恒生指数也明显强于上证指数及沪深300了。</t>
         </is>
       </c>
     </row>
@@ -923,16 +923,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9587088322</v>
+        <v>1847208802</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>失业期神</t>
+          <t>鹏华基金</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>今天股债汇三杀，根本原因还是在于汇率。今天不仅是人民币，非美货币都在暴跌。原因在于本周是超级央行周，几个大国央行都会在本周议息，昨天英国央行态度非常鸽，表示会提前进入降息通道，而瑞士央行也超预期降息，而我们对欧盟的出口占比排名第一，必须通过干预汇率来实现保出口，内需现在已经崩了，通缩严重，出口再因为汇率崩掉那就是全崩了。央妈今天开始干活，早上大行的做市商报价开盘就挂在7.2上方，给市场传递出想放开7.2的管控信号，今天的中间价也突破了7.1，汇率压力被大大释放了。$沪深300(SH000300)$ $上证50(SH000016)$ $中证1000(SH000852)$</t>
+          <t>#今日大盘#上证指数收盘涨0.17%，报3031.48点；沪深300涨0.51%，报3525.76点；深证成指涨0.28%，报9449.43点；创业板指涨0.44%，报1841.54点。市场全天成交额9609.3亿元，北向资金净买入47.25亿元，南向资金净买入45.27亿港元。（数据来源：Wind，截至2024.3.26）</t>
         </is>
       </c>
     </row>
@@ -941,16 +941,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3398506836</v>
+        <v>8538477915</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>站在巴菲特肩上</t>
+          <t>友谊路扛把子</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">大盘反弹到现在，没有一个像样的洗盘，这正是强势的特征。今天沪深300洗洗盘，大势仍然没变，当中长期均线向上时，阴线洗盘再可怕都是吓唬人而已。而中证1000等小票不乐观，放量跌，应该是又要大小分化了。将来的市场必然是业绩为王，弄些没业绩的股票瞎炒的情景，应该是越来越罕见了。$沪深300(SH000300)$  $中证1000(SH000852)$ </t>
+          <t>黑丝哥说的极是，折腾来折腾去，回头一看还跑不过沪深300 打算以后就在510300上，3000点以下只买不卖，3000以上做网格</t>
         </is>
       </c>
     </row>
@@ -959,16 +959,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9254194215</v>
+        <v>1760673340</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>范蠡蠡</t>
+          <t>HIS1963</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>$有色50ETF(SH516650)$ $沪深300ETF(SH510300)$ 今天最惨是抄到了有色，在几个etf中抉择，是云计算，还是沪深300，还是工业母机，结果选了个不带反弹的有色，$紫金矿业(SH601899)$ 铜会好吗</t>
+          <t>今天三千保卫战有惊无险，所幸生产队再次出手。A股市场的主流还是投机，二三十年来不变，而基金连股民都不如，因为股民追涨杀跌是希望自己赚，而基金追涨杀跌也是希望自己赚。每一个轮回都是，先疯狂赌博玩出巨大泡沫，然后泡沫破裂股灾，然后各种咒骂，呼喊救命救市，救市了，从ICU刚出来，马上又去会所赌博，循环往复，年复一年。这一次有点不一样，救市大干沪深300，死里逃生的赌徒们居然在看笑话，我感觉最后成为笑话的一定是赌徒，而且下一次赌徒不行了，不再会有救市，因为赌徒都在会所赌博，自生自灭，A股的主战场已经在沪深300了，要救也是救沪深300，时代不同了。今年盈利25%左右时，想全仓换沪深300ETF，因为觉得还能继续跑赢沪深300，也因为不太喜欢沪深300那前几大权重权，下不了决心，否则现在的今年盈利应该是35%左右，自负的后果就是这一段，满仓中国神华和中远海控，踏空一轮小牛市，妥妥的跑输15个点，现在今年盈利只剩20%左右。后悔也晚了，炒股K线往左看，自己的操作全是错的。昨天今天高抛低吸加横切，只能说是手气好，折腾比不折腾多赚了2个点，这种内卷之机会，可遇不可求，而且经常做反做错，给做对的当美食，相当于肉手量化高频交易，镰刀互砍，谁赢谁输，全凭运气和手气。不想折腾了，静心等待中远海控后天晚上的年报，希望有惊喜，立足于没惊喜，但愿没有惊吓没有雷，今后十年二十年一百年，我仍然只玩沪深300成份股，甚至有一天会开始，只玩红利ETF和沪深300ETF。</t>
         </is>
       </c>
     </row>
@@ -977,16 +977,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7330279661</v>
+        <v>4519706668</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>大空亿</t>
+          <t>花谱</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>$中国海油(SH600938)$ 股东户数暴涨。之前媒体宣传的所谓的“高股息”、“价值股”已被很多人买单。从今年顶部算，这些“价值”股未来10年都不会跑赢沪深300。</t>
+          <t>不看不知道，一看你买了这么多股票，不如以后搞个60指数吧，买沪深300不如买沪深60</t>
         </is>
       </c>
     </row>
@@ -995,16 +995,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7961082554</v>
+        <v>1724858115</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>远方问道</t>
+          <t>91卡子哥</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>或将掀起“公募风暴”？公募基金新产品募集资金仅“26元”！且还是员工自购你们没有看错，募集资金仅26元，26元之前内幕交易，操纵股价的，当接盘侠的把公募的“信仰”摧残得一文不值！天道好轮回，苍天饶过谁！总感觉这次公募机构要来个“大清洗”，心理有鬼的基金经理，这个周末注定“难熬”！$上证指数(SH000001)$ $沪深300(SH000300)$ $恒生指数(HKHSI)$</t>
+          <t>今日回血1090元，2024年亏损3225清仓了温氏，加仓养殖ETF昨天跌的今天回来三分之一，感觉短期调整要结束了，满仓干它。#新能源# #沪深300# #养殖#</t>
         </is>
       </c>
     </row>
@@ -1013,16 +1013,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7373828896</v>
+        <v>5122903091</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Z哥的ETF世界</t>
+          <t>易方达指数通</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>本周沪深300医药卫生指数下跌3.3%，中证医疗指数下跌3.3%，中证创新药产业指数下跌3.8%，中证港股通医药卫生综合指数下跌6.7%。  每日经济新闻</t>
+          <t>虽然自开年以后，A股指数快速来到3000点以上，但A股总体仍具有显著的估值优势，且近段时间关于资本市场改革的措施不断出台，推动了市场情绪的回升，加上外资流入A股的资金量明显增加，A股核心资产有望受益~$中证A50ETF易方达(SH563080)$ $上证指数(SH000001)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -1031,16 +1031,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1017586359</v>
+        <v>6032024743</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>好股零成本长期持有</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>【2024.3.22】今日全天大跌，下午小幅回升，各指数尾盘均收绿！沪深300 收3545点，上证指数收3048点！今日仅2只股票成本下降。</t>
+          <t>回复@专业情绪化分析: 精彩的回答！2023年曾被大家认为是养猪“最难一年”，大家觉得，2024年的生猪行业能否实现峰回路转呢？$畜牧养殖ETF(SH516670)$ $牧原股份(SZ002714)$ $沪深300(SH000300)$ 我刚分给这个回答 ￥2.88 悬赏奖金，也推荐给你。//@专业情绪化分析:回复@畜牧养殖ETF:@畜牧养殖ETF 根据你所描述的情况,股价、期货和现货猪价三者同步走强,显示出以下几个信号:猪肉供需关系趋紧 猪价持续反弹,说明市场对未来猪肉供给趋紧的预期在升温。供需关系的变化,将继续推动猪价和相关上游养殖企业的股价和衍生品价格同步上行。市场人气持续升温 在猪价、期货先行情况下,猪肉股及相关ETF也持续走强,反映了市场人气的持续升温,更多资金开始关注并布局这一投资热点。周期拐点可能临近 猪肉作为大宗商品,供给和需求遵循较为明确的周期性规律。上述现象的显现,有可能意味着这一轮猪周期的底部阶段即将结束,新一轮周期拐点临近。预期修复和估值修复 猪价和猪肉期货持续上涨,意味着相关企业的业绩预期和估值在不断修复。短期来看,这将为猪肉股提供较好的市场表现动力。综合以上信号,我判断当前可能正处于猪周期的底部阶段。未来如果供需关系进一步收紧,猪价继续上行,那么就将逐步转向新一轮猪周期的上行周期,行业景气度持续回升。不过,这种判断仍需结合后续猪价、生猪存栏数据以及供需形势进一步验证。毕竟猪周期波动规律大致明确,但具体拐点的把握仍需要谨慎。如果这轮上涨过于短暂,那么也不排除之后还需经历一段时间的低位震荡整理的可能。投资者在参与相关个股和ETF投资时,要审慎把握时机,密切关注后续数据变化,合理控制仓位和风险。在趋势确认前,不做过于乐观的判断很关键</t>
         </is>
       </c>
     </row>
@@ -1049,16 +1049,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3417020623</v>
+        <v>1017586359</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>迁徙de麻雀</t>
+          <t>好股零成本长期持有</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>这次沪深300的反弹结构元素比较丰富，适合收藏。这里将沪深300的K线反转来看有意思点，详细信息见标注。这个结构的买入和止盈止损点位非常清晰。正常K线如下图，第二阶段行情，它有完整的3波情绪消耗。前天早上清仓点位，现在看起来简直了。这两天很多票走出假突破，结构类似上图。昨天买回的破底翻股票，今天早盘就假突破确立，按照上图的标准操作模式，不至于遭重。另一个点是，小头部出来，所以当前行情风险大于机会，今天我抄底怡合达博破底翻中继，原因很简单，中控技术破位后，今天逆势挺住了。如果沪深300不能破底翻，怡合达的破底翻也很难。但是，单独看中控技术，这个走势破底翻的概率偏大，今天买入了底仓，后续可以继续观察。今天的操作其实是个错误示范，破底翻没必要提前操作，破底翻确立后再操作即可。如果周一沪深300确认是破位反抽，小票大概率就是真的狼来了。</t>
+          <t>【2024.3.26】今日各指数弱势震荡，尾盘发力收红！沪深300 收3543点，上证指数收3031点！今日仅1只股票成本下降。</t>
         </is>
       </c>
     </row>
@@ -1067,16 +1067,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6563263378</v>
+        <v>7114490722</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Hamlet村庄</t>
+          <t>徜徉在大A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>$上证指数(SH000001)$$沪深300ETF(SH510300)$$恒生指数(HKHSI)$今天中国平安携手药明系带崩港股，A股平安是权重股，带崩A股，不知道平安下周还会不会继续下跌，毕竟中国平安的业绩雷还蛮大的，短期不敢介入，港股平安跌到30块再看看，药明系反正就是大盘涨他跌，大盘跌他带头跌这一轮下来，买沪深300的股票赚不到钱，炒妖股的赚钱，真的很搞笑，今天账户净值又继续下探了新村长上台以后在不停的护盘，上证和沪深300都来了一个圆弧线，如果这时候来一波回调，村长肯定不愿意，会一直护盘，但市场确实也没有增量资金，根本没办法继续往上推高，如果回调起来，那肯定是要跌穿2600点创新低的。所以后市真的很难预计，逢高减仓吧，痛苦的是今年还没回本就面临回调。好怕突然回调一路跌穿2600，感觉现在能解决现状的就是平准基金，源源不断的往里面投钱，不然这个恶性循环怎么中断，炒股的亏钱就会跑，跑了资金越少股价肯定跌，无穷无尽∞。</t>
+          <t>虽然今天盈利，但依然输给了沪深300，果然一顿操作猛如虎，收盘一看还不如不动今天换仓短线，卖了$神州泰岳(SZ300002)$ ,亏损7%，实在是看不到它能上涨，趋势不好，板块近期较冷直到快收盘，还在犹豫要不要换个新板块试试，找了半天，今天大热的小米概念以及固态电池概念，都太高，下不去手，找了一只今日回调，趋势还在的，光刻机板块的，明天看看会不会上涨，要是上涨了，再发不来，哈哈，最近没有信心了</t>
         </is>
       </c>
     </row>
@@ -1085,16 +1085,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4902677344</v>
+        <v>9933887151</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>hongze</t>
+          <t>我韭菜割我</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>24年3月22日：这周市场小幅下跌，上证和沪深300的幅度都不足百分之一。但不好的是周五市场跳空下跌杀破短期均线系，盘中的感觉就是断头铡刀，沪深300收盘没能收回，上证在大行和移动的努力下有所回收。不管是汇率跌还是其他什么原因，基本可以确定的是年初以来的大反弹第一阶段已经结束了，后面一段时间对小投资者应该是泥泞难熬，所以要相对谨慎，能抓住主流板块就做，抓不住就该休息。至于后面的主流板块是绩优高息板块，还是AI成长板块，我没能预判，只能每天复盘，尽量聆听市场的脉搏。同样，基本可以确定的是大多数个股经过春季这轮反弹后会重新走熊，因为这市场牛短熊长的本质就是垃圾太多，包括垃圾公司，垃圾管理者，垃圾基金经理，垃圾游资和量化。或者这市场适合投资的公司不会超过一百家，所以后面要更谨慎看待市场。这周我的账户基本平手。三分之二仓位是中线个股赛力斯，成长逻辑，继续持有。连续两周塞力斯表现一般，但是我没能抓到更好更确定性的中线个股，短线操作也跑输给塞力斯，所以我没法抱怨塞力斯的表现。其他三分之一资金是机动资金，这周小亏。这周前三天还在忙着复盘忙着检讨写总结，同时也没发现好股票，就没买卖，对于交易多动症的我来说也算是全新体验。事实上，我上周的感觉“他们该不会是反抽吧？”并不是开玩笑，我确实是这么想的。都说“市场是千人千见”，看着曙光中际光迅赛腾高新软通，或者乐观者觉得是强势换手，悲观者觉得是构造短线头部，那些反弹是反抽头部，我是悲观者。虽然这周华创高新天孚新易盛罗博都创出反弹以来新高，怀疑仍然萦绕心头，我希望他们能走出大行情来打我脸，我也好赚钱。</t>
+          <t xml:space="preserve">个股的调整难以捉摸，但是不要指望指数下去多少，有的是方法拉住沪深300。至于中证1000那边是机构对冲重灾区，你们猜猜为什么机构不去大力空沪深300和上证50。接下来如果中小盘继续调整，保险金融地产会托住大盘。中小盘一旦企稳，这些板块会带领指数直接突破。保险板块调整的非常充分了，保险和地产又是一体的行业。潘先生昨晚谈到地产出现了一些积极信号，我又观察到三十年期国债正在被大量做空。保险和地产行业的启动，就是临门一脚的事。唱多地产目前看是一件吃力不讨好的事，会引来一边倒的批评和嘲讽。不要把对房价的仇恨带到对房地产行业的理解，罔顾一些真实发生的变化。我不知道希望我们的地产业崩盘的人到底是图什么，屁股坐在哪边。$上证50ETF(SH510050)$ $沪深300ETF(SH510300)$ $房地产ETF(SH512200)$ </t>
         </is>
       </c>
     </row>
@@ -1103,16 +1103,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2808487358</v>
+        <v>1996362963</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>老犟牛</t>
+          <t>欢实的蹦蹦跶</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>沪深300轮动模拟组合，已经观察了七年了。效果比我预期的要好，年化超过10%了，还可以做到数月不用太看盘。随着利率不断下调，理财产品的收益基本可以忽略，稳健性的组合从长远来看，只输时间不输钱，人到中年，已经没有聚富的心劲儿了，守着够自己花的钱，等着退休。将来在退休金之外，还有一份额外收益用于零花，多好。近一周把选股思路再次理一遍，基本就这几条：行业：以稳定行业为主（七成以上），择机配置强周期、新兴科技（三成以下），同一行业持仓不超过25%，单支股票不超过12%。当下煤炭、电力、远洋、石油在行业红火期，完全不考虑。至于地产、纺织、纸媒这些归于没落行业，不予关注。财务指标：市净率、市盈率、分红率、资产负债率、现金净流量。重点看分红率、现金净流量，因为我要的是未来每年有基本稳定的现金可提取，用于养老消费，所以股价本身就不是第一位的。买入、卖出都把这两项指标作为首要考量甚至是一票否决。技术面：箱体运动或者底部整理，再好的股票，即使上述前面两项条件都符合，也绝不买入。比如，白酒行业虽有调整，但仍在高区不考虑。操作：分批建仓，每支股票仓位占比变动超过1%，卖出或者买入动态平衡。筛选了八只股票，医药两只，证券保险银行各一只，机场一只，食品饮料一只，还有一只待定，看后续行情演化。总体看，仍然是保守有余，进取不足，没办法，我就这个能力了。不满意，又没有勇气否定。今天买入$上海医药(SH601607)$ 、$云南白药(SZ000538)$ 、$中国太保(SH601601)$</t>
+          <t>补周一的summary：沪深300和上证继续下行-0.5%，各行业普落。资源和基建有些许涨幅，TOP3分别是基建（0.82）、房地产（0.58）和有色金属（0.77）。跌幅最猛的是文化娱乐，包揽了downer前三影视、动漫和传媒。显然文化娱乐结束了之前的涨势，迎来了调整curve。</t>
         </is>
       </c>
     </row>
@@ -1121,16 +1121,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7202696814</v>
+        <v>9386155961</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鹏华基金鹏友会</t>
+          <t>以梦为马的老韭菜</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">#今日大盘#上证指数收盘跌0.95%，报3048.03点；沪深300跌1.01%，报3545.00点；深证成指跌1.21%，报9565.56点；创业板指跌1.47%，报1869.17点。市场全天成交额11030亿元，北向资金净卖出31.38亿元，南向资金净买入145.38亿港元。（数据来源：Wind，截至2024.3.22） </t>
+          <t>净值-1.63% 对比沪深300 跑输2.16%仓位 151%上周二开始回撤 累积8.8% 同期hs300今日反弹账户净值还在回落 风格完全不符合市场半导体板块总仓位第一 逆势是真的难要回头思考一下原则了</t>
         </is>
       </c>
     </row>
@@ -1139,16 +1139,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9100191745</v>
+        <v>9713736719</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>雪晴芙桃香</t>
+          <t>岩王帝君</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>今日无操作。$蝶步韶华(ZH3022711)$ ，当年净值1.026，当日盈亏-1.8％，本周盈亏-1.1％，本月盈利+2.4％，当前回撤-23％，本年超额-0.7％（对比沪深300）。下周休假，周一一下午的飞途，这个时点这样的行情，压力来到我这边了。天塌了也下周二再说吧，休假愉快～</t>
+          <t>$上证指数(SH000001)$ 今天收评：中证500，中证1000，中证2000全体收跌，上证50沪深300小幅上涨，北向大力护盘有攻当奖，权重拉抬领涨三市，今天最低点抄底小仓位，小有赢利，明天一开盘就卖，锁定利润$创业板指(SZ399006)$</t>
         </is>
       </c>
     </row>
@@ -1157,16 +1157,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>8862723008</v>
+        <v>8867390119</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Panel_Trader</t>
+          <t>上善山水</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">下午全指有个反抽5/20小时均线的动作，但是【攻防指数】没有反抽动作，跌得很干脆。 如果说时序资金对应时序波动，截面资金对应截面波动。 时序资金流出没那么坚决，毕竟在日线级别上还是多头氛围， 目前距离20日线最近的指数是沪深300，跌破20日线恐怕也不是那么容易， 但是市场截面资金转向防御类板块还是很清晰的。  简单的说，沪深300不应该这么弱。 各路资金炒小炒新炒差太疯了。 </t>
+          <t>回复@布鲁费思: 沪深300基本上是流通市值最大的300只，标普500不是，尽管传说它是。这有一个很小的差异，看指数规则，都有专家会员会，问题在于，两个委员会发挥的作用不一样，咱这个形同虚设，他们那个是有用的。//@布鲁费思:回复@上善山水:中证A50比沪深300指数好吗？以我的理解，美国的标普500指数也是500只股票的集合，纳指100也是100只的集合，中证A50才50只，是否少了一点。当然美股这十几年的卓越表现主要仰仗七姐妹的艳丽。宽基要宽是常理。到底A50和沪深300谁更优秀，还值得研究。</t>
         </is>
       </c>
     </row>
@@ -1175,16 +1175,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9561493322</v>
+        <v>1390370241</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>胖五资本</t>
+          <t>五月看海</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>感觉市场要调整一下子了。所以我平了多头的指数期货，也清仓了微盘股股票。理由是一来反弹这么多，有调整的必要，二来是年报大幕拉开，业绩不行的公司很多吧！先观望一下，再择机进场。$沪深300(SH000300)$ $工业富联(SH601138)$ $东方财富(SZ300059)$</t>
+          <t>50万实盘开始时间：2023年12月25初始资金：50万收益2023年 1.3%2024年 5%今天-500多元，累计6.7%。同期沪深300 5%，创业板 3%。</t>
         </is>
       </c>
     </row>
@@ -1193,16 +1193,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7961082554</v>
+        <v>8023026311</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>远方问道</t>
+          <t>布鲁费思</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>人员“优化”再起？百亿量化私募IT团队十几人“缩编”至3人！你们没有看错，我也没有说错！IT团队作为量化私募核心的团队之一，这样大规模的缩编，大概率是其规模快速下降有关！$上证指数(SH000001)$ $恒生指数(HKHSI)$ $沪深300(SH000300)$</t>
+          <t>中证A50比沪深300指数好吗？以我的理解，美国的标普500指数也是500只股票的集合，纳指100也是100只的集合，中证A50才50只，是否少了一点。当然美股这十几年的卓越表现主要仰仗七姐妹的艳丽。宽基要宽是常理。到底A50和沪深300谁更优秀，还值得研究。</t>
         </is>
       </c>
     </row>
@@ -1211,16 +1211,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1160997552</v>
+        <v>2912888404</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>顾利刚</t>
+          <t>期货鱼大爷</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>中国银河证券太仓上海东路营业部顾利刚投资顾问执业编号：S01306200500192024.3.22一、周简评1、“全指医药”，日线回落至平台下沿，走弱迹象明显，5、10、20、30、60均线下方运行，日线处于下跌趋势中；$全指医药(SH000991)$ 2、周线收阴线，跌3.10%，周K线形态弱；3、板块估值水平：截至2024年3月15日，医药指数市盈率为26.18倍，低于历史均值12.90；沪深300指数市盈率为11.53倍，医药指数盈利率溢价率为127.1%，低于历史均值56.2%。数据来源：Wind，东吴证券研究所4、K线讲解：【无】二、本周：交易日5天（H股5天）本周：上证指数下跌0.22%，创业板下跌0.79%，沪深300下跌0.70%，全指医药下跌3.10%，HKC医药下跌6.30%，医药医疗组合下跌0.93%（仓位：半仓）；年初至今：上证指数上涨2.46%，创业板下跌1.17%，沪深300上涨3.32%，全指医药下跌9.06%，HKC医药下跌20.14%，医药医疗组合下跌2.04%；三、股票投资组合：非公开信息四、持仓策略空仓（第1周）五、标的调整调入：无调出：无六、行业公司资讯：非公开信息七、杂谈全指医药指数跌至20年线7500点位置，接近极限（2024.2.2）；全指医药指数月线两次触底初步形成（2023.11.3）；失败全指医药月线5连阴，2005年有史以来第2次，没有6连阴，接近极限（2023.6.30）；全指医药指数月线两次触底中（2023.6.2）；失败医药医疗板块已处于技术牛市（2023.1.15）；失败继续专注医药医疗行业，精选高景气子行业的优秀公司；【免责申明】本作品提供的所有信息仅供参考，不构成任何投资建议。本人/本单位对该等信息的准确性、完整性或可靠性、及时性不作任何保证，并非作为买卖、认购证券或其它金融工具的邀请或保证。投资者据此操作，风险自担。投资有风险，入市需谨慎。</t>
+          <t xml:space="preserve">今日收盘前10分钟操作：3522买入3手IF2406，止损放近3天最低3494-1个ATR=3456。行情依然在震荡，此时空仓或重仓都难受，所以我买回3手、保持约57%的风险度。理论上最多亏5.9万、能承受。接下来几天密切观察是否能突破20日均线——目前虽然墨迹，但上涨趋势没走坏。#股指期货# #沪深300# #中证500# </t>
         </is>
       </c>
     </row>
@@ -1229,16 +1229,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1868670149</v>
+        <v>8013994156</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>投资经理加油站</t>
+          <t>foldermax</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>“无风险”的十年期美债收益率被称为全球资产定价之“锚”。这一利率变动，会对全球资产产生重大影响。1、美债收益率与沪深300指数走势呈负相关关系，如下图：沪深300走势和十年期美债收益率对比：数据来源：Wind，截至2023-11-20，图片来自富国基金这种负相关有两方面的逻辑：一是利差角度，当美债上行、中美利差倒挂时，资金会逐利外流；二是估值角度，利率上行往往会压制风险偏好，导致“杀估值”。2、美债收益率下行，利好哪些资产？美债收益率的下行，减弱了对风险资产的压制。当十年期美债收益率下行时候，对A股来说，估值有望拔高，应该买成长风格资产。换言之，这里用创业板指代表成长，用沪深300代表价值，不难发现，创业板指和十年期美债利率的负相关性更强，也就是说美债利率下行对成长类资产的估值支撑更强。并且当加息周期临近尾声，市场流动性和风险偏好的改善，也更利好更富弹性的成长类资产。从具体板块来看，医药和TMT的估值和十年期美债收益率呈明显负相关，随着美债收益率进入下行周期，其估值抬升速度也会随之加快。债券类资产来看，债券价格和债券收益率呈反比，当十年期美债收益率下行时，债券价格有望上涨，此时布局美元债资产或可以获取债券价格上涨带来的资本利得。商品来看，作为拥有抗通胀和避险属性的，深受大家喜爱的黄金，其价格最主要的影响因素就是美债收益率的高低。黄金不生息，而美国国债有息，美债收益率下跌会提升黄金吸引力，因此黄金价格往往和十年期美债收益率呈负相关关系。所以在美债收益率下行阶段，黄金的投资价值也不容忽视。3、美债上升有何影响？美债上升扰动市场，尤其高估值股票。2018年经验对于当下的启示是，利率走高在情绪饱满、估值偏高、交易拥挤的背景下的确容易带来扰动，特别是高估值的成长股部分。总结：美债收益率下行，代表资金“无风险利率”的成本低，利好成长板块；而美债收益率上行，资金成本高，相对来说，要偏防守才行。@今日话题 @雪球创作者中心 @雪球基金 #雪球创作者中心# #创作者星计划# $PP中地美债-U(09001)$ $沪深300(SH000300)$ 以上观点或数据仅供参考，不构成投资建议，过往业绩不预示未来表现，市场有风险，投资需谨慎。</t>
+          <t>$沪深300(SH000300)$ 日线圆弧形态已经完成顶部结构了。月线季线都是空头排列。</t>
         </is>
       </c>
     </row>
@@ -1247,16 +1247,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7961082554</v>
+        <v>1734585936</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>远方问道</t>
+          <t>谭校长专注投资理财</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>近期不少球友VX远方：为何很少看到你剖析邓晓峰、杨柳等私募持仓数据变动！首先非常感谢这些球友的信任，其实这个问题，Kimi可以直接回答你们！这不我也刚刚问了Kimi你们的问题，他的回答基本就是我的意思，且更加详细哟$上证指数(SH000001)$ $沪深300(SH000300)$ $恒生指数(HKHSI)$</t>
+          <t>北向持续坚定流入，不管它什么性质、是不是“郭嘉怼”马甲，都是大资金、聪明资金或带任务的资金，是把看空的散户筹码接走的资金。当持续到一定程度，量变发生质变，市场最后会恍然大悟过来的，然后……$上证指数(SH000001)$ $沪深300(SH000300)$ $创业板指(SZ399006)$</t>
         </is>
       </c>
     </row>
@@ -1265,16 +1265,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2979429675</v>
+        <v>9045420040</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>阿土大叔</t>
+          <t>富由心生S财随心转</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>当前市场上的资金流动，比较无奈。外资多头、某队买入上证50沪深300的钱，转手就到了量化基金控盘的小微盘了。在目前的环境下这无可厚非，资金总会追逐利润。歪门邪道的捷径不堵上，走正道的自然越来越少。请一定要明白，中性策略，就是心心念念想让指数跌的策略。$上证50(SH000016)$ $沪深300(SH000300)$ $上证指数(SH000001)$</t>
+          <t xml:space="preserve">昨晚招商银行发布了2023年报，不仅业绩非常稳健，还提高了分红水平，今早股价也反映出市场对招行的偏爱，盘中一度上涨3.5%，带动整个银行板块逆大盘上涨。随后，上证指数也从盘中最低3008点左右逐渐转涨。时至今日，我觉得走势方向也越来越明朗，并不需要悲观，原因我昨天已讨论过，感兴趣的朋友可以去看。另外，我多次提到，大金融银行板块已逐渐变为整个市场的压舱石，银行板块企稳上涨、大盘也会企稳上涨，至于具体行业和股票是会有先后 ，但那些没有基本面支撑的小弱差微盘股不建议碰，别当韭菜。当然，银行板块的上涨也不是一蹴而就，此前就经历了长达一个月的持续调整，未来还会反复，毕竟要改变市场对银行板块长达6-7年的偏见还是需要一些时间的。但近期来看，随着不少银行宣布加大分红，我个人认为银行板块调整基本到位，要开启新一轮的价值回归式上涨，同时稳定市场大盘。补充一点，虽然这两天市场下跌势能不小，上证指数不断向3000点下探，且技术上看，各个宽基都在画圆弧，但我发现主力维护市场的难度在变小，各个宽基的ETF成交量并没有出现明显的类似过年前后那种放量且在这个位置能稳住，这说明市场已有相当一部分资金正在与主力形成合力，这是好现象，说明主力不再是单打独斗，获得了部分市场资金的认可，主线也逐渐清晰，只有获得市场资金的认可才能成为真正的主线。所以，我认为大金融银行板块总体势头还是好的，这个有大小逻辑做支撑。大逻辑简单讲就是“金融强国”战略和《金融供给侧改革已在路上》所讨论内容，小逻辑就是主力在落实过程中的操作思路和方向，比如之前文章《中特估上涨没结束》、《中央汇金入场的根本目的--增加信心、提供主线》以及我对日常主力的一些操作动向、监管机构的政策文件解读。另外，我还专门通过《走出熊市的逻辑》分析为什么银行板块要率先企稳。今天银行板块再次逆势上涨，我猜测银行股阶段性调整已经结束，即将带领大盘突破。当然，猜走势和猜时点总是难的，总容易犯错，况且过程中还会有反复，但我相信大方向不会变。拭目以待。$上证指数(SH000001)$ $上证50(SH000016)$ $沪深300(SH000300)$ </t>
         </is>
       </c>
     </row>
@@ -1283,16 +1283,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9318157559</v>
+        <v>5719411375</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>阿晖顺势而为</t>
+          <t>电池ETF_561910</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>记录一下，GJ队还在买入$沪深300(SH000300)$ 和$上证50(SH000016)$</t>
+          <t>回复@2024牛先生: 确实，像智己L6一次充电续航里程可超过1000公里，轻松实现从北京直抵大连，而且是准900V超快充，这意味着未来电动汽车的续航焦虑问题将得到彻底解决~$电池ETF(SH561910)$ $沪深300(SH000300)$ 我刚分给这个回答 ￥2.88 悬赏奖金，也推荐给你。//@2024牛先生:回复@电池ETF_561910:$电池ETF(SH561910)$我认为固态电池就是电动汽车的终极杀器。超常续航与快充，会极大的加速电车的普及。作为东北人，如果实际续航超过600公里，充电时间在半个小时左右，那么即使我家没有充电设备，我也会考虑换电车。@电池ETF_561910 查看图片</t>
         </is>
       </c>
     </row>
@@ -1301,16 +1301,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6671186842</v>
+        <v>2979429675</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>爱人的基金小沙暴</t>
+          <t>阿土大叔</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>回复@一致的赚钱小海洋: 国家队在买沪深300，不知道我的159601能不能喝一点汤？ $A50ETF(SZ159601)$//@一致的赚钱小海洋:回复@我是吴永辉:我看A50ETF这几天表现很强势，是不是会有行情</t>
+          <t>就奇了怪了。为什么有那么多人觉得自己能把某队套上。为什么有那么多人偏和某队对着干。领导夹菜你转桌，领导敬酒你不喝，领导唱K你切歌，领导喝水你刹车。某队买上证50沪深300，我偏买中证2000微盘股。凭直觉，没好果子吃。$上证50(SH000016)$ $沪深300(SH000300)$ $上证指数(SH000001)$</t>
         </is>
       </c>
     </row>
@@ -1319,16 +1319,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2107829227</v>
+        <v>3965370993</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>云水谣投资</t>
+          <t>大川成长价值投资</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>这次GJD 高位被他上证50 和沪深300 了. 这4500 亿还是东筹西筹的，地主家也没有余粮了. 目前只能发特别GZ 但是地方Xx有债务黑洞，各个都是恒大系列. 也需要续命. 竟然还有人觉得有牛市… 自己家啥逼样不知道啊.每个月工资3-5000，还梦想股市暴富. 这是喝多少啊</t>
+          <t>目前a股跌破发行价的股票有1089只，我建议退市制度里，参考“连续20个交易日收盘价低于1元将被强制退市”这一具体的退市量化标准，再制定一条长期跌破发行价将强制退市的条例，这个长期具体的时间可以再论证。 $上证指数(SH000001)$ $沪深300(SH000300)$ $中药(BK0041)$</t>
         </is>
       </c>
     </row>
@@ -1337,16 +1337,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1108431366</v>
+        <v>4342024769</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>严肃活泼</t>
+          <t>陌上花开456</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>今日市场低开低走，震荡收跌。截至收盘，上证指数下跌0.95%，深证成指下跌1.21%，沪深300下跌1.01%，创业板指下跌1.47%，科创50下跌1.48%领跌。沪深两市成交10973亿元，较昨日小幅上涨。AI应用及算力领涨，多数行业下跌，不足1000股上涨，赚钱效应极差。连涨五周后本周周线收跌。静候调整结束。</t>
+          <t>$宁德时代(SZ300750)$ 地球的宁德，A50能托起来吗，沪深300切的，专门买了会分红的A50$中证A50ETF指数基金(SH560350)$ 希望这些龙头多分红</t>
         </is>
       </c>
     </row>
@@ -1355,16 +1355,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1186402127</v>
+        <v>8509077221</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>恒行投资</t>
+          <t>中秋月餅</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023年，美军继续加强对华军事威慑，在南海及周边地区维系着高强度的抵近侦察、穿越台湾海峡、前沿存在、战略巡航、演习演训和战场建设等行动。其中，美军大型侦察机的空中抵近侦察约1000架次，并频繁抵近中国大陆领空；航母打击群和两栖戒备群大型编队8次进入南海，停留时间、训练强度和针对性都显著增强；全年至少有11艘攻击型核潜艇和2艘战略导弹核潜艇先后出现在南海及其周边海域，威慑和吓阻意味明显。另外，盟伴联合行动和无人系统运用在2023年美军南海军事活动中较为突出。$上证指数(SH000001)$ $沪深300(SH000300)$ $创业板指(SZ399006)$ 一、战略平台活动继续加强（一）航母打击群2023年，美军先后派遣“尼米兹”号（USS Nimitz，CVN-68）、“里根”号（USS Ronald Reagan，CVN-76）和“卡尔·文森”号（USS Carl Vinson，CVN-70）3个航母打击群，累计6次进入南海活动，呈现出以下特点：表1 2023年美军航母打击群位南海活动情况一是活动时长攀升、且多从巴士海峡进出。2023年美海军航母打击群在南海地区的活动频次与2022年持平，相比2021 年有所降低，但活动时长明显增加。其中，“尼米兹”号航母打击群自1月12日进入南海，至2月18日离开南海，期间活动时间长达37天。“里根”号航母打击群 和“卡尔·文森”号航母打击群也分别于6月14日至7月10日、12月12日至24年1月10日在南海部署近30天。2023年美航母打击群单次在南海的部署时长显著高于2022年的10-20天与2021年的4-5天。图1 2022年12月21日至2023年2月19日美海军“尼米兹”号航母打击群行动路线不同于2022年航母打击群多选择圣贝纳迪诺海峡、民都洛海峡、巴拉巴克海峡、佛得岛水道等菲律宾群岛水道中的海峡进出南海，2023年，航母打击群11次进出南海，其中有9次使用巴士海峡，2次使用巴拉巴克海峡，穿越巴士海峡的频次大幅提高。对于航母打击群等大型编队而言，巴士海峡无疑是主要的优先通道，而菲律宾群岛水道是次要的备选通道。2020至2022年，美海军航母打击群频频由菲律宾群岛水道进出很大程度上是为了演练“反介入或区域拒止”环境下的航母机动或部署能力。2023年，美军航母打击群进出南海回归正常，一方面可能是因为经过近几年的训练，美军航母打击群对菲律宾群岛水道的熟悉和使用已达相当程度，另一方面，也表明，美对于当前的台海和南海局势不如前些年那般焦虑。二是活动区域敏感、演训规模扩大、演习科目增加。2023年，美军航母打击群对巴士海峡以西、印马交界水域以北的万安盆地海域及南海东西两大主航道格外关注，多次在这些海域进行针对性的大规模演习。1月13日至15日，“尼米兹”号航母打击群自黄岩岛附近经南沙群岛以北海域以25节高速航行至万安滩以西，26日驶离新加坡后，由南沙群岛东部水道返回吕宋岛以西海域，后再次航至南海万安盆地，长时间在印马交界水域以北的南海东西航道活动，直至2月17日。除了海上打击、反潜作战、水面和空中部队间的综合多域联合训练以及舰载机飞行训练等小规模演习，“尼米兹”号航母打击群还与美海军陆战队和“马金岛”号两栖战备群（USS Makin Island，LHD-8）在印马交界海域举行联合远征打击部队（ESF）行动，美空军也派出2架B-1B轰炸机参加此次演习。此次演习规模较大，涉及海军、空军、海军陆战队三军兵力，演习区域集中于南海东西航道。期间，美海军“胜利”号海洋监视船在南沙群岛西北方向高强度作业，该海洋监视船搭载了新型的拖曳式阵列声纳系统和低频主动声纳系统，或在为此次演习提供情报、侦察及监视（ISR）服务。4月，“尼米兹”号航母打击群在南海万安滩附近海域活动期间，再次与美空军B-1B轰炸机与B-52H轰炸机举行全域联合演习。（二）两栖戒备群2023 年，美军先后派遣“马金岛”号和“美国”号（USS America，LHA 6）2个两栖戒备群进入南海活动。“马金岛”号两栖戒备群于2022年12月进入南海，搭载了美国海军陆战队第13远征部队（MEU），其中包括装备10架F-35B战斗机的第122战斗机攻击中队。美国海军学院新闻网称，“美国海军陆战队第13远征部队成功完成了一次具有历史意义的军事部署，跨越太平洋并覆盖中国周边地区。”部署南海期间，“马金岛”号两栖戒备群参加了 “卡拉特-新加坡”海上演习（CARAT/MAREX Singapore）、联合远征打击部队行动、“金色眼镜蛇2023”联合军演（Cobra Gold 2023）、“肩并肩 2023”年度联合军演（Balikatan Exercise 2023）等演习演训。“肩并肩 2023”年度联合军演期间，由“马金岛”号上搭载的F-35B战斗机投放制导炸弹，击沉在南海的靶舰。近年来，美军正试图将两栖攻击舰打造成“闪电航母”，以验证通过F-35B将海军陆战队和海军融合的可行性。“马金岛”号装配F-35B后，就具备了一定的制海和制空力量，在“闪电航母”作战理念下，既可以与航母打击群协同作战，也可以在某些场合作为航母的“替代品”，以提升美军的整体作战能力。2023年，“美国”号两栖戒备群多在东海和菲律宾海活动，“美国”号两栖攻击舰于3月和8月进入南海，短暂停靠马尼拉。值得注意的是，3月16日，“美国”号、“马金岛”号两栖攻击舰和海军陆战队第13远征部队实施一体化作战，执行前线油弹补给点（FARS）行动。 “美国”号两栖攻击舰在东海活动时，第122陆战队打击战斗机中队的1架F-35B战斗机降落在飞行甲板上，并在接受前沿装弹和加油作业后，返回“马金岛”号。这架F-35B战斗机属于第13陆战队远征队指挥，搭载于“马金岛”号两栖攻击舰，当时“马金岛”号正在南海（泰国湾附近海域）行动。此前，美国海军陆战队在伊拉克和阿富汗的行动中广泛运用FARP作业，随着美军的重点转向“印太”，基于西太平洋的地理位置，此次FARS行动展示了实现“远征前进基地作战”（EABO）等作战概念的能力。（三）核潜艇据开源信息统计，2023年美海军至少有“安纳波利斯”号（USS Annapolis，SSN-760）、“基韦斯特”号（USS Key West，SSN-722）、“哥伦比亚”号（USS Columbia, SSN-771）、“伊利诺伊”号（USS Illinois，SSN-786）、“汉普顿”号（USS Hampton，SSN-767）、 “斯普林菲尔德”号（USS Springfield，SSN-761）、“阿什维尔”号（USS Asheville，SSN-758）、“密苏里”号（USS Missouri，SSN-780）、“密歇根”号（USS Michigan, SSGN-727）、“杰佛逊城”号（USS Jefferson City，SSN-759）、“圣达菲”号（USS Santa Fe，SSN-763）等11艘攻击型核潜艇和“缅因”号（USS Maine, SSBN-741）、“肯塔基”号（USS Kentucky, SSBN-737） 2艘战略导弹核潜艇前往包括南海在内的西太平洋地区执行战略巡航任务。与此同时，出于威慑对手和公共关系的考虑，美海军也越来越多地主动披露其潜艇活动态势，曝光其位置。2023年5月，太平洋潜艇部队指挥官杰弗里·贾布隆（Jeffrey Jablon）表示当时有18艘美军潜艇在整个太平洋上航行，其中7艘在国际日期变更线以西执行任务。2023年美军核潜艇大幅增加了对韩国的港口访问，“斯普林菲尔德”号、“密苏里”号、“密歇根”号、“肯塔基”号和“安纳波利斯”号分别在3月、6月和7月访问釜山港口和济州港口。4月26日，美国和韩国联合发表《华盛顿宣言》，美方不仅承诺增加美国战略武器平台对韩国的例行访问，还将在韩国部署一艘“俄亥俄”级战略导弹核潜艇。这是美方时隔四十多年首次在韩部署战略导弹核潜艇。（四）轰炸机美军正在增加轰炸机部署以提升其在西太的战略威慑能力，不断探索与盟伴国家的联合作战模式。2023年，美空军累计出动16批次30架次B-52H或B-1B轰炸机前往西太平洋地区巡航，与2022年的20架次相比有大幅提升。表2 2023年美轰炸机位南海及周边地区活动情况轰炸机的部署和作战演练逐渐成为美国加强与“印太”国家军事合作的重要纽带。在该地区活动的轰炸机主要部署在关岛安德森空军基地，但2023年罕见地在多个盟伴国家机场起降。6月，美军2架B-52轰炸机首次降落在印度尼西亚，并参加美国与印度尼西亚之间的“西方对抗2023”（Cope West 2023）双边演习；7月，2架B-1B轰炸机抵达三泽基地；10月，1架B-52首次降落在韩国首尔机场，随后参加了美国、日本和韩国首次举行的三边空中演习。目前，美军在亚太地区部署的轰炸机机型以B-52为主。美空军正在对B-52进行“雷达现代化改造”，其中包括替换老旧零件与设备、改造内部系统，装接有源相控阵系统（AESA）。美空军将其称为“有史以来最大规模的升级”，能够全面提高B-52的导航、瞄准和态势感知能力。根据美军的部署计划，B-1B将在2035年之前退役，美军最新一代隐身轰炸机B-21“突袭者”将逐渐替代B-1B和B-52，并优先部署在“印太”地区。二、海空抵近侦察强势走高2023年，美军持续派出侦察机和侦察测量船在南海地区开展高强度侦察活动。在空中，美军陆基大型侦察机在南海的出动频率约为1000架次，与2022年大体持平，其中，MQ-4C海神无人机成为美军抵近侦察的“新秀”。在海上，美军海洋监视船、海洋测量船等侦察船在南海地区的常态化作业更加具有针对性，并在关键水道保持高强度侦察，累计达314舰日。（一）空中抵近侦察日趋激烈据不完全统计，2023年美军从冲绳嘉手纳基地、韩国乌山基地、关岛安德森基地、菲律宾克拉克基地等地出动约1000架次各型大型侦察机前往南海侦察。其中，有约100架次逼近中国大陆及海南岛领空，多数距离领海基线不足30海里。2023年10月，美国国防部公布的数据也佐证了这一点。五角大楼声称，自2021年秋季以来，解放军战机对美机进行了180多次“危险拦截”。实际上，这些拦截多数发生在中国大陆及海南岛的领空附近。在南海活动的侦察机机型主要是美海军的P-8A反潜巡逻机、EP-3E电子侦察机、MQ-4C无人侦察机和美空军的RC-135系列电子侦察机，美空军E-8C“联合星”空地监视机、E-3B空中预警机、E-3G空中预警机和U-2S高空侦察机。值得注意的是，自2023年9月，MQ-4C海神无人机第二次部署关岛后，渐成美海军对华抵近侦察的主力。图2 MQ-4C海神无人机目前，MQ-4C已具备了初始作战能力（IOC），正在从“一体化功能能力3”（IFC 3）升级为“一体化功能能力4”（IFC 4）。从活动范围来看，至少在东海、台海和南海区域，MQ-4C已经取代了EP-3E电子侦察机。2023年10月以来，3架MQ-4C（AE625B、AE625D、AE6257）频繁在台海和南海地区活动，且活动时间多为深夜及凌晨。仅在2023年12月，MQ-4C在台海及南海地区就至少出动了14架次，其中在12月11日-14日这4天内连续出动侦察。图3 2023年11月-12月美海军MQ-4C无人机在台湾海峡以南活动近年来，美军在南海针对中国的抵近侦察越来越具有进攻性。一是频频逼近中国大陆和海南岛领空，美军不断刷新抵近中国海岸的距离。3月15日，美空军1架RC-135V电子侦察机在南海进行密集的侦察活动，从北往南、从东向西、再折向北，绕西沙群岛和海南岛进行大范围、大纵深活动。11月15日凌晨，美海军1架MQ-4C无人机沿着中国大陆东部海岸在台海地区进行抵近侦察，最近时距离中国领海基线仅31海里左右。图4 2023年3月15日美空军RC-135V电子侦察机在南海进行侦察活动二是频繁干扰解放军正常演习演训。在中方演习演训期间，美军通常不理会中方的禁行通告，不顾安全距离，闯入相关海空域与中方警戒力量发生近距离相遇。5月26日，美国空军一架RC-135V侦察机闯入到山东舰编队训练空域，负责警戒的中国人民解放军歼-16战机不得不进行近距离拦截。（二）海上侦察活动的针对性愈来愈强2023年，美军在南海部署了“胜利”号（USNS Victorious，T-ARGOS 19）、“能干”号（USNS Able，T-AGOS 20）、“有效”号（USNS Effective，T-AGOS 21）和“无瑕”号（USNS Impeccable，T-AGOS 23）四艘海洋监视船以及“鲍迪奇”号（USNS Bowditch, T-AGS 62）、“汉森”号（USNS Henson, T-AGS 63）和“玛丽·希尔斯”号（USNS Mary Sears, T-AGS 65）三艘海洋测量船，累计在南海的活动时长达314舰日。其中，“无瑕”号监视船最为活跃，活动长达82天。从作业范围来看，西沙群岛、南沙群岛和巴士海峡间的三角区域以及南海的东西航道是其关注重点。图5 2023年美海军海洋监视船活动轨迹图美海军测量以及监视船还在菲律宾群岛水域保持高强度作业，与美军其他力量的配合显著增强。2023年12月，在“卡尔·文森”号航母打击群经莱特湾-苏禄海-巴拉巴克海峡进入南海活动期间，“鲍迪奇”号测量船的行动轨迹也覆盖到了莱特湾和苏禄海。另外，巴步延海峡、佛得岛水道和民都洛海峡作为近年来美军航母打击群频繁使用的海洋通道，“鲍迪奇”号同样在这些地区保持密集的侦察阵位。海洋测量船的主要功能是进行海底地形地貌探测以及海洋气象水文调查，能为美军提供重要的海战场环境保障。图6 2023年11-12月美海军“鲍迪奇”号测量船活动轨迹图三、宣示性行动花样翻新（一）闯岛式航行自由行动2023年，美军在南海地区的“闯岛式”航行自由行动的频次有所增加，从2021年的5次和2022年的4次上升到6次，但仍低于2020年的9次。表3 2023年美海军闯入中方驻守南海岛礁领海或邻近海域情况值得一提的是，12月4日，美军舰罕见地闯入了中国南沙群岛仁爱礁的邻近海域。美军舰上一次闯入该岛礁，还是2019年2月的“斯普鲁恩斯”号和“普雷贝尔”号驱逐舰。考虑到中菲2023年在仁爱礁的摩擦，美军此举既有在热点地区显示存在，同时也有为菲站台的“意味”。美军舰闯入仁爱礁邻近海域也是为了配合其声援菲律宾南海主张的声明，即“仁爱礁位于菲律宾专属经济区内和菲律宾大陆架上”，针对性地挑战了中国对“低潮高地”所主张领海和领空的行为或声明。（二）穿越台湾海峡行动2023年全年，美军舰累计6次穿越台湾海峡，相较于2022年的9次、2021年的 12 次和 2020 年的 15 次，频次有明显下降，但每次行动都有官方舆论炒作，且盟友的参与程度有所提升。军舰穿越兵力趋于多元化。6月3日、9月9日以及11月1日，美国和加拿大分别派遣一艘驱逐舰和一艘护卫舰过航台湾海峡并公开炒作。而此前的2021年和2023年，美加每年仅有一次联合穿越。6月21日，美海岸警卫队“斯特拉顿号”巡逻舰过航台湾海峡。“斯特拉顿号”是美国海岸警卫队于2019年部署至3艘亚太地区的舰艇之一，此次过航是2019年来美海岸警卫队舰艇首次单独过航台湾海峡。海警舰艇的作战能力远弱于军舰，显然起不到任何威慑作用，但此次过航发生在布林肯结束访华之后，炒作与政治作秀的成分居多。表4 2023年美军舰穿越台湾海峡情况侦察机穿越频次大幅增加。军舰穿越台湾海峡频次下降的同时，美海军P-8A反潜巡逻机飞越台湾海峡的频次则大幅增加。P-8A反潜巡逻机自2013年部署至西太以来，于2021年首次穿越台湾海峡。2023年，2月27日、4月28日、7月13日、10月12日、12月6日，美海军P-8A 反潜巡逻机共5次穿越台湾海峡，较2021年和2022年的3次明显增加。随着美军派遣军舰、军机穿航行动的常态化，美官方的炒作力度也逐渐提升，2023年的6次军舰过航和5次军机飞越行动均伴随公开炒作，除开表面的侦察、收集情报与监视目的，更多意在向中方进行威慑和政治施压，并向盟友展示其军事能力。图7 2023年12月6日美海军P-8A反潜巡逻机飞越台湾海峡四、盟友联合行动显著增强（一）EDCA与美菲军事合作美国多次强调对美菲军事同盟关系的承诺，并推进以《加强访问合作协议》（EDCA）为核心的美菲军事合作。2023年2月2日，美国和菲律宾发表联合声明，将全面实施EDCA，在落实美军投资建设和进驻原有五个基地的基础上，在菲律宾建造和运营另外四个新基地。4月3日，菲律宾正式公布这四个新基地，分别是卡加延圣安娜的卡米洛奥西亚斯海军基地（Naval Base Camilo Osias）、伊莎贝拉州加穆的梅尔乔·德拉·克鲁兹营地（Camp Melchor Dela Cruz）、巴拉望巴拉巴克岛（Balabac Island）和卡加延的拉尔洛机场（Lal-lo Airport）。传统EDCA的军事基地以空军基地为主，而新军事基地的选址则是重点考虑了与美国海军、海军陆战队的合作需求。而且，从新增基地的选址看，3个点都靠近台湾岛，美军借助南海争议和菲律宾强化在台海周边军事部署的企图昭然若揭。图8 EDCA军事基地位置虽然菲律宾宪法禁止外国军队在本国驻扎和拥有基地，但EDCA允许美国轮换其在菲律宾“访问”的军队，以延长逗留时间。该协议还允许美国军队和承包商在“商定地点”之外开展行动，这些地点被定义为：“菲律宾政府通过菲武装部队和美国提供的设施和区域部队、美国承包商和其他双方商定的”。该协议将这些“约定地点”的所有运营控制权移交给美国，并允许美国军队预先部署和储存除核武器外的一切国防物资、设备和补给品。EDCA声称，其主要是为了提高菲军与美军的互操性、提高应对气候变化与自然灾害的能力。然而，如果EDCA仅仅用于反恐、气候变化、自然灾害等问题，现有的5个军事基地已能满足其目的。不难看出，新增的EDCA军事基地是为了增加美国在西太的军事存在，遏制中国在台海和南海等西太地区日益增长的军事力量。2023年，针对菲律宾在仁爱礁、黄岩岛等地的挑衅和中菲摩擦，美国频频拉偏架，多次在官方声明和表态强调对菲律宾的支持，其中，美国国务院就发表了7次“美国在南海支持菲律宾”的声明。在菲律宾总统马科斯访问美国期间，美国总统拜登表示，美国对菲律宾的防御承诺如“铁一般的坚定”。美国国防部长奥斯汀也在公开表态中将《美菲共同防御条约》与南海局势联系在一起。在历次中菲对峙和摩擦事件期间，美军都出动P-8A或各型无人侦察机为菲律宾进行实时情报支援，同时监视中菲双方的行动。尽管如此，需要指出的是，美国在仁爱礁等事件中主要对菲提供外交、舆论和情报支持，没有迹象表明美要“亲自下场”协助菲律宾进行补给。美希望利用菲律宾的地理位置为其印太战略或遏制中国布局，但却不希望因为菲律宾的议程导致无端卷入与中国的武装冲突。美国乐见中菲南海摩擦不断，从而顺势加大其在南海及台海的战略布局和对中国的打压，美希望南海天天出事，但现阶段不希望南海“出大事”，尚没有做好与中国在南海进行军事摊牌的准备和决心，更不愿为菲“火中取栗”。美高官政要虽频频威胁要触发《美菲共同防御条约》，但这更多的是恫吓及预防性外交，美方总体上仍极力保持相关条款的模糊性，将诸如水炮、撞船之类的行为都归为非武装攻击。2023年11月21日至23日，美国与菲律宾基于《美菲共同防御条约》，时隔七年首次在南海展开联合巡航。美国海军派遣“吉福兹”号濒海战斗舰（USS Gabrielle Giffords，LCS-10)、“约翰·埃里克森”号舰队油船（USNS John Ericsson，T-AO-194）和一架P-8A反潜巡逻机，菲律宾海军派遣“康拉多·叶”号护卫舰（BRP Conrado Yap，PS-39）、“格雷戈里奥·德尔·皮拉尔”号巡逻舰（Gregorio Del Pilar，PS-15）、“何塞·黎刹”号护卫舰（BRP Jose Rizal，FF-150）和三架战斗机参加此次巡航。根据“约翰·埃里克森”号的AIS轨迹，此次联合巡航在菲律宾卢邦岛以西至雅米岛以西海域进行，远离南沙群岛及敏感海域。图9 2023年11月21日-23日美菲联合巡航路线同时，美菲的军事合作和联合行动正在从双边向多边转型。5月1日，在美菲领导人会晤之后，双方发表联合声明表示，菲、美已同意分别与日本和澳大利亚建立三方合作框架。6月16日，美国总统国家安全事务助理沙利文、日本国家安全事务局秘书长秋叶武熊以及菲律宾国家安全顾问阿诺在东京举行首次会晤，三方围绕防务安全、海洋秩序、人道主义援助与救灾和经济秩序与安全等四大领域进行了磋商。2023年，日本也多次参与美菲的年度演习以及海军和海岸警卫队的联合演习。与美日菲的三边安全机制相比，美澳菲的合作步伐相对缓慢。但是澳大利亚作为第二个承诺与菲律宾在南海联合巡逻的国家，澳菲双边关系发展迅速，未来美菲澳将是“美菲+”多边安全机制的重要骨干。（二）与日、澳等其他盟友的联合行动强化盟伴体系是拜登政府印太战略的一大重要支柱，在此背景下，美与日、澳等铁杆盟友的互动及联合行动显著增强。一是加大与日本、澳大利亚的联合演训力度。在美日澳三边框架下，日本、澳大利亚作为美军多边联合演习的常客，据不完全统计，2023年两国参加了美国在西太地区举行数十场演习，包含“超级哥鲁达盾2023” 联合军事演习（Super Garuda Shield 2023）、“萨马萨马”双边演习（Exercise SAMASAMA）等年度大型军演。10月，美国“拉斐尔·佩拉尔塔”号驱逐舰、日本“曙”号驱逐舰、澳大利亚“布里斯班”号驱逐舰、加拿大“渥太华”号护卫舰和新西兰“特马纳”号护卫舰在南海进行“高贵驯鹿”（Noble Caribou）多边演习，旨在提高战术能力，加强与参与国海军的合作。12月，美日两国首次在石垣岛（靠近台湾）开展了联合训练。二是强化与日澳的政策协调及互操作性。1月11日，美日举行防长外长“2+2”会谈并发布联合声明，美国表示强烈支持日本更新的国家安全政策，称《日美安保条约》中的共同防御条款适用于钓鱼岛。此外，美日双方确认将加强军事合作，深化情报、侦察和监视（ISR）以及灵活的威慑选项（FODs）等方面的双边协调，将共同防御条款扩大至太空领域，并且在日本部署美国海军陆战队濒海作战团，加强日本西南群岛的防御能力。 6月，美日澳在2023香格里拉对话期间举行了三国防长会谈并发表联合声明，一致同意将制定今后1年期间在澳大利亚实施的三国合作计划。三方承诺未来将在澳大利亚进行三边F-35联合攻击战斗机训练、增加三边演习、加快三国信息共享合作。 7月，美国与澳大利亚举行部长级磋商（AUSMIN）并公布国防合作协议，包括增加美国军队在澳大利亚北部军事基地的轮换驻防，增加美国舰船、海上巡逻和侦察飞机的访问，增加太空合作，增加对澳大利亚军事基础设施的投资等，美国将在2025年之前帮助澳大利亚生产制导多管火箭系统，进一步加强并扩大两国军事联盟。三是大幅增加对日澳的军售。根据2023年3月有关美英澳三边安全伙伴关系AUKUS的声明，美国自2023年起增加潜艇到访澳大利亚的频次，2027年底前让美军核动力攻击潜艇在澳大利亚进行轮换部署，并且从2030年代初开始，如果获得美国国会批准，美国打算向澳大利亚出售三艘弗吉尼亚级潜艇，并有可能根据需要再出售两艘。8月，一艘美国海军核动力潜艇抵达澳大利亚访问。同月，澳大利亚防长马尔斯宣布将向美国购买200多枚“战斧”巡航导弹，这批导弹将部署在澳洲皇家海军“霍巴特”级驱逐舰上。此外还将采购60多枚增程型先进反辐射导弹，以及为陆军采购反坦克导弹。同月，五角大楼表示，美国国务院已批准向澳大利亚出售M142 高机动火炮火箭系统（HIMARS）。8月，多名日本政府相关人士透露，日美两国政府已基本决定共同开发新型导弹，用于拦截高超声速武器。10月，美日防长在会面中一致同意将日本引进美制“战斧”巡航导弹的时间提前至2025年，重申了支持日本加强防卫的决定，强调了两国共同致力于加强美日同盟。11月，美国国务院批准日本购买400枚“战斧”巡航导弹及其相关设备的请求。（三）强化地区海域态势感知2022年2月，拜登政府公布《美国印太战略》报告，明确了美国在印太地区的战略目标和实施计划，并提出“太平洋威慑”和“海洋安全”两大合作倡议，聚焦提升海域态势感知能力，建立海域态势感知网络体系。为此，美国一方面发展军备，不断加强前沿军事部署，提升地区海域态势感知综合能力；另一方面积极帮助地区盟友和伙伴国提升海域态势感知能力，推动构建美国主导的、地区盟友和伙伴参与的印太海域态势感知网络。一是重点加强无人作战平台和天基侦察网络建设。其中，美海军陆战队的动作尤其值得关注。2023年6月5日，美海军陆战队发布更新版《部队设计2030》报告，提及为应对全球危机，“美海军陆战队空地特遣部队要增强海域态势感知能力。”8月，美国海军陆战队第3无人机中队（VMU-3）在夏威夷的卡内奥赫湾海军陆战队航空站举行仪式，展示了其新装备的MQ-9A“死神”无人机。该中队隶属美海军陆战队第3远征军第1航空联队，也是首个装备MQ-9A长航程无人机，实现海军陆战队空对地特遣部队无人远征中高空长续航（MUX/MALE）飞机初始作战能力（IOC）的无人机中队。美海军则在舰载机无人机部署和大型无人侦察机方面取得重要进展。2023年2月，美海军米格尔·基思号远征移动基地舰上的Aerosonde无人机进行了首次海上飞行试验。3月，美海军米利厄斯号驱逐舰在南海发射和回收Aerosonde无人机。Aerosonde无人机为德事隆系统公司为美国海军开发的一款舰载小型无人机，与美国海军驱逐舰作战系统集成后，可为驱逐舰提供海上情报、监视、侦察等服务。9月，一批美海军MQ-4C“海神”无人机抵达关岛安德森空军基地，在太平洋地区进行第二次部署，其海上情报、监视、侦察和瞄准（MISR-T）功能得到了大幅提升。美太空部队则加快天基卫星探测系统建设。4月，美国SpaceX公将太空发展局的“分布式作战人员太空架构”首批10颗导弹跟踪和通信卫星送入太空。9月，美国太空军发射 “沉默巴克”（Silent Barker）军用卫星，用以监测潜在的威胁。12月，SpaceX公司将美国军方X-37B“轨道实验飞行器”送入太空，此次任务内容高度机密，美军称会进行试验未来的太空领域感知技术等实验。二是加强盟友合作，构建态势感知网络。近年来，美国极力推动构建美日印澳、美英澳、美日韩等地区盟友及伙伴国的小多边机制，加强与盟友和伙伴国合作构建海域态势感知体系，如“印太海域态势感知伙伴关系”（IPMDA）。2023年4月，美国务卿布林肯在访问越南期间表示，美方愿意帮助地区国家提高海域态势感知能力，以应对其他国家对本国渔船的“胁迫”行为。6月，美日菲国家安全顾问三方会议中，重申了利用日本新的政府安全保障能力强化支援（OSA）、印太海域态势感知伙伴关系等来强化海域态势感知的重要性。9月，东盟-美国领导人就东盟印太前景合作发表声明，声明中提到双方通过东盟主导的机制加强海上合作，促进包括海上执法机构在内的相关机构之间的合作与协调，提高海域态势感知能力。12月，美国公布2024财年国防授权法案，要求美国政府推动与菲律宾和泰国的联盟以及美国与东盟其他国的伙伴关系，共同加强印太地区的海域态势感知能力。2023年5月，拜登政府批准向澳大利亚出售远征版拖曳阵列监视传感器系统（SURTASS-E），加强后者探察中国潜艇的能力。同月，拜登政府还与巴布亚新几内亚签署防务协定，巴方将使用美国的卫星安全系统对海域进行监视。7月，美国和巴布亚新几内亚缔结了一项“随船观察员协议”，以提高巴的海域态势感知能力。美国通过向地区国家提供军事援助和海上援助，加强人员训练等方式持续加大其他南海声索方和地区盟友伙伴国的海上能力和海域态势感知范围，以达到牵制对手、维持地区力量优势的目的。五、演习演训强化作战准备（一）盟国伙伴国参与度全面提升据不完全统计，2023 年，美军在南海及周边地区（东至菲律宾海，南至澳大利亚）累计开展大型演习演训107次（中小型的演习训练数千次），数量与规模较 2022 年有所增加。在107次演习中，单边演习9次、双多边演习98次。演习兵力涉及美海军、空军、海军陆战队、陆军以及海岸警卫队等各个军种。同时，美国不断拉拢盟友和伙伴国进行双边或多边军事演练，在南海及周边地区的联合演习对象涉及到东盟各国以及英国、印度、法国、加拿大、德国等域外国家。其中日本参演次数位列第一，达80场，澳大利亚次之，达16场。与域内外各国的演习中，数个多边年度大型演习规模及盟国和伙伴国的参与程度均有所提升。2月至3月美国和泰国主办的“金色眼镜蛇2023”联合军演，共有来自30个国家的7000多人参加，美方称“达到10年来最高水平”。4月举行的美菲“肩并肩 2023”年度联合军演，演习规模空前，有1.76万名军人参加，包括约1.2万名美国士兵、5000余名菲律宾士兵，以及来自澳大利亚的100余名士兵，参演兵力几乎是2022年8900人的两倍。7月下旬至8月上旬举行的“护身军刀 2023”演习（Talisman Sabre 2023），是迄今为止美澳两军举行的“规模最大、复杂度最高”的一次演习。（二）多个演习地点向西太转移从演习地点来看，2023年，美国恢复了和亚太相关国家的高密度大型联合演习，多个大型演习地点由传统演习区域转移或扩散至西太平洋重要地区。2月至3月，美日开展“铁拳 2023”（Iron Fist 2023）联合演习，演习地点由美国至日本。“铁拳”联合军演从2005年开始举行，此前一直在美国加利福尼亚州开展，这是该演习首次在日本九州岛、德之岛和喜界岛举行。5月和7月，美菲时隔33年重启“雷霆对抗 23”联合军演（Cope Thunder 23），雷霆对抗系列演习于1976年首度在克拉克空军基地举行，美国空军于1991年撤离克拉克后，这项演习移师阿拉斯加，并更名为“阿拉斯加红旗”（Red Flag Alaska）演习。此次重启雷霆对抗系列演习，演习区域也从菲律宾克拉克空军基地周边扩展到菲律宾中部维萨亚斯群岛和南部棉兰老岛。7月，美空军举行“机动卫士 2023”演习（Mobile Guardian 23），首次将演习区域拓展至美国本土之外，以关岛基地作为前沿枢纽，演习区域涵盖美国夏威夷、日本、澳大利亚等地的机场。同月，美空军“北方利刃 2023-2”演习（Northern Edge 2023-2）举行地点首次转移到日本山口县岩国市的美国海军陆战队基地，该系列演习往年均在阿拉斯加境内举行，而本年度则在日本、关岛、帕劳等地举行。10月中旬，美海军陆战队与日本陆上自卫队举行“坚毅之龙-23”（Resolute Dragon 23）年度联合军演。该野战训练演习首次以九州及冲绳的自卫队及驻日美军设施为中心，设想防卫离岛，在此之前的2届，该演习分别在日本本州岛和北海道一带举行。诸多演习地点移师西太平洋地区，表明美国正在有意识地加强其部队在西太平洋特别是第一岛链附近的军事部署和作战演练，其战略针对性不言而喻。（三）演习科目不断创新近年来，美军频繁在西太地区开展 “分布式海上作战”（DMO）、“远征前进基地作战”和“敏捷战斗部署”（ACE）等作战概念演练。2023年，随着以美国国防部“复制者计划”为代表的无人作战概念出台，演习科目也出现多个“首次”，在整体延续以往传统演习项目的基础上，重点向强化海域态势感知和无人作战平台运用等方向发展。2023年4月举行的美菲“肩并肩 2023”年度联合军演中，美国陆军多域特遣部队和海军陆战队濒海战斗团混合编组，进行“以陆制海”联合训练，演习内容从两栖扩展至远海和网络空间，不仅新增海上射击演习，还首次设置了网络防御演练，同时，美军还首次在菲律宾进行“爱国者”防空导弹射击演习。美军首次在菲律宾部署MQ-9“死神”无人机，并出动 “海马斯”高机动火箭炮系统，通过两栖登陆艇展开快速部署，首次在南海进行“击沉”演习。为了顺利实施“击沉”演习，美菲两军成立了合成信息和效果融合单元（CIEFC Combined Information and Effects Fusion Cell），尽管最终未能成功击沉靶舰，仍测试了通过融合指挥与控制、情报信息和多域火力，以扩大战场态势感知能力。“肩并肩 2023”为美各军种演练各自作战概念并推进在联合部队层面的融合提供了训练机会。7月举行的“北方利刃 2023-2”演习中，美国及其相关盟国派出战机，进行了 “敏捷作战部署”演练，同时由MQ-9A无人机充当“分布式空中作战”（DAW）的通信中继站，探索有人/无人协同作战模式下的战法运用。9月，美海军“水手”号和“游骑兵”号无人艇部署至日本横须贺海军基地。并同美海军“奥克兰”号濒海战斗舰及日本海自 “熊野”号护卫舰在相模湾举行合练。这是日本海自首次与美军无人艇合练。其中“游骑兵”号早前已成功试射“标准-6”远程防空导弹。根据美海军设想，未来无人艇+“标准-6”导弹的配置将充当海上分布式武器平台，成为美海军“分布式海上作战”、“远征前进基地”等作战概念的重要组成部分。11月，在美菲“海上勇士7”演习（KAMANDAG 7）中，美海军陆战队东南亚特遣轮换部队首次将美国陆军战术情报目标访问节点（TITAN）与其海上探测设备进行联合部署。TITAN是美国陆军正在开发的下一代数据处理地面站，通过使用人工智能处理情报、监视和侦察数据，加快多域杀伤链的传输速度。演习中还使用了Simrad雷达等商用传感器。这些传感器可以在建立海域感知图像方面实现更无缝的互操作性。六、总结和展望2023年，美国白宫国安会、五角大楼和美军大肆炒作中国人民解放军针对美军舰机的所谓“危险拦截”和“不专业操作”，还公布了一系列的“危险”相遇案例。然而，美国方面从来不公布这些相遇的具体地点，也未言明为何会发生此类相遇。实际上，如前文所述，这些拦截多数发生在中国大陆领空附近或中国军队的临时演习禁行区域内，少数案例发生在西沙领海领空和南沙群岛中国驻守岛礁的临近海空域。我们认为，美方炒作此类事件，一方面确实是出于对中美海空相遇事件失控的担心，另一方面则是出于政治和外交考虑，希望以此施压或造势，借助舆论和外交在中美战略博弈中获得有利地位。而实际上，美军南海军事活动正在给中美关系乃至地区带来越来越大的风险：一是美军在南海及其周边针对中国越来越激进的军事行动必然会招致解放军的强力反制；二是西太美军越来越处于过度部署和过度疲劳的状态，重大事故不断，美军的专业性下降不利于中美两军在南海的良性互动；三是美军大量无人系统的运用必将加大中美两军发生误判或误操作的可能性。2024年，尽管受到俄乌冲突、巴以冲突和红海危机的持续影响，印太地区仍是美军海空兵力的部署重点，美军仍将持续加大在南海及其周边地区的存在及活动。即将进行的美国总统大选，会给南海及周边地区带来新的不确定性，而这种不确定性反而会刺激美军加强在该地区的部署及行动。</t>
+          <t>$上证指数(SH000001)$ 不要天天骂指数假，如果知道自己几斤几两，跑不赢指数就买沪深300</t>
         </is>
       </c>
     </row>
@@ -1373,16 +1373,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>8659368430</v>
+        <v>9181830424</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>lioncruise</t>
+          <t>白白胖胖天天向上</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>我也好奇，这样说明沪深300至少再涨10%还是安全的？</t>
+          <t>$巨化股份(SH600160)$ 中证500市值第一了，坐等调入沪深300</t>
         </is>
       </c>
     </row>
@@ -1391,16 +1391,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7961082554</v>
+        <v>1652329269</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>远方问道</t>
+          <t>谦卑低调</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>问Kimi：如何看待广发基金研究员手撕基金经理的事件推荐阅读辞职信火了：网页链接Kimi的回复，却有此事，同时提到几大影响，以及一些合理建议！可以给95分把$上证指数(SH000001)$ $沪深300(SH000300)$ $恒生指数(HKHSI)$</t>
+          <t>今天私募与公募汇合了，实际上还有外资。回归低位低估值权重，核心资产，中国当下最优质的企业行业。此举让公募私募回归正轨，也就是选股尽量在权重，在沪深300里选，大家都公平对待。一方面低位低估值风险低，另一方面也让大盘能够稳定运行，而不是天天抱团炒作估值上天的概念股微小盘。$沪深300ETF(SZ159919)$ $宁德时代(SZ300750)$  $亿纬锂能(SZ300014)$ 赛力斯，上证指数，创业板指，深证成指</t>
         </is>
       </c>
     </row>
@@ -1409,16 +1409,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6236397430</v>
+        <v>6110878566</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>打工挣本金</t>
+          <t>hengshu</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>今年的收益率终于追上沪深300了，还是不错的，要是$洋河股份(SZ002304)$ 能涨涨就更好了，因为我不会再加仓了。明天去香港，准备进军美股！哪天要是A股飞上天，美股崩了，把A股赚的钱再投入美股，如此反复，岂不是赚大发了</t>
+          <t>回复@胡锡泥: 很遗憾我刚对比了一下，船舶和上证50，重工和沪深300，走势都没有明显相关性，可能个人技术水平有限吧。//@胡锡泥:回复@hengshu:你可以对比一下，三者的板块联动几乎可以忽略不计，造船板块里的船舶重工是典型大盘股走势，防务动力跟中盘股，海兰信亚光天海防务之类的完全跟小微盘，整个板块一盘散沙，总共不超过10个标的，却无法呈现新能源，芯片那种整个板块齐涨齐跌的情况，这不是板块行情的演绎，纯随各自的成分随波逐流。</t>
         </is>
       </c>
     </row>
@@ -1427,16 +1427,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6786869689</v>
+        <v>9752028711</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>寻觅光影</t>
+          <t>六乘风</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>$上证指数(SH000001)$ $恒生指数(HKHSI)$ $沪深300(SH000300)$ 起于美储拖延降息，日元结束宽松，开始加息紧缩！铜 有色 等商品期货大跌，人民币贬值预期加重！上半年中国央行将继续降息降准释放流动性，充裕的流动性将驱动资金南下香江逐利！继续利好高息 及银行股！</t>
+          <t xml:space="preserve">价值回归，成长为王，将成为2024年乃至今后很长一段时间的主旋律。$沪深300(SH000300)$ </t>
         </is>
       </c>
     </row>
@@ -1445,16 +1445,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5206097204</v>
+        <v>1547389697</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>永不褪色的信笺</t>
+          <t>胡锡泥</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>今天不像昨天那样死拿了，做了次老6，跑掉的杠杆仓位不准备加了，先看看风向。午盘开盘和尾盘沪深300有资金护盘，像是给机构跑路的机会，整个下午没有大票带队，涨的都是300之类的量化小票。下跌放量，整体偏谨慎，3050区间机构每天100到300亿的跑路，持续了十几个交易日，外围要是在不好，指数是要下台阶的。 天地增多，情绪指数双杀的节点要来了。</t>
+          <t>造船行情还没有开始演绎，船舶重工防务纯粹跟各自的权重指数，船舶跟上证50，重工跟沪深300，防务跟中证500，三者之间目前联动很弱。</t>
         </is>
       </c>
     </row>
@@ -1463,16 +1463,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2979429675</v>
+        <v>9394798834</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>阿土大叔</t>
+          <t>懵懵懂懂小基民</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>人民币贬值，外资砸盘，中国平安大跌。指数上午已到崩盘的边缘。下午一开盘某队小哥就上班了，外资也开始掉头流入。遂跌幅缩窄。如果睡醒了泡杯茶再来，估计会跌更惨。上证指数的3000，上证50的2400，哥还是想要保。指数再上台阶之前反而会大跌一下，是比较符合经验的。所以也没准儿是好日子快来了，横盘震荡1个月了。中国平安叫屈，说被低估了。嗯，你倒是回购呀。一个金融公司，又不缺现金。看业绩吧，某队是托底的，平白无故往上拉应该是不会的。$上证50(SH000016)$ $沪深300(SH000300)$ $上证指数(SH000001)$</t>
+          <t>以前说到核心资产，必然想到沪深300和上证50。但它们金融板块占比相对较大，导致行业不够分散。但中证A50指数不一样，这个指数它是在细分行业中选择出了每个行业中的龙头股，也就是汇聚了各行业老大的指数。$中证A50ETF易方达(SH563080)$ $贵州茅台(SH600519)$ $中国平安(SH601318)$</t>
         </is>
       </c>
     </row>
@@ -1481,16 +1481,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5551861679</v>
+        <v>6396424032</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>云霄之外无泡影</t>
+          <t>下课老师不让走</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>总算分歧结束了$大理药业(SH603963)$现在得进入下个阶段了吧指数的入手位置，巴适#沪深300# #指数基金#</t>
+          <t>$沪深300(SH000300)$ GJD现阶段的目标就是一边治理市场环境，一边吸筹，一边维稳。</t>
         </is>
       </c>
     </row>
@@ -1499,16 +1499,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4235823013</v>
+        <v>1465420860</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>指数先锋</t>
+          <t>王增森</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>在A股市场修复行情持续发酵的背景下，能够在风控和收益之间找到平衡的投资标的显得尤为关键。此时推荐一款历史业绩优秀、白酒行业龙头集中、盈利概率高且胜率明显的基金，其持有满3年的盈利概率达到93%，过去6个季度中有3个季度跑赢沪深300，胜率达到50.00%，连续4年跑赢沪深300。这款基金的基金代码是161725，名称为招商中证白酒指数。该基金由招商基金管理有限公司设立和管理，成立时间为2015年5月27日，至今已成立8年302天，公司基金规模达441.72亿。该基金的基金经理为侯昊，据业内了解，侯昊拥有丰富的基金管理经验，他执掌该基金以来的任职回报达170.6439%，任职时长为6年215天。招商中证白酒指数基金以白酒行业为投资主线，其资产配置上，股票占比为94.97%，债券占比为1.27%，现金占比为4.47%，其他占比为0.62%。其重仓股票主要为山西汾酒、贵州茅台、五粮液、泸州老窖、洋河股份等，行业集中度较高，食品饮料行业占比达到89.1745%。此外，该基金的年化收益为15.03%。今年以来，招商中证白酒指数基金已经实现了3.25%的收益率，持续表现强势。期间，该基金经历了最大回撤46.78%，但累计收益高达296.29%，在市场中表现出色。总的来说，招商中证白酒指数基金以高盈利概率和胜率，强大的白酒行业龙头构成，以及经验丰富的基金经理，构建出了一条通向投资成功的康庄大道。照此看来，具有中高风险承受能力的投资者不妨考虑该基金作为自己在股票市场中的投资工具之一。</t>
+          <t>$沪深300(SH000300)$ 时线前顶底支撑，盘整，双底。看看能不能冲到60小时线附近。曾经的支撑位，现在是反弹阻力位了。现在这种走势，看着半小时线操作，才可能是安全的。</t>
         </is>
       </c>
     </row>
@@ -1517,16 +1517,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4109518474</v>
+        <v>5122903091</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>油盐不进北交所</t>
+          <t>易方达指数通</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>#沪深300# #创业板# 一波行情之后的持续横盘，突然下杀午后收上影线……好可怕，预感不好，大幅减仓回避</t>
+          <t>中证A50龙头属性突出，指数兼具大市值属性与行业表征性，选取了50只各行业市值最大的证券，样本整体基本面表现较为优秀，多数成份股具高分红特征，与中长期资金投资风格更为契合~$中证A50ETF易方达(SH563080)$ $上证指数(SH000001)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -1535,16 +1535,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5681120951</v>
+        <v>3965370993</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>纳履而去</t>
+          <t>大川成长价值投资</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>明牌：收息佬2.0、看好核心资产 暗牌：看空沪深300+高抛低吸佬。</t>
+          <t xml:space="preserve">天道：即为自然规律，也就是易经里的道法自然。包括当年明月也提及过，他原本也不信天道，后来他发现这个世界是存在规律的。太阳东升西落，月亮阴晴圆缺这就是自然规律。一年有四季，春天播种，秋天丰收，这就是自然规律。违背了自然规律，那就必然会有灾祸。冬雷震震夏雨雪。。。乃敢与君绝。人道：即为人性规律，也就是人性，包括七情六欲、贪嗔痴念都是人性的一部分。还有王阳明的心学也是。我们得学会控制自己的欲望，克服人性的前提下，抓住他人的人性规律，那么我们就离成功近了一大步。比如说炒股，巴菲特说的别人恐惧我贪婪，就是一种抓住众人人性规律的自我逆人性投资的行为。因为往往在跌到极致的时候，人性都是会恐慌的，涨到极致的时候，人性都是会疯狂、得意忘形的。真正取得成功的人都是善于利用规律去顺势而为做成一些事情的，包括当年的淘宝、QQ、支付宝、微信、抖音、拼多多、美团等等，不难发现，以上的成功都是遵循人性规律的。包括农民伯伯成功的种出粮食也是遵循自然规律的，春耕播种，你如果秋耕播种，估计得饿死。天道和人道或者说是天道和人性的结合就是天人合一。$上证指数(SH000001)$ $沪深300(SH000300)$ $中药(BK0041)$ </t>
         </is>
       </c>
     </row>
@@ -1553,16 +1553,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7810070262</v>
+        <v>5551861679</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>汇锦高速</t>
+          <t>云霄之外无泡影</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>费这么大劲都红不了。$沪深300(SH000300)$</t>
+          <t>磨磨叽叽，我走了$京投发展(SH600683)$ #沪深300# #指数基金#</t>
         </is>
       </c>
     </row>
@@ -1571,16 +1571,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1390370241</v>
+        <v>5293575692</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>五月看海</t>
+          <t>科创100ETF</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>50万实盘开始时间：2023年12月25初始资金：50万收益2023年 1.3%2024年 5.9%今天-2000多元，累计7.7%。同期沪深300 5%，创业板 3%。</t>
+          <t>整体在海外宏观流动性和制度流动性的释放下，外资持股占比较高、注重ESG指数编制理念的中证A50指数有望迎来资金加持，中期指数弹性可期，A50ETF基金（159592）值得重点关注$A50ETF基金(SZ159592)$ $上证指数(SH000001)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -1589,16 +1589,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6803964250</v>
+        <v>1652329269</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>炒股躺平哥</t>
+          <t>谦卑低调</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>和沪深300充分纠缠。在钻上牛角尖之前只是一位无操作记录者了。</t>
+          <t>意识快动作快的公募私募，已经开始抢占沪深300里的低位低估优质板块和个股，尤其是盘子适中的企业，弹性大也容易取得超额收益，同时大盘也能稳步上涨。同时也意味着在出清一些高估值高位，获利盘巨大的个股，尤其是微盘股。$沪深300ETF(SZ159919)$ $宁德时代(SZ300750)$ $亿纬锂能(SZ300014)$ 赛力斯，上证指数，创业板指，深证成指</t>
         </is>
       </c>
     </row>
@@ -1607,16 +1607,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3761781227</v>
+        <v>1419079863</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>四哈赚自由</t>
+          <t>中证1000指数ETF</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">450万实盘，2023年7.24开更中阴线来了，两种方案：一，这里沪深300缩量到1700以下开始继续买买买，二，W底 开始买买买。今天亏亏9万，总亏损9万股票今天无操作目前股票393万，现金48万#股票# #实盘分享# #上证指数# </t>
+          <t>对比一下现在市场上“50指数”的编制方案可以发现，相较于MSCI中国A50、上证50、深证50，中证A50将ESG评价体系作为首要选样标准，首先剔除了ESG评分在C及以下的公司标的，确保入选证券的ESG得分不低，有助于降低样本发生重大负面风险事件概率，顺应碳中和进程和社会责任担当趋势，排除公司治理有问题的企业，保障了指数质量。$中证A50ETF易方达(SH563080)$ $上证指数(SH000001)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -1625,16 +1625,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9119495488</v>
+        <v>3965370993</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>踩着风飞</t>
+          <t>大川成长价值投资</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>$富时A50指数主连(CNmain)$ $上证指数(SH000001)$ 目前最可悲的指数是中证500，这个指数量化扎堆，生生被量化玩废了。质地没有沪深300好，投机情绪没有中证1000强，尴尬的中证500指数，基本都是量化资金在里面互相收割。</t>
+          <t xml:space="preserve">虽然一直满仓没动，但是有闲钱都是会存起来等待加仓的，从不考虑减仓或做t。由于持仓配比的问题，某股票远未买够，今明两年可能会多次加仓，不急。对于想加仓的标的，我是真心开心看到它股价下调的。我不排斥走势可以更傲人更磨人一点。因为对于好的公司，大多数人观点会趋于同质化，那么情绪和心态的差异化，将是人与人之间最大的区别。$上证指数(SH000001)$ $沪深300(SH000300)$ $中药(BK0041)$ </t>
         </is>
       </c>
     </row>
@@ -1643,16 +1643,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5293575692</v>
+        <v>4121192598</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>科创100ETF</t>
+          <t>好咖啡的味道</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>中证A50指数补全全市场50指数空白，发挥资金流动“指挥棒”效用行业分布更为均衡，广泛代表中国新经济的整体市场机会$A50ETF基金(SZ159592)$ $上证指数(SH000001)$ $沪深300(SH000300)$</t>
+          <t>一旦发现好机会、标普500点策略是合理价位即可建仓用90%时间持股等待沪深300的策略是、用90%的时间持币等待一个极端变态的低价、然后all in 他虽然都在等待、策略完全不同差别在于～不同的市场生态环境米国是分红+成长的市场A股是投机博弈的市场</t>
         </is>
       </c>
     </row>
@@ -1661,16 +1661,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1652329269</v>
+        <v>6032024743</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>谦卑低调</t>
+          <t>畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>意识快动作快的公募私募，很快就会开始抢占沪深300里的低位低估优质个股了，尤其是盘子适中的企业，弹性大也容易取得超额收益，同时大盘也能稳步上涨。$沪深300ETF(SZ159919)$ $宁德时代(SZ300750)$ $亿纬锂能(SZ300014)$ 赛力斯，上证指数，创业板指，深证成指</t>
+          <t>回复@不负遇见_: 方正证券：整个养殖股投资从之前的养猪产能去化逻辑，移到猪价上涨右侧逻辑~~$畜牧养殖ETF(SH516670)$ $沪深300(SH000300)$  我刚分给这个回答 ￥1.88 悬赏奖金，也推荐给你。//@不负遇见_:回复@畜牧养殖ETF:养猪企业的股价虽然已经反弹了一波，但还是在低位等待调整下来。个人认为可以积极介入，是一个好的右侧买入点。 查看图片</t>
         </is>
       </c>
     </row>
@@ -1679,16 +1679,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4121192598</v>
+        <v>7820504248</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>好咖啡的味道</t>
+          <t>缠学汇</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>大盘跌的时候、回撤比沪深300小、涨的时候跑赢沪深300、长期策略对标标普500图形选股、高股息吗</t>
+          <t>【总市值】跟踪分析 2024.03.26$沪深300(SH000300)$ $中证500(SZ399905)$ 技术：1、如图，今天早盘形成一个1分钟3卖后，目前正在延伸第2个1分钟中枢。2、从整体上看，目前基本要走日线向下笔延伸，从时间上算，还有几个交易日。3、现短线的任务是观察第2个中枢的位置，关键位置在7662点，站稳再算。策略：退潮期，留子弹，等下一波吧。</t>
         </is>
       </c>
     </row>
@@ -1697,16 +1697,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6976010466</v>
+        <v>5293575692</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>豪爽的增长随时录屏</t>
+          <t>科创100ETF</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>馒头没人吃了。安琪酵母(600298.SH)：2023年全年实现净利润12.7亿元，同比下降3.86%和讯网2024-03-19 09:50北京和讯在线信息咨询服务官方账号,优质财经领域创作者关注2024年03月19日，安琪酵母(600298)(600298.SH)发布2023年全年业绩报告。公司实现营业收入135.81亿元，归母净利润为12.7亿元，同比下降3.86%，实现经营活动产生的现金流量净额13.21亿元，资产负债率为45.01%，同比上升1.77个百分点。公司销售毛利率为24.19%，同比下降0.61个百分点，实现基本每股收益1.47元，同比下降6.37%，摊薄净资产收益率为12.61%，同比下降1.66个百分点。公司存货周转率为3.02次，同比下降0.66次，总资产周转率为0.75次，同比下降0.10次。研发费用占营业收入的比重为4.44%$沪深300(SH000300)$ $纳指100ETF-Invesco(QQQ)$ $上证指数(SH000001)$</t>
+          <t>感谢关注！也欢迎大家多多关注银华家的$A50ETF基金(SZ159592)$ ～ 中证A50选取50只各行业市值最大的证券作为指数样本，“指挥棒”效用凸显$上证指数(SH000001)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -1715,16 +1715,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9733958603</v>
+        <v>1265824060</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>晓磊的基金生活</t>
+          <t>五星差评</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>今天又要有喷子跳出来说了——你们跑不赢沪深300和上证50？废话，你今天能跑赢沪深300和上证50？你家股票可以下午1点之后就突然放量？无聊抬杠嘛这不是.......这个世界多一点理解多一点爱，大家都是亏钱苦命人，男人何苦为难男人........施主你要是真喜欢沪深300，就直接买510300华泰柏瑞沪深300ETF不好嘛，和“全市场最强主力”站在一起，多威风？</t>
+          <t>生物医药回本行动，第二步启动，将之前逢高卖出的部分，开始买回来。本次买入金额为持仓金额的3倍。（之前本来就是组合中的小仓位，卖掉大部分之后，只剩很少份额）。浮亏比例直接降为10%以下（可见医药有多惨，抄底也能浮亏30%）。预留一次买入金额。如果再下跌超过5%（今日收盘价为基准），再买入这部分。希望最多买入2次之后，能够迅速回本，然后拜拜。当然，如果行情好，那就继续持有。咱的投资目标，总不能总是回本吧。先挽救生物医药的原因：仅适用于我当前的持仓，仅传递一种方法，请勿照搬。1、涨得最少，跌的最深，持仓成本烫平价值最大；2、医药利空最多最久，总感觉有其他因素存在；3、整个市场应该说开始走向正常，所以打算慢慢加仓了，其他两个持仓感觉还没到位。对了，再强调一下，我的策略是追求胜率，不求绝对的抄底和逃顶，属于长期持有+波段操作策略，炒股型投资者可能是看不上我这套路的$生物医药ETF(SZ159859)$ $沪深300(SH000300)$ #2024投资炼金季# #妖股艾艾精工开盘跌停#</t>
         </is>
       </c>
     </row>
@@ -1733,16 +1733,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3965370993</v>
+        <v>7152429226</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>大川成长价值投资</t>
+          <t>cocofox</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>苏格拉底：人类社会的灾难大多是少数人的无耻与多数人的无知造成的。我拿a股套用一下，好像也没毛病？a股的灾难大多是少数人的无耻与多数人的无知造成的$上证指数(SH000001)$ $中药(BK0041)$ $沪深300(SH000300)$</t>
+          <t>$沪深300(SH000300)$ 不出意外，GJD下午会来撑撑场子。</t>
         </is>
       </c>
     </row>
@@ -1751,16 +1751,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2612803986</v>
+        <v>6234325608</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>小白侃财经</t>
+          <t>广州楚桩黄小炼</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>回复@华子家族企业: 沪深300是风向标//@华子家族企业:回复@小白侃财经:下午一开盘及进场了</t>
+          <t>$房地产(CSI931775)$ 打个赌，今年的房地产指数能跑赢沪深300</t>
         </is>
       </c>
     </row>
@@ -1769,16 +1769,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9045420040</v>
+        <v>1394327357</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>富由心生S财随心转</t>
+          <t>英哪俾斯</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>说的没错吧，主力如期而至，虽不能说银行板块领涨，但目前也是比上证50、沪深300等宽基跌幅小。你们看到的，主力看到了，你们想到的，主力也想到了。无论从哪种角度讲，都不要做与主力方向相反的事，不要低估战略决心！$上证指数(SH000001)$ $上证50(SH000016)$ $沪深300(SH000300)$</t>
+          <t xml:space="preserve">如果依靠拍马屁就能够实现事业的飞黄腾达，那谁还愿意埋头苦干呢？如果依靠走捷径就可以成功，那谁还愿意长期脚踏实地工作呢？如果说谎话得到的是奖赏，那谁还愿意说实话呢？如果油腻滑头是忠厚，那谁还敢老实巴交呢？但现实并非完全如此，我们相信，埋头苦干、长期脚踏实地、说实话、做老实人依然是最正的人生理念，拍马屁走捷径说谎话油腻滑头并不容易，是高难度的技术活，也不是你想干就能干得了的，没有一定的天分都不行，你以为呢？对于像我们这样的普通人来说，采取更稳健的投资策略，如长期投资和价值投资是正道，其它再高级的什么策略我们不会，是自身能力不够导致的不会，不完全是因为不想做。投资是长期持有投资品，并通过资本增值、分红等方式获得回报的策略。投资者通常会选择具有潜力的资产，如股票、债券或房地产，并持有较长时间，以期望获得长期稳定的回报。尽管投资风险较低，但回报潜力也较为稳定。结论：1）我们多少是可以知道股票好坏的，连房子这么大的投资品的好坏都知道按地段、按开发商、按物业管理、按租售比来衡量，股票并不比选房子难，我们是会的。2）像房子我们买到手都知道长期持有才能赚钱，股票也是一样的，把买股票简化成买房子，这是我们的优势所在。$沪深300(SH000300)$ $上证指数(SH000001)$ $深证成指(SZ399001)$ @今日话题 @玩转雪球 </t>
         </is>
       </c>
     </row>
@@ -1787,16 +1787,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6032024743</v>
+        <v>1139434297</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>小赢算赢</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>回复@慧者心辨: 提前布局与低位布局有多重要，大家都懂$畜牧养殖ETF(SH516670)$ $沪深300(SH000300)$ 我刚分给这个回答 ￥0.68 悬赏奖金，也推荐给你。//@慧者心辨:回复@畜牧养殖ETF:CPI已经开始同比上升，说明内需潜力增大。随着气温回暖及经济向好，白条需求有望上升。 综合来看，即便短期调整，猪价也难以跌破前期低点，但散户压栏体重逐渐提升，中大猪源增多后可能拖累猪价，当然需求提升也带来支撑，今年出现拐点的概率还是非常大，从投资角度，需要一定前瞻性，才能更好把握机会$畜牧养殖ETF(SH516670)$</t>
+          <t>$恒生科技指数(HKHSTECH)$ 前面经过20%涨幅后，最近阴跌，感觉资金一时不知道该怎么办了。老美要降息，又一会半会找不到充足的理由；国内感觉要复苏，也找不到充足的证据；大模型很热，又有些不太相信商业化。就这么纠结着复苏概念、煤炭有色石油轮着涨一天，又跌一天，涨的没跌的多，就这么纠结着…$恒生指数(HKHSI)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -1805,16 +1805,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6976010466</v>
+        <v>2344071735</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>豪爽的增长随时录屏</t>
+          <t>耐心等待21中药</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>恒大造假，审计没关系么？普华永道已经连续10多年为恒大提供审计服务，从2010-2022年均提供的无保留意见，2020年审计费是4500万元，每年平均也有2700万元的审计费用。恒大地产通过提前确认收入方式财务造假，2019年虚增收入 2139.89亿元，占当期营业收入的50.14%，虚增利润407.22亿元，占当期利润总额的63.31%；2020年恒大地产虚增收入3501.57亿元，占当期营业收入的78.54%，虚增利润512.89亿元，占当期利润总额的 86.88%。都是几千亿的虚增呢，太夸张了。两任CFO和财务中心总经理被通报罚款，当然现在已经被抓进去了。普华永道这次，不可能不发现恒大的问题。这个在审计的眼里，提前确认收入太容易判断了。不管是实地看一下，还是用卫星图，或者看看新闻也知道交房的情况。其实圈内的很多人都知道，也不止恒大一家，提前确认收入，操纵利润，保壳和给各大金融机构、政府、投资者形成了良好的印象，套路也比较粗暴简单。康美药业财务造假，起诉索赔24.59亿元，法院判决原董事长及5名直接责任人员、正中珠江会计师事务所承担全部连带赔偿责任，珠江会计师事务所相当于提前宣判已经倒闭了。中国森林的清盘人曾于2016年起诉会计师事务所毕马威。由于未能发现管理层伪造了公司的林业资产及收入，要求赔偿13亿港元。经过激烈博弈，毕马威支付了6.5亿港元与对方达成和解。以前的8大事务所，因为造假直接赔偿巨额罚款而倒闭的都有实际案例。现在恒大的审计机构是普华永道，会不会步入此$沪深300(SH000300)$ 后尘？拭目以待。</t>
+          <t>不是沪深300更好均衡吗？</t>
         </is>
       </c>
     </row>
@@ -1823,16 +1823,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>8435309187</v>
+        <v>8159875117</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>鹏扬基金</t>
+          <t>叽叽喳喳又呱呱</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">您好：我是鹏扬基金赵世宏。上周A股震荡上行，风格方面，成长风格更为占优，中小盘股明显反弹；行业方面，受益于政策推动以及出海加速推进的汽车板块领涨。当下权益市场进入震荡偏高区域，不排除发展新质生产力的口号及相关政策会让中小盘成长股尤其是AI板块继续冲高，但这是降低风险暴露的机会，然后继续等待权益市场的相变时刻。红利风格和出海相关资产具备战略配置机会，核心资产有市场错杀带来的交易机会，中小盘成长板块依然面临估值压缩风险。在政策面上，短期维度，发展新质生产力的口号以及设备更新与消费品以旧换新政策的落实，会让中小盘成长股尤其是AI板块继续冲高，类似2022年6月的新能源板块。中期维度，我们最关心的“运动式转型”政策暂未看到结束的迹象，政治局会议强调加快发展新质生产力，政治局集体学习强调要大力发展新能源并且不认为行业产能过剩。展望未来，在金融股领域，我们继续持有龙头券商股；消费股方面，继续持有高端白酒标的以及估值在低位的细分市场龙头白酒股，逢高止盈了部分高股息消费个股。高端制造方面，趁市场反弹卖出了部分新能源、军工和汽车零部件个股。TMT 方面，继续持有面板行业龙头股以及半导体存储行业个股。以上是我本周想和大家分享的内容，感谢大家的支持和信任。有其他问题，也可以在本篇文章底部留言，我会保持关注并尽力答复。谢谢~$数字经济ETF(SH560800)$ $沪深300(SH000300)$ $中证传媒(SZ399971)$ </t>
+          <t>$沪深300(SH000300)$ 你们还没加自选的在观望啥哦，这周期说转就转，随时准备好$畜牧养殖ETF(SH516670)$</t>
         </is>
       </c>
     </row>
@@ -1841,16 +1841,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1228266203</v>
+        <v>8948398218</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>平凡笔记</t>
+          <t>做多中国1996</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">态度明确，再跑，我就开枪了。。。$沪深300(SH000300)$ </t>
+          <t>买房账户充值20万，个人账户-20万个人账户清仓了，准备就拿10万玩玩了期间跑赢沪深300 8.77%，还算满意了…</t>
         </is>
       </c>
     </row>
@@ -1859,16 +1859,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5293575692</v>
+        <v>4726671336</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>科创100ETF</t>
+          <t>随行去执</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>感谢关注$A50ETF基金(SZ159592)$ ～A50ETF基金具有强贝塔属性，在政策推动资本市场高质量发展、经济数据向好、市场关注度回归基本面的背景下有望展现较强动能$上证指数(SH000001)$ $沪深300(SH000300)$</t>
+          <t>$沪深300(SH000300)$ $上证指数(SH000001)$ 到底走第一种还是第二种呢？</t>
         </is>
       </c>
     </row>
@@ -1877,16 +1877,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4726671336</v>
+        <v>5093452365</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>随行去执</t>
+          <t>修罗道人</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>现在很多机构总是在外面宣传逆人性逆人性，在我看来简直滴笑皆非。逆个🔨的人性啊，都已经是人性了，哪里容易像你说的想逆就能逆的？天天跟自己的天性对抗，你累不累？而且很多人对别人说逆人性，其实就是忽悠投资人的，不然也不会金融圈那么多乱七八糟的各种香艳门了。从我过去那么多年的傻多经验来看，赚大钱的票，从买入第一天起，就让我极度舒适，过程震荡，我心里也很有底。而让我亏大钱的票，从刚开始买入就不顺，然后PUA自己最后越亏越多。所以投资，就该顺人性，跟随自己的真实想法，对自己诚实，是你成功的第一步。别天天PUA自己，自我麻痹。$沪深300(SH000300)$</t>
+          <t>$上证指数(SH000001)$ 只有沪深300和科技能玩毕竟是GJD花了真金白银买的，有一定的资金沉淀，其他板块基本一日游。</t>
         </is>
       </c>
     </row>
@@ -1895,16 +1895,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1209504882</v>
+        <v>1011184242</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>金融央企打工人</t>
+          <t>他好像条狗啊</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>$中兴通讯(SZ000063)$ 国家队买沪深300，沪深300需要买权重，但是沪深300也需要超额收益所以现在的中兴就是跌破28就被买，跌破就被买，神仙打架了</t>
+          <t>上证今天的30日线是3003，每天上升10个点，明天就是3013左右；深圳今天是9304，每天上升50个点，明天就是9354左右；创业板今天是1817，每天上升9个点，明天就是1826左右；沪深300今天是3509，每天上升9个点，明天就是3518左右；上证50已经在30日线下了。</t>
         </is>
       </c>
     </row>
@@ -1913,16 +1913,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1419079863</v>
+        <v>8768504444</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>中证1000指数ETF</t>
+          <t>海洋之心yao</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">2023年下半年以来增量资金明显大幅流入以沪深300、上证50等指数为代表的大盘宽基类 ETF，尤其自2023年12月中央汇金等机构公告增持相关ETF以来，流入力度显著加速，显示在市场震荡筑底的阶段，增量资金更关注高确定性的大市值优质标的。$中证A50ETF易方达(SH563080)$ $贵州茅台(SH600519)$ $中信证券(SH600030)$ </t>
+          <t>回复@李守约: 稳稳降低成本的原因在于大资金在持有股票分红后，原本花了一个亿买的某些数量，分红除息后每股成本降低了，以分红形式还给你一部分钱，总股数不变。就像我们进货买几箱白酒，本来花了300买一瓶，半年后公司给你说打个折还给你几十块，相当于200多买的酒。看似是左手给右手，实际不能这样理解，这是在降低成本，我们原计划是为了买这些酒，除了高抛低吸以外，公司另外还给你一部分钱被动帮你节约成本，在市场上高抛低吸有概率做错，而公司每年被动以分红形式帮你降低的成本是不需要你操作的所以是稳的。第二问题，当你盈利后怎么卖出都是对的，只是说对于大资金来讲，建仓一次不容易持有周期很长，不会像我们这样随意，他们建仓后几个亿股数，当通过高抛低吸加分红形式把成本降低到非常低甚至完全回本后，仍然保留着几个亿的股数，此时每年都有白给的分红。类似我们入股开饭店，花了30万，过程中我们通过在饭店上班和年底分红的形式在两年后回本了30万落到口袋里了，此时仍然有饭店分红，而且占股百分比没变，往后每年你会得到什么？会得到净赚的分红。就是这个意思。假设你在饭店赚钱后卖出股份，后期饭店可能倒闭也可能上市，那么如果上市了或者越来越赚钱，此时你随着过程中一直在变卖股份，往后获得的分红就会越来越少或者没有。这中间存在赚钱最大化和风险控制问题，所以没有特别必须要怎么样，只是一个大资金的理念，也是自我如何看待这家公司未来的多种操作方法，哪种都行。对于钱少的人来说分红没有什么意义，分红后填权会带来些收益，因为体量不够没有大量囤货的人赚的多。$中证A50(CSI930050)$ $上证指数(SH000001)$ $沪深300(SH000300)$//@李守约:回复@海洋之心yao:谢谢你的回复！还想请教，你说“分红简单理解就是公司帮你被动做t，对于长期持股尤其巨额资金来说，稳稳地降低了百分之几的成本”，被动做t，为什么就能稳稳降低百分之几的成本呢？另外，你说“卖出个股数量，卖出的是货物，货物始终是有限的，分红是无限的”，如果我是以合理价格卖出股票/货物（按照价值投资理念，公司价值是未来现金流的折现，我按未来现金流折现的价格卖出这些股票），那是不是我也没吃亏呀？</t>
         </is>
       </c>
     </row>
@@ -1931,16 +1931,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6396424032</v>
+        <v>5034451788</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>下课老师不让走</t>
+          <t>阿尔法投资</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>$沪深300(SH000300)$ 美联储降息前不能拉太高配合出去的资金出货，同时也慢慢抄底，到时降息了也不会被收割，到时他们来了只能做接盘侠</t>
+          <t>手上的股票被套了，这也是避免不了的，在A股这个市场，被套是主旋律。对我来说是可以及时止损的，只不过现在手上也有闲钱，暂时也没什么机会。就随波躺平。个人来说，现在沪深300机会还是蛮大的，到底是资金分散投资一半价值，一半趋势。还是说集中子弹等待打满的趋势机会。。。。。$贝斯特(SZ300580)$</t>
         </is>
       </c>
     </row>
@@ -1949,16 +1949,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6740984768</v>
+        <v>9819053049</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>吴哥说股市</t>
+          <t>实干的涨幅小蜗牛</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>我国太有钱了，给非洲援助几百亿，给南美，东欧国家也援助，大国风范。$沪深300(SH000300)$</t>
+          <t>3100.85点是沪深300未来5～10年的大底，随着水位不断提升，其中枢线也在不断抬升。情绪指标与资金指标何时发生共振？需要更多点耐心。大部份股票历经3年熊市，都经历过C浪杀跌，底部夯实。情绪面波动大，但是放到更长久的周期看，情绪面起到的作用，其实不值一提。2018年中美贸易战，川普讹诈的一句话，沪深指数跌停，最低的时候上证指数于2019年1月31日跌到2440.91点，各种外企搬迁撤资不绝于耳。情绪面低谷。那又有多少人相信，那时起上证开启了3年的牛市，直至2021年2月26日3731.69点见顶。今天依然是一样。历史只是不断重复。历史只是不那么简单的重复。</t>
         </is>
       </c>
     </row>
@@ -1967,16 +1967,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1511982910</v>
+        <v>4425085908</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>海富通基金</t>
+          <t>方丈出家</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>截至大涨的本周一18日， 2024年以来沪深300上涨5.03%，创业板指上涨1.85%，偏股基金指数略下跌0.56%，很多小伙伴今年的收益率可能已经归正回本。然而周二各主流宽基指数下跌不少，昨天也小幅震荡，今天21日，沪深300下跌0.12%，创业板指下跌0.64%，不少小伙伴疑惑难道2024年刚回本就要迎来回调吗？当前如何对应？当前就说要迎来回调可能过于武断，虽然指数层面短期继续大涨的空间可能有限，2月5日以来上涨较多，短期回调风险不容忽视。近期市场成交量多日破万亿，两融余额也有回升，显示资金面的改善。在上涨带动下，情绪面也改善较多。AI、新能源、设备更新等产业上或政策上也有一些利好，然而经济基本面上，虽然近期制造业投资等数据尚可，但从近期社融和地产高频数据等看，当前仍有较大的改善空间。除非有进一步大的财政刺激政策，当前对经济基本面的短期预期可能仍然偏弱。因此基本面与资金面、情绪面的博弈或许还将继续，如果对基本面的担忧占上风，可能会开始回调，但当前博弈结果尚不明确，需要进一步观察更多经济基本面数据和市场走势。当前A股如何应对，或许更需结合自身观点与风险偏好情况。如果对市场短期比较谨慎，风险偏好也较一般，或可观察观望，若有较大回调再分批加仓。如果对市场较看好，风险偏好也较高，当前或仍可分批适度加仓匹配的基金（若看好科技成长风格，可适当关注海富通基金吕越超管理的偏科技成长风格特征的基金）。如果对市场看不太清楚，风险偏好中等，或可等待基本面进一步明确后再做决定，或者选择有较好轮动能力的偏均衡型基金。（或可考虑关注海富通基金周雪军、胡耀文管理的中等风险基金。）数据来源：Wind，海富通基金，截至2024/3/21日数据风险提示：市场有风险，投资需谨慎。我国基金运作时间较短，不能反映股市发展的所有阶段。基金的过往业绩并不预示其未来表现，基金管理人管理的其他基金的业绩并不构成基金业绩表现的保证。海富通基金郑重提醒您注意投资风险，请仔细阅读基金合同和基金招募说明书，在了解基金的具体情况及听取销售机构适当性意见的基础上，根据自身的风险承受能力、投资期限和投资目标，对基金投资作出独立决策。</t>
+          <t>$沪深300(SH000300)$$中证500ETF(SH510500)$还是那句话，既然什么都不想改，也改不动，不给死鱼价。坚决不买！！！也不能买！！</t>
         </is>
       </c>
     </row>
@@ -1985,16 +1985,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7820504248</v>
+        <v>9207568266</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>缠学汇</t>
+          <t>柒天ming</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">【总市值】跟踪分析 2024.03.22技术： 1、短线的回调兑现了，但还没结束。 2、今天跌穿前面的上升轨道，预示着可能要进入更大级别的震荡了，换言之今天构成的日线顶分型是有分量的，不得不考虑日线向下笔的情况。 3、关键位置7677点，如果跌破，则整体的震荡级别就升级了，至少让调整的时间预期扩大许多。 4、短线：今天盘中向5日线的回抽比较重要，如果不能重新站稳5日线，则构成【日线顶分型+下5日线】的结构。后面预期还得继续调整。策略： 有波段调整的预期，重点看5日线得失。避开高标就行$沪深300(SH000300)$ $中证500(SZ399905)$ </t>
+          <t xml:space="preserve">不同于上证50，沪深300，中证A50实际上用了一种更新的视角来刻画A股市场的龙头公司，有望成为A股市场新晋旗舰指数之一。$中证A50ETF易方达(SH563080)$ $贵州茅台(SH600519)$ $中国平安(SH601318)$ </t>
         </is>
       </c>
     </row>
@@ -2003,16 +2003,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1583186190</v>
+        <v>8360009538</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>只买国企股</t>
+          <t>正直的兜兜风</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>国家队只买沪深300、中证2000和微盘股救了一次，下次再跌下去就没人救了</t>
+          <t>各大行如何预测2024年中国股市？12月13日大摩预测MSCI从初值55.47点到目标位60点变幅8.2%，11月13日瑞银MSCI62点变幅12%，大摩预测沪深300从3431点到目标位3850点变幅12.2%，12月9日高盛预测MCSI66点、12月13日摩根大通66点变幅19%，高盛预测沪深300目标4200点变幅22%，高盛和摩根大通预测是大于15%的大牛市。君晟沪深3700点变幅7.8％和MSCI59点变幅6.4％的初值预测相对所有国际投行最保守谨慎，已调高到4100点和54点，对应上证3500点。</t>
         </is>
       </c>
     </row>
@@ -2021,16 +2021,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9933887151</v>
+        <v>2979429675</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>我韭菜割我</t>
+          <t>阿土大叔</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>$沪深300ETF(SH510300)$ 主力资金在卖国债拉股指，所以可以发现三十年期国债下跌领先于沪深300救市。</t>
+          <t>未来已来。和过去每次科技革新一样，AⅠ时代也是在不知不觉中到来的。计算机已经主导了A股市场。涨0.3就抛，跌0.5就抄。积少成多，不知疲倦，反正是机器自动化操盘。参予其中的散户，在机器的微操中慢慢亏损。指数在摩擦中阴跌不止。研究基本面的声音，已经几乎听不到了。价值投资，你才是价值投资，你全家都是价值投资。2023年8月印花税调降，真金白银利好高频量化，然后A股月线7连跌。也许不是巧合。$沪深300(SH000300)$ $上证50(SH000016)$ $上证指数(SH000001)$</t>
         </is>
       </c>
     </row>
@@ -2039,16 +2039,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7961082554</v>
+        <v>8435309187</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>远方问道</t>
+          <t>鹏扬基金</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>神秘资金再“入场”？午后汪汪队或许借道沪深300ETF再度救市，大盘“深V”可期？下午开盘后，沪深300ETF成交量快速放大，规模较大的沪深300ETF成交额已超30亿元，超过昨天全天成交额22.2亿元$上证指数(SH000001)$ $沪深300(SH000300)$ $创业板指(SZ399006)$</t>
+          <t>一、国内经济：工业生产环比持续走强，1-2月合并看处在历史高位，有助于经济加快循环。制造业产能过剩情况小幅缓解，但供过于求的格局依然没变，短期内可能有读数回落压力。内需季节性回升，但是强度难以驱动价格环比中枢超预期上行。居民边际消费倾向修复以及商品向服务切换已经完成，根据当前劳动力市场的状况，暂未看到收入增速加快的迹象来支持消费需求持续大幅走强。不过，基于低基数和政策稳物价预期，市场在通过生猪、农产品、有色等品种交易CPI读数逐步回升的预期。上周基建、房建实物工作量季节性好转，但低于对齐春节之后的历史季节性水平，尤其是房建相关指标依然较弱。目前整体基建地产综合实物工作量绝对水平更多依靠基建以及房建竣工端在支撑，后续要看地产开工能否回升。房地产销售持续疲弱，购房者信心受到债务负担、房价低迷和保交楼进度缓慢的影响。未来房地产需求侧政策是经济增长的主要变量，关注保交楼是否有公共财政资金介入，按揭利率能否有更大力度下调。3月作为传统信贷大月，票据利率自月初就上行至高位，略高于2023年同期，6M国股行转贴票利率在1.94%，反映信贷投放节奏可能较快，重点关注3月最后一周票据利率上行幅度，以及全月大行净卖出规模是否明显超出往年同期。3月21日，央行在记者会再度强调“更加注重信贷投放节奏平稳”，预计3月信贷投放大幅偏离季节性的概率不高。 二、海外经济：美联储3月议息会议小幅上调对经济增长预期，对降息的表述相较于1月没有变化，但淡化了强劲经济数据对于通胀回到2%的阻碍。这意味着美联储未来的利率决策对于通胀的容忍度可能在提高，市场维持3次降息预期。其他央行方面，瑞士央行提前降息，英国央行释放鸽派信号。此前人民币兑美元持续在7.2以下运行，人民币兑日元和其他新兴市场货币都持续走强，因而在上周日本央行加息时人民币兑美元突破7.2，我们倾向于认为这是主动释放前期积累的贬值压力，后续外汇市场压力可控。3月25日情况来看，人民币日内升值，显示出韧性和强势特征。三、资产策略：大类资产：美国金融条件宽松，有可能会导致降息时点延后。中美利差扩大，股票估值很难扩张。股票在二季度可能会面临一定的压力，包括经济不及预期、美债利率回摆等因素，但这两个潜在风险充分定价后股票机会大于风险。债券市场短期防守，中期机会依然看好，短期回调是加仓机会，股债中长期走势年内能否逆转，主要将取决于房地产需求侧政策是否能有重大措施出台。上周五国常会提及进一步优化房地产政策，关注核心一线城市放松限购的可能和城市房地产融资协调机制接下来的落地效果。货币市场：上周DR007呈窄幅波动，全周在1.86%-1.89%区间，较7天逆回购利率高出6-10bp。1Y存单利率下行至2.25%。跨季时点临近，大行资金融出供给充裕，日均值保持在4万亿元以上，市场对资金面预期整体偏乐观，但量宽松、价格中枢难下行的状态预计仍将持续，资金分层或会季节性加剧，但应不超过往年同期。短期内不排除提高汇率对资金面的影响权重，关注人民币中间价偏离幅度是否持续。供给结构方面，关注城农商的资金供应走势，以及货基、理财等主体的融出是否继续保持稳定。利率：上周债券市场呈现多空交织的震荡态势，长端利率小幅下行，曲线走陡，中短端地方债表现好于国债、好于政金。周初市场对经济数据演绎利空出尽的交易情绪；周三市场对特别国债供给冲击担忧升温，叠加利率再次回到前低附近，国债期货低开后维持偏弱震荡；下半周，央行副行长在国新办发布会再次强调降准仍有空间，债市情绪得到提振；周五人民币汇率短线快速下跌突破7.20位置，引发市场对资金面及货币政策的担忧，债市情绪再度转弱。$鹏扬淳明债券A(F007564)$ 展望后市，特别国债重启发行将为稳增长、防风险提供长期保障资金，但供给增加以及政策利率保持不变，短期内利率下行动能不足。目前银行配置仓位不高，显示出对市场震荡偏谨慎的看法，利率单边快速下行告一段落，但也意味着难以深调。我们认为利率市场偏震荡为主，机构行为和消息面的边际扰动加剧，交易性价比减弱。债券组合维持中性久期暴露，投资者需要强化应对，关注税期及季末资金情况决定后市杠杆中枢。信用：上周全周来看，曲线在震荡中呈现了牛陡的走势。信用方面，收益率整体下行，其中AA-产业及城投债收益率下行幅度最大，在5-15bp之间。信用利差短下长上，1年期中高等级信用债利差压缩5bp左右。目前2年期信用债在调整后性价比出现小幅抬升，在近期一级市场季节性放量发行的背景下，可在一二级市场关注信用债调整后的参与机会。地产债方面，关注地产企业受到的支持情况以及稳地产政策的影响，目前时点我们对于中长期地产债券继续保持相对谨慎看法。一揽子化债方案推动下，中低等级城投债券收益率下行迅速。若城投债供给偏少的格局延续，有利于行情延续，风险点则是目前市场走得比政策落地更快，关注快速上涨后的估值风险，尤其是对于负债不稳定的组合，尽量规避资质偏弱、且业务较杂的城投主体。金融债方面，银行次级债目前利差偏低。可转债：当前转债的赔率胜率均优于年初，正股基本面低位震荡，重心需要放在资金面的博弈上，对主题板块及时止盈。正股在短期反弹的幅度较大，叠加四月份马上进入财报季，转债正股防踩雷，中期偏乐观。全年主线可能依然是TMT和高股息，等待回调布局机会。股票：股市外资净流入边际放缓，境内增量资金不明显。高股息的标杆行业煤炭逐渐从类债估值模型进入景气投资模型，关注4-5月非电耗煤需求和煤价走势能否支撑煤炭股基本面。历史经验来看，如果美联储降息，那么互联网、医疗保健、科技等行业表现较优，传统行业表现相对弱。后市看好的景气板块包括以创业板为代表的超跌大盘成长，以高端制造、新能源为代表的出口链。在基本面实质性改善或者传统稳增长手段加码发力之前，预计新质生产力、设备更新、低空经济等政策主题交易依然会受到市场关注，机会轮动出现。$鹏扬中证数字经济主题ETF发起式联接A(F015787)$ $沪深300(SH000300)$ 风险提示：本材料为客户服务材料，并非基金宣传推介材料，亦不构成任何法律文件。本材料所载观点以及陈述的信息不构成任何投资建议或承诺，不应被接收者作为对其独立判断的替代或投资决策依据。鹏扬基金管理有限公司（“鹏扬基金”）不对任何人使用本材料全部或部分内容的行为或由此而引致的任何损失承担任何责任。投资有风险，基金投资需谨慎。投资者投资鹏扬基金管理的产品时，应认真阅读读基金合同、招募说明书（更新）和基金产品资料概要（更新）等相关法律文件，在全面了解产品情况及听取销售机构适当性意见的基础上，选择适合自身风险承受能力的基金品种进行投资。</t>
         </is>
       </c>
     </row>
@@ -2057,16 +2057,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9926299616</v>
+        <v>5122903091</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>高礼成蹊</t>
+          <t>易方达指数通</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>回复@zhouzihan: 某队充值了4000多亿，一时半会跑不了。基本钱全在沪深300，上证50。//@zhouzihan:回复@高礼成蹊:就不能多充点吗</t>
+          <t>回复@马克陈: 价值投资强调寻找被低估的发展前景较好的公司，长期持有以待市场价值回归和享受公司发展带来的利润分享。尽管市场波动大，许多价值投资者仍取得良好回报，关键在于坚持原则并耐心等待~$中证A50ETF易方达(SH563080)$ $上证指数(SH000001)$ $沪深300(SH000300)$//@马克陈:回复@蓝筹69:价值投资在中国也是有效的</t>
         </is>
       </c>
     </row>

--- a/xueqiu.xlsx
+++ b/xueqiu.xlsx
@@ -455,16 +455,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6789684028</v>
+        <v>5220096993</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>快乐投资长期</t>
+          <t>A财富转债</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>沪深300点数3543.75， +0.51%。中国10年期国债收益率2.312%。黄金2181.4美元/盎司。投资知识：走到人生某个阶段往回看，才猛然发现，处处皆是选择和取舍，关键在于是否勇于承担！今日读《价值》：这是一条长期主义之路 在纷繁复杂的世界中，变化可能是唯一永恒的主题。我时常思考：究竟怎样才能在这样的世界中保持心灵的宁静？作为一名投资人，究竟怎样才能找到穿越周期和迷雾的指南针？作为一名创业者，究竟怎样才能持续不断地创造价值？ 当这些问题交织在一起时，有一个非常清晰的答案闪耀在那里，那就是“长期主义”——把时间和信念投入能够长期产生价值的事情中，尽力学习最有效率的思维方式和行为标准，遵循第一性原理，永远探求真理。</t>
+          <t>更新数据中信中证500减空272，净空3073沪深300减空417，净空24770上证50加空178，净空7631中证1000减空1514，净空17172今日累计减空2025，净空单总数52646主要玩家数据中证500减空1614，净空1817沪深300减空841，净空42849上证50加空66，净空22734中证1000减空3003，净空15837今日累计减空5392，净空单总数83237两市成交9323亿，北向净流入23.35亿，主力净流入99.95亿。</t>
         </is>
       </c>
     </row>
@@ -473,16 +473,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6573701491</v>
+        <v>2533768760</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>悟道长征路</t>
+          <t>揭幕者</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$同仁堂(SH600085)$ 今天加仓同仁堂，准备加到云南白药一样的股数。中药上市公司从2022年5月算，3年不开张，开张吃3年。收集中药上市公司股权，努力搬砖买股。我把中药比作20年以前从2002年到2021年的白酒，买入套3年，大牛市20年中间可以有无数次危机。重点等沪深300中药上市公司买入机会。</t>
+          <t>这几天基金媒体圈在讨论某顶流大佬五年业绩的事。胖纸我随手翻了下同期成立的产品，即2019年3月成立的股票型基金和偏股型基金，一共22只（A/C合并），都满五周年了。从结果看，这五年，投资真心不容易，很难的。整整五年，只有2只产品表现翻倍以上：万家社会责任定开、易方达科融。有2只接近翻倍：富国互联网科技、华安低碳生活。也有五年还亏钱的产品，但也可以理解，都是含港股的。同期，沪深300表现为 -5.94% ……怎么样的基金经理是合格称职的基金经理，很简单，就一个标准：跑赢基准。如果把沪深300作为比较基准，图1、图2中的基金经理，大部分都是合格的，赚多赚少而已。所以大家也别太苛刻，有赚就好。（前提是一笔钱一次性刚成立时投入。）</t>
         </is>
       </c>
     </row>
@@ -491,16 +491,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5181965288</v>
+        <v>3042976824</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ETFoption</t>
+          <t>微胖的老韭菜</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>一、ETF期权主要股票指数ETF及其期权波动率情况：（一）上证501.隐波变动2.隐波结构3.标的量价（二）科创501.隐波变动2.隐波结构3.标的量价（三）创业板1.隐波变动2.隐波结构3.标的量价（四）沪深3001.隐波变动2.隐波结构3.标的量价二、股指期货（一）期限结构主要股票指数期货期限结构：1.沪深3002.上证503.中证5004.中证1000（二）期权隐波主要股票指数期货期权隐波：1.沪深3002.上证503.中证1000三、经济数据四、市场情绪（一）北向资金（二）涨跌家数五、行业轮动部分自选ETF行业轮动：（一）10日排名（二）20日排名（三）60日排名（四）年初至今六、个人思考$上证50ETF(SH510050)$ ，其平值期权隐波以降为主，沽购均无近高。标的短期波动率处于统计历史极低区间，分位数为1.14%，标的继续缩量，关注放量方向。588000科创50ETF，其平值期权隐波沽升购降，沽购均略显近高。标的K线4连阴，短期偏空。$创业板ETF(SZ159915)$ ，其平值期权隐波沽略升购略降，认沽隐波走平，认购略显近高。标的强于科创，仍在升势中。$沪深300ETF(SH510300)$ ，其平值期权隐波也降为主，沽购均无近高。标的短期波动率也处于统计历史较低区间。股指期货期限结构，大票各月同涨，小票走弱且远月更弱，远月贴水再走扩。股指期货期权，平值认沽期权隐波，大票以降为主；小票近月略升，未近高。北向继续保持净流入，达47.25亿，沪流入22.52亿，深流入24.73亿。市场成交缩至9608亿，涨跌各半，个股中位数涨跌幅为下跌0.13%。固态电池预期带动锂电池走强，前期强势板块通信、人工智能等与煤炭同跌，红利比煤炭表现要好。总结，大票估值低位，平值认沽隐波还在降，看不到多少调整空间。小票连续调整4天，平值认沽隐波有一定累积升幅，短期需要警惕一下。大票短期波动率压在历史低位，关注放量方向。免责声明：该报告或该文章旨在用于作者记录学习，并非构成投资建议。投资涉及风险，且市场变化可能导致投资损失，任何投资决策均由投资者自行承担。投资是一件严肃和专业的工作，读者在投资之前应咨询专业投资顾问，以确定其个人财务情况和投资目标是否适合特定的投资产品和投资策略，所有投资由读者自行承担风险。该报告或该文章中的信息可能会随市场情况和其他因素而变化，作者保留在任何时间、任何情况下更改或更新该报告或该文章的权利，而无需事先通知。再次特别声明任何投资决策均由投资者自行承担，作者对因使用或依赖该报告或该文章中的信息而导致的任何直接或间接损失概不负责。免责声明的目的是提醒读者：尊重自己的每一分钱，从严肃认真的投资决策开始！投资有风险，任何投资决策均由投资者自行承担。</t>
+          <t>$王府井(SH600859)$ $中国中免(SH601888)$ 按业绩预告估算，预计老王今年派息0.25～0.35，从股息算跟中免相当，但中免是沪深300、上证50、A50三个指数成分股，国家队护盘被动买入的资金就有几十亿，老王这点是没法比的，中免近三个月走势比老王好很多。2%的股息不是拉升的理由，但足够支撑信仰了，重仓老王心如止水，又配了些中免的牛证，等着市内免税，另外老王去年一季度受第一轮高峰影响很大，今年大概率会发预增，4月15前见分晓。</t>
         </is>
       </c>
     </row>
@@ -509,16 +509,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1537336131</v>
+        <v>6789684028</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>企鹅猫</t>
+          <t>快乐投资长期</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>一：今日持股情况：今日实盘上涨2.48%，净值1.043，全年累计上涨4.26%，跑赢沪深300  0.98%。净值达到入手以来的新高，开始跑赢沪深300，值得高兴的一天!。二：大盘情况：两市总成交0.96万亿，较昨日缩量87.8亿，北向净流入47亿，连续两天净流入，上涨2467家，下跌2449家；三：其他情况：1、连续第3日回购10亿元！腾讯控股3月26日回购340万股，每股回购价为288.2--300.6港元，共耗资约10亿港元！2、2023年海底捞整体收入为人民币414.53亿元，同比增长33.6%。净利润为人民币44.95亿元，同比增长约174.6%。整体符合预期。作为对比，2023年全国餐饮收入52890亿元，同比上升20.4%，海底捞显著优于行业，最主要就是翻台率的显著提升。2023年海底捞餐厅整体翻台率为3.8次/天，同比增长26.7%。950家同店翻台率为3.9次/天，增长约30%。历史翻台率：2018年5次/天，2019年4.8次/天，2020年3.5次/天，2021年与2022年都徘徊在3次/天。相对于19年4.8次/天的翻台率，目前还有20%的增长空间，所以预期24年的收入增速为20%+，一是店铺的增加，二是翻台率的提升。</t>
+          <t>沪深300点数3520.96，+0.52%。中国10年期国债收益率2.247%。黄金2227美元/盎司。投资知识：上市公司还是非上市公司，无论是投资股票、房地产、债券，这些资产都是可以产生现金流的资产。今日读《价值》：在大学里开展实践调研现已成为大学生的“必修课”，但对于当时的大学生来说，围绕这样的现实课题来做一场扎实的调研，委实深受启发。商业中的洞见不仅来源于前人的总结，更有效的是一手调研，通过对原始数据的挖掘积累，发现一手的市场规律。现在看来，可能正是这次得了大奖的市场调研，才为我们此后从事价值投资依旧重视一手调研的方法论奠定了基础。</t>
         </is>
       </c>
     </row>
@@ -527,16 +527,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6543771378</v>
+        <v>5181965288</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>yyyyyymmmmmm</t>
+          <t>ETFoption</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>今天盈利六千，2024年勉强实现正收益。尾盘出掉了240000股恒生科技指数etf，原因主要是这十万块这周要提到银行卡上用，下周会转回到证券账户里。今天大盘的表现不错，或许A股的调整已经到了尾声，希望三月份的收益能跑赢沪深300。</t>
+          <t>一、ETF期权主要股票指数ETF及其期权波动率情况：（一）上证501.隐波变动2.隐波结构3.标的量价（二）科创501.隐波变动2.隐波结构3.标的量价（三）创业板1.隐波变动2.隐波结构3.标的量价（四）沪深3001.隐波变动2.隐波结构3.标的量价二、股指期货（一）期限结构主要股票指数期货期限结构：1.沪深3002.上证503.中证5004.中证1000（二）期权隐波主要股票指数期货期权隐波：1.沪深3002.上证503.中证1000三、经济数据市场即将平稳跨季，似乎还在等待关键数据。3月PMI马上就要来了。四、市场情绪（一）北向资金（二）涨跌家数五、行业轮动部分自选ETF年初至今涨跌幅排名：六、个人思考$上证50ETF(SH510050)$ 其平值期权隐波沽平购降，均无近高。标的短期波动率继续仍在低位，仍未选择方向。 $科创50ETF(SH588000)$ 其平值期权隐波均降，仍近高。标的短期波动率快速大幅下行，量价仍弱。$创业板ETF(SZ159915)$ 其平值期权隐波沽平购降；认购近月隐波降幅较大，近高已经趋平。标的升势仍维持，需要一个放量阳线离开目前危险的破位边缘。510300沪深300ETF，其平值期权隐波均降，近月相对远月降幅更大。标的波动率也是进一步下压，主打一个稳定。股指期货各板块各月同涨，小票涨幅更高。股指期货期权，各板块平值认沽期权隐波近月均降，包括中证1000，无一近高。 北向小幅净流入23.35亿，主要是沪净流入25.59亿，深净流出2.25亿。总成交9371亿，个股普涨，中位数涨跌幅为上涨1.77%。板块中，有色、资源以发展成近期趋势最好的板块，年初至今资源以涨超通信。总结：止跌肯定是好的，也可能是因为跨季，资金略显紧张未能实现反包，或者市场在等待关键经济数据指引。板块结构已经分化了，大票里边A50、深证50均强于上证50，沪深300仍有机会。大波动的小票里边，科创100、中证500比较弱，中证1000、中证2000、创业板人气很足，只是小作文的节奏已经越来越快。资金即将平稳跨季，静观3月数据。免责声明：该报告或该文章旨在用于作者记录学习，并非构成投资建议。投资涉及风险，且市场变化可能导致投资损失，任何投资决策均由投资者自行承担。投资是一件严肃和专业的工作，读者在投资之前应咨询专业投资顾问，以确定其个人财务情况和投资目标是否适合特定的投资产品和投资策略，所有投资由读者自行承担风险。该报告或该文章中的信息可能会随市场情况和其他因素而变化，作者保留在任何时间、任何情况下更改或更新该报告或该文章的权利，而无需事先通知。再次特别声明任何投资决策均由投资者自行承担，作者对因使用或依赖该报告或该文章中的信息而导致的任何直接或间接损失概不负责。免责声明的目的是提醒读者：尊重自己的每一分钱，从严肃认真的投资决策开始！投资有风险，任何投资决策均由投资者自行承担。</t>
         </is>
       </c>
     </row>
@@ -545,16 +545,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9321510628</v>
+        <v>3965370993</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>吾有三宝666</t>
+          <t>大川成长价值投资</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$沪深300(SH000300)$ 当你花自己的钱为自己时，你会智慧使用；当你花自己的钱为别人时，会尽量节省；当你花别人的钱为自己时，就会浪费；最坏的情况是，花别人的钱为别人，它永不会有效率</t>
+          <t>不得不说，雷总还是厉害，随着汽车的发布，实现了人、家、车的小米生态的闭环。怎么说呢，小米完成了乐视贾布斯当年吹过的牛逼！ $上证指数(SH000001)$ $小米集团-W(01810)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -563,16 +563,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2615826699</v>
+        <v>3965370993</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>花轮哥哥</t>
+          <t>大川成长价值投资</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>回复@请多喝热水: 指数基金不容纳亏损股，如果今年赛力斯能扭亏为盈，有可能会加入沪深300//@请多喝热水:回复@万事皆波澜:目前为止赛力斯还没加入任何一个指数基金，本身就很奇怪。1500亿市值了</t>
+          <t>小米汽车su7最终的定价21.59万-29.99万，如果没有雷总之前的铺垫，这个价格并没有什么性价比可言，这和小米手机的定位和客户群体略有不符。但是，对于价格有了一定的心理预期之后，也许感兴趣的潜在用户应该也能接受这价格。你们觉得这价格怎么样？同等价位，你们会选择su7、还是极氪007、比亚迪汉、毛豆3、毛豆y？或者燃油车？ct5？a4？三系？$小米集团-W(01810)$ $上证指数(SH000001)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -581,16 +581,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1996362963</v>
+        <v>3242955844</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>欢实的蹦蹦跶</t>
+          <t>卖了比特币炒股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Glance Today ：沪深300和上证上行+0.5%，碳中和、基建全线up，科技信息和文化娱乐全线down。Top 3 uppers：电池（3.11）、新能源车（2.53）、新能源（2.08）。川建国身背1.75亿美金罚款仍然奋斗面试中。。。吐血。。。</t>
+          <t>我22年底31买的格力拿到上周39卖了，说句客观的话，你信4季度格力90的利润吗？美的，海尔四季度利润一年中最低，为什么更依赖空调的格力反而四季度利润90直追2季度最终有290亿利润？当然我也没买美的，美的的年报太完美了，完美的我不敢买，所以我买了沪深300</t>
         </is>
       </c>
     </row>
@@ -599,16 +599,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6427684694</v>
+        <v>7961082554</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>二年线定牛熊弹转</t>
+          <t>远方问道</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">《教父  二》很难看懂，你看懂了吗？《教父》系列，绝对经典中的经典，人物冷静、镇定的风格，适合人生方方面面，事业、修行，也适合金融投资（投机）。《教父  一》情节也不简单，但因为有小说原著，去看原著，就基本都弄懂了。而《教父》续集二、三，没有小说原著，纯粹是电影编剧编出来、导演导出来的作品，是用电影这一特殊的言语来推动情节，因此很多细节容易忽略，不看四五遍以上甚至更多，甚至拿着遥控器一帧一帧地细看，才能看懂一些。现在就聊聊《教父  二》，《教父 二》与《教父 一》时代背景不太远，是七年时间，老教父已经去世，二代教父麦克已经接班，对纽约敌对家族首脑与拉斯维加斯的格林全部格杀，然后麦克家族离开纽约，移居西海岸，开始洗白家族事业。原教父手下的两大军事首领，泰西奥因叛变已被麦克除掉。克莱门扎也已去世，其在纽约的地盘交给了其手下弗兰克（潘塔吉利）。这就是《教父  二》的背景。一，《教父  二》的主线，主要就是二代教父麦克与老教父原来的生意伙伴、犹太人海曼劳斯之间的斗争。老奸巨猾的海曼劳斯经营古巴已经二十多年，身家三亿美元，但绝大多数应是固定资产，此时古巴已经闹起革命，海曼与古巴总统等上层关系密切，这老狐狸应该已经嗅到古巴的革命危机，已经将威胁到其在古巴的巨量投资，因此，海曼假惺惺地想怂恿、欺骗麦克这些美国商界巨头大佬来古巴投资，想把自己的投资股份卖给麦克等商界巨头，好在古巴革命成功之前、自己能脱身、套现出来。二代教父麦克的洗白事业还没有最后完成，在海曼劳斯的鼓动下，有点动心，起码可以先去古巴那边看看、考察下。但海曼劳斯这个老奸巨猾，也极其狠毒，他了解麦克责任很精明，可能不会轻易上当受骗，自己想急于从古巴脱身的如意算盘，不一定敲得响。因此，海曼从麦克的二哥弗雷多身上打主意。弗雷多这人较蠢，也无能，只能从事些不很重要的工作，但他又是麦克的哥哥，因此总有怨气郁闷，认为自己很不得志。海曼劳斯利用了弗雷多的弱点，哄骗误导了弗雷多，使其成为了麦克这边的内鬼。海曼的算盘是最好能除掉精明过人的麦克，这样的话，弗雷多大概率会成为克里昂家族事业的首领，最起码话语权会提升，弗雷多这种蠢蛋好骗，可以诱使其投资古巴、买下海曼想脱手的股份，即可达到脱身危机四伏的古巴的目的。因此，在麦克家族庄园举办的大派对的夜晚，海曼的人动手枪机扫射麦克的房间，但麦克命大，海曼的第一次刺杀未成。纽约的家族老人弗兰克（潘塔吉利）与麦克有些小误解、矛盾，但精明冷静的麦克，在当晚的刺杀未遂事件后，应该就已经判断出刺杀他的人应是海曼劳斯，而不是弗兰克。我为什么认为刺杀未遂后，麦克即已经认定杀手是海曼派来的，下面再细说，因为这涉及纽约的弗兰克与海曼的势力、利益冲突矛盾。但为了不惊动海曼，还要安抚、麻痹海曼劳斯，以便报复刺杀海曼，其次，麦克还要查出内鬼，因此，麦克还是带着杀手保镖去与海曼见面，并一同去古巴假意“考察”投资，并伺机暗杀海曼劳斯。在古巴，麦克目睹了革命党的英勇行为，已经切实了解、坐实海曼劳斯的所谓“投资”应是个其做的局、骗人的投资骗局。同时，愚蠢的弗雷多，在古巴酒后失言，无意间泄露出了其与海曼劳斯及其手下强尼欧拉早就认识了！麦克识破真相后，知道哥哥弗雷多欺骗了他，哥哥弗雷多就是内鬼，麦克痛苦万分。海曼也极其狠毒，第一次在庄园冲锋枪刺杀麦克失败，又组织策划了二杀：新年晚会后，汽车回酒店的路上刺杀麦克。但作为七年前、曾经在纽约主导报复行动的二代教父，麦克已经事先预判到了。二，好了，这里，再插入一下在纽约的弗兰克（潘塔吉利）与海曼劳斯及其代理人罗萨托兄弟的冲突矛盾。一代老教父的军事首领之一，克莱门扎，在其死前应答应，在其死后，将其在纽约的一部分地盘，给予罗萨托兄弟，罗萨托兄弟是海曼劳斯的人。但克莱门扎的继承人，即弗兰克，应是食言了（或是没有得到克莱门扎的生前嘱托），没有将地盘给予罗萨托兄弟，罗萨托感觉受到欺骗，因此两派结下了梁子，冲突不断。现在回答上面的问题，后来，海曼劳斯，为什么想除掉麦克及弗兰克（潘塔吉利）？我分析是这样，海曼是想，若能从古巴骗得国内的商界大佬入局古巴、自己套现脱身后，他的巨资，应要有个出路，他应该是瞄上了纽约的地盘。海曼原来在国内，是经营南部的迈阿密，后来才去的古巴，其在迈阿密还是有根据地的，但他应觉得迈阿密的市场还是太小了，容不下他可能戴回国内的巨资。美国西海岸、赌城，又被麦克控制，他暂时无法下手。因此，为了以后能进军纽约地盘，海曼要除掉弗兰克（潘塔吉利）。为了能顺利骗的麦克家族的投资，及以后瞄准西海岸的休闲事业、赌城生意，也要除掉麦克这个垫脚石。海曼的敌人的是麦克，麦克也是知道的，弗兰克曾对麦克说过：“老教父与海曼劳斯是生意伙伴，也尊敬海曼，但从未信任过海曼劳斯，这个犹太人。”因此，麦克内心对海曼是什么态度，是很清楚的，他老爸、一代教父的话，他应是充分相信的。三，弗兰克为什么后来与麦克反目、想在听证会上与政府合作、指证麦克？罗萨托兄弟想在谈判的杂货店里干掉弗兰克，这是海曼指使的，是海曼想除掉弗兰克。（就此事，麦克因此在古巴，当面责问海曼。）但事先，麦克与弗兰克交代，要麻痹海曼，要与罗萨托兄弟和解，但罗萨托兄弟由于受到海曼的指示，却突然借此机会下手，完全出乎弗兰克预料（本来弗兰克以为麦克已经安抚好并与海曼达成了意向。）弗兰克大难不死，就误以为是麦克出卖了他，因此，后来弗兰克才想反目，想报复麦克，想在听证会上指证麦克。但最后，弗兰克在听证会上见到了麦克从意大利西西里搬来的弗兰克的亲哥哥，他立即领会了意大利黑帮内部的秘密--缄默法则，知道自己什么都不该说了，因此在听证会上全部推翻了自己早先的供词，并最后，在军师汤姆的暗示下，选择了自保家族的手段---自杀。对麦克的听证会，是海曼劳斯对麦克的再次报复，是海曼指使人搞的。主要难懂的梗，大概就是这些了，其他都是小节。$上证指数(SH000001)$ $沪深300(SH000300)$ $深证成指(SZ399001)$ </t>
+          <t>央妈下场购买国债？大摩发布研报唱空：中国版QE不会发生！下午两点过后，市场快速下跌，跟昨日的走势一个套路，但是尾盘收回关键点位！今天摩根士丹利发布研报：这是通过使用中央银行票据、反向回购和贷款设施(LFS)转向，越来越多地使用政府债券交易来控制金融状况，以改善公开市场运作机制，这是全球央行之间的标准做法，并不是直接在一级市场上购买政府债券，因此不是量化宽松/公共债务货币化（MMT）的迹象。为什么他就认为咱们不会QE?只允许丑国他国降息？至少我判断大摩这次估计要“落空”了$上证指数(SH000001)$ $沪深300(SH000300)$ $创业板指(SZ399006)$</t>
         </is>
       </c>
     </row>
@@ -617,16 +617,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7760576114</v>
+        <v>4598075880</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>股息如山</t>
+          <t>叫我南南就好</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>今年我会重点看好沪深300#分红超220亿！宁德时代继续飙升# #持续飙升！宁王回来了？# @雪球创作者中心 $中国平安(SH601318)$</t>
+          <t>心若冰清，天塌不惊，大家好，我是小南，这是我定投的第18周，目前总投入金额4500元，净值4552.85元，收益率1.17%，大亏啊，同期沪深300为-1.55%，目前仓位100%本周操作：500.27的全部子弹，都买了机器人本周心得：又回到3000点一下，又是我最喜欢的加仓位，给我冲！</t>
         </is>
       </c>
     </row>
@@ -635,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2005727406</v>
+        <v>8441395291</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>有田有闲无病无灾</t>
+          <t>Hello小牛</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">接上文。如果我们每年从账户里提10%出来改善生活，会发生什么呢？纳指账户，投入660万，取出392万，实际投入268万，最终账户809万，涨幅为3倍。沪深300账户，投入660万，取出236万，实际投入424万，最终账户394万，亏损30万。总的来说，比只投入不提钱好很多。纳指账户很快就能不需要再投入，自我生长了。而沪深300账户亏损额度要少了不少。这种每年提10%的操作，更加接近现实生活。把它作为一个奶牛，每年挤10%的奶出来。在实际操作中，我们也可以在前几年账户较小的时候不提钱，等账户里的钱比较多后再开始挤奶，或者每年挤定量的奶，这些操作都能提高收益。我想要表达的观点，就是我们投资是一条很长的路，一定要兼顾好投资和生活，不能为了投资而牺牲生活，过苦行僧的生活，这不是我们要的结果，而且也不利于长期投资。而从股市里提钱，我们可能想当然的认为会损害账户的增长，但实际上却是有利于账户的增长。所以，富足的生活，和投资是相辅相成的，缺一不可。$纳指ETF(SH513100)$ $纳斯达克ETF(SH513300)$ </t>
+          <t xml:space="preserve">【市场情绪】今日 上证指数涨跌 0.59%，收于 3010.66，中位数涨幅 1.94%，4401只 个股上涨，593只 个股下跌沪深300-情绪值：61.06，可转债-情绪值：59.03，成交额：9322.3，成交额/两融余额：0.61没想到，短短一天就收复3000点，市场情绪挺高的，反弹的主要是小盘股，中证2000涨了 2.69%，沪深300  60分钟海龟走的还是挺难看的，继续期待调整【网格ETF】沪深300ETF，开盘挂在3.480，最低价3.481，可惜了，没成交之后分别在3.520、3.540卖出两笔，运气不错，又在3.520、3.500，吃回了【双低可转债】可转债结束4连跌，上涨0.69%，成交量涨了20%，但指数涨幅远远没有跟上小盘指数可转债中位数价格 111.618，中位数溢价率 45.75%，我的双低组合没有操作$沪深300ETF(SH510300)$ </t>
         </is>
       </c>
     </row>
@@ -653,16 +653,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9579540574</v>
+        <v>2180099462</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>动人的金条名师</t>
+          <t>三年一倍山东步步高</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>反正沪深300空单开了。3000点就是顶部</t>
+          <t xml:space="preserve">刚刚听媳妇说，她亲戚村一个离婚的女士，又嫁给了一个头婚的小伙伴，彩礼18.8万。坐标山东一农村。这事你怎么看？$沪深300(CSI000300)$ $沪深300(SH000300)$ $沪深300(SZ399300)$ </t>
         </is>
       </c>
     </row>
@@ -671,16 +671,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2005727406</v>
+        <v>3792976450</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>有田有闲无病无灾</t>
+          <t>Livermore__</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>假设我们从2014年每年年初拿出资金投资纳指100和沪深300，就按照040046的来计算，第一年拿出10万，第二年拿出20万，以此类推，看看到底能赚多少钱？为啥会本金越投越多，那是因为咱们老百姓都是随着年龄的增长，腰包才鼓起来的，因而投入股市的闲钱才会多起来。11年总投入660万，投纳指最终1393.83万，大概是1.1倍左右，投沪深是606.88万，亏损53万多。得到的结论是：1.不能光看数据，要根据现实情况来。我们不可能在年轻的时候就拿出巨款，然后不再投钱了，我们都是慢慢的有了钱投点有了钱投点，要考虑到实际情况来。2.虽然投纳指最终是1.1倍，远小于465%的理论数据，但是完胜投沪深300，11年下来反倒亏损。这就是现实和理论数据的差别，也是很多人都觉得股市赚不到钱的原因。不是我们没有定力，不懂夹头，而是现实本来就是和理论不一样的。$纳指ETF(SH513100)$ $纳斯达克ETF(SH513300)$ 理论是理论，现实是现实，我们要正视现实，努力寻找一条赚钱的投资之路，划重点哦，是要赚钱。</t>
+          <t>$沪深300(SH000300)$ ！</t>
         </is>
       </c>
     </row>
@@ -689,16 +689,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7680168391</v>
+        <v>9766032317</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>指慧家</t>
+          <t>吾谷良仓</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>【A股方面】A股主要指数今日窄幅震荡，截至收盘，沪指涨0.17%报3031点，深证成指涨0.28%，创业板指涨0.44%。全市涨跌个股数相当，全天成交9560亿元较昨日缩量874亿元，北上资金净买入47.25亿元。盘面上，宁德时代与特斯拉合作研发充电速度更快的电池，电池板块普涨，刀片电池、固态电池及麒麟电池等方向领涨，星云股份20cm涨停；小米汽车28日晚7点正式发布，小米汽车概念持续走高，奥联电子等多股涨停；氟化工概念股走高，联创股份等多股涨停；水产养殖、房地产服务及玻璃玻纤等板块涨幅居前。另外，AI语料、Kimi概念板块下挫，掌阅科技等多股跌超7%；多模态AI板块走弱，润建股份跌停；国资云概念走低，美利云跌逾7%；快手概念、全息技术及Web3.0等板块跌幅居前。【港股方面】港股午后持续冲高，科技股拉升助力大市上扬，三大指数盘中均涨超1.5%，恒指最终收涨0.88%，国指、恒生科技指数分别上涨1.23%及1%。盘面上，权重科技股纷纷上涨，腾讯盘中涨超4%，股价重回300港元大关，百度涨3.67%，京东、小米、快手皆有涨幅；商务部鼓励和推动汽车等消费品以旧换新，汽车股午后震荡攀升，特斯拉概念股、锂电池股齐涨，手游股普遍活跃，内房股、银行股全天表现强势，招商银行绩后涨超4%领衔。另一方面，全年派息削五成，粤海投资放量大跌超17%领衔水务股走低，金价走高谨防潜在波动风险，连续上涨的黄金股回调，苹果概念股延续跌势，舜宇光学录得4连跌行情。【博时ETF】【后市展望】东方证券分析称，从技术上看，指数从反弹过渡到横盘震荡，活跃资金从积极参与到谨慎做多甚至套现离场，预示着市场进入蓄势整固期，盘面热点分化但并不意味着行情结束；从时间轴来看，市场逐渐进入一季报业绩披露期，投资者需要密切关注相关主题和赛道业绩支撑状况。中信建投证券指出，随着市场逐步进入业绩披露窗口，资金关注焦点或重回基本面验证，市场的修复动能也有望逐步转向基本面好转带来的盈利推动，后续建议密切关注上市公司基本面的边际变化情况。配置上，一、重点关注新质生产力方向；二、顺应人工智能新兴产业趋势和国内大力发展数字经济政策方向的科技成长赛道；三、全球制造业活动修复正在启动，优先推荐铜、油、煤炭、资源运输（油运等）、铝和贵金属。风险提示：任何在本文出现的信息（包括但不限于评论、预测、图表、指标、理论、任何形式的表述等）均只作为参考，投资人须对任何自主决定的投资行为负责。另，本文中观点、分析及预测不构成对阅读者任何形式的投资建议，本公司亦不对因使用本文内容所引发的直接或间接损失负任何责任。基金投资有风险，基金的过往业绩并不代表其来表现，投资需谨慎。$上证指数(SH000001)$ $创业板指(SZ399006)$ $沪深300(SH000300)$</t>
+          <t>$沪深300(SH000300)$ 美元再次升值， 哎</t>
         </is>
       </c>
     </row>
@@ -707,16 +707,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8135155318</v>
+        <v>9561493322</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>格道</t>
+          <t>胖五资本</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>有这样一家公司：手里有一百多亿的货币资金，每年利息收入1%多一点点，但它却要去借20个亿，支付6%+利率，这样一来，20亿的贷款利率把一百多亿的利息收入吃得干干净净。有人懂的吗，解释一下，是资金被大股东挪用了还是管理层脑袋不灵光，还是其他什么原因？$沪深300(SH000300)$ $上证指数(SH000001)$ $同仁堂(SH600085)$</t>
+          <t xml:space="preserve">可转债操作，很有趣的。T+0交易，有的时候有脉冲，假如能够抓住，能吃到一口肉肉。但是，假如贪心了，比如涨了12%以上，想再格局一下，贪图一个20厘米，没卖，结果收盘的时候垮了。所以，很多可转债有着长长的上影线。比如今天。有个转债因为背后的正股涨停了，因此转债狂飙到13%以上，那会儿想格局一下，没卖没减仓，结果……收盘前正股破板了，那么转债也相应地回到了4%左右。这种感觉呢，不大好，感觉就是煮熟的鸭子飞了。背后原因就是贪，就是想着正股能够给力一点儿，来它几个一字板，那转债不是嗷嗷飞起？但是今天的情况，可能也是有大哥在操作：先把正股拉板然后博弈转债，最后破板，赚个短差。所以博弈还是难，那么可能比较好的方案是：双鸟在林不如一鸟在手～先赚钱再说，省得夜长梦多。$沪深300(SH000300)$ $工业富联(SH601138)$ $中联重科(SZ000157)$ </t>
         </is>
       </c>
     </row>
@@ -725,16 +725,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1889357178</v>
+        <v>7724988807</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>创业板ETF159908</t>
+          <t>强哥定投日记</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>盘面追踪上个交易日，A股冲高回落。在上周触压回落的背景下，昨天四大指数小幅低开，随即盘面空方力量再度转强，各指数维持艰难整理态势。午后，大盘震荡下冲，全天上证指数最低下模至3026点位置附近。四大指数中，上证50收跌0.08%，沪深300收跌0.54%，中证500收跌1.67%，中证1000收跌2.32%。昨日工程机械、贵金属等涨幅靠前，文化传媒、休闲用品等相对落后，全天个股下跌超过4500家，汇率波动叠加消息面扰动下，市场情绪快速降温。技术追踪短期大盘进入3050一线压力区域，整体指数层面波动率下降，叠加部分行业赛道拥挤度较高，期指技术面存在压力。资金流向近期A股成交金额维持在万亿级别之上，短期换手率回温对指数下方构成支撑，北向资金净流入55.71亿元，未来趋势行情的的驱动在于外资。02 宏观分析近期值得关注的几个事件：（1）国内经济数据好于预期（尤其是今年关键的出口与地产），但修复幅度不高，整体宏观面依然处于走平阶段。中观上，从目前A股公布的财报数据来看，部分板块盈利已逐渐走出底部区间，未来基本面预期易上难下；（2）美联储议息会议后，国际市场解读偏鸽，美股科技股涨势偏强，或是带动上周国内相关概念逆势活跃的一大原因；（3）大国摩擦再起，美国对华投资法案、俄罗斯恐怖袭击等对市场情绪扰动较大。综合来看，我们认为基本面尚在底部的情况下，短期政策面以及海外市场对于市场情绪的干扰较大。一方面，一季度伴随着两会召开不少政策密集出台，短期政策面再出现超预期利好的概率不大，二季度起国内的聚焦点在于经济成效的兑现成绩上面。另一方面，中美利差倒挂问题仍是关键症结，当前美联储降息争议大、美国大选年以及国际黑天鹅事件潜在，预计对于A股指数层面构成压力。03 投资建议操作建议（期货）：短期情绪面敏感度较高，指数趋势回归震荡，单边可操作性不强，参考沪深300指数3400点支撑，若逢回踩可短线介入。低波红利+TMT短期仍有配置价值，长期建议跟踪国内地产以及中美关系。操作建议（期权）：昨日股指期权IV震荡回落，上周五小幅上冲后，昨日沪深300当月平值隐含波动率回归至15%一带上方。短期，标的指数突破未果，期权波动率与方向尚未转向正相关，鉴于隐含波动率分位数较低，投资者可选择双买+认沽/认购义务仓。来源：中金股指免责声明：转载内容仅供读者参考，版权归原作者所有，内容为作者个人观点，不代表其任职机构立场及任何产品的投资策略。本文只提供参考并不构成任何投资及应用建议。如您认为本文对您的知识产权造成了侵害，请立即告知，我们将在第一时间处理。</t>
+          <t>基金网格定投第87天，操作如图，今日盈亏+2026元，整体盈亏+16328元，十年之约，日拱一卒，静待花开！#中证2000来了！微盘股基金的投资前景如何？# #沪深300# #黄金#</t>
         </is>
       </c>
     </row>
@@ -743,16 +743,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6023028966</v>
+        <v>1559347926</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>磊磊王</t>
+          <t>爱心的增长小独角兽</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>回复@上善山水: 问题是宽基红利增长率能到多少？现有沪深300股息增长率大致7%，还是远远无法望中证红利15%的后背的//@上善山水:回复@上善山水:上投摩根和工银瑞幸卷A50ETF分红，在我看来，这是跨越时代的大事，指数强大，管理卓越，即能跑赢，又能分红，全能冠军。相对的，中证红利ETF，我自始至终只强调分红不强调跑赢，为什么？国人投资者有个小毛病。熊市来了，没爆仓，没爆雷，跌再多，他能接受。指数基金，只要不太缺德，做到那爆爆的段位，还不容易，。但是，牛市不一样了，大盘涨得猛，他涨得慢，不可以的哈，非常蓝瘦。中证红利ETF的投资者若无合理定位，遇到牛市很麻烦的。若是宽基爱上了分红，这些问题，都不存在了。</t>
+          <t>$qy观潮站(ZH191696)$ 昨天中证500期权认沽体现出卖方脆弱性，科创50和沪深300很稳定，似乎期权卖方策略拥挤集中在500。不知道和量化中证500的策略有没有关系。</t>
         </is>
       </c>
     </row>
@@ -761,16 +761,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1576806270</v>
+        <v>1511982910</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>美丽的游离</t>
+          <t>海富通基金</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>老师们到处看空惨兮兮，但是指数红通通光看指数怎么有一种又完成了调整的样子？这个位置真的是不要轻易看空，多次指数都是半日左右就完成了调整，给人一种踏空资金一看到调整和下跌就疯狂涌入的错觉，给人一种下跌就会V反的错觉牛市不是不会跌，而是跌了能够快速收复（当然我没说现在就是牛市，有点像但不全像）$上证指数(SH000001)$ $创业板指(SZ399006)$ $沪深300(SH000300)$</t>
+          <t>今日28日，煤炭板块上涨0.38%，跑输沪深300和创业板指今日的涨幅。往前看，从3月8日至27日，煤炭板块指数下跌10%，同期沪深300下跌0.76%，创业板指下跌0.06%。煤炭大幅跑输同期市场，发生了什么？当前对红利的投资影响如何？煤炭板块的回调或许主要是由于煤价的下跌，和龙头上市公司业绩不达预期。据国信证券研报统计，2024年1-2月动力煤（广州港）934元/吨，同比去年下降26.8%。动力煤（秦皇岛港）917.6元/吨，同比去年下降-19.7%。某煤炭龙头A公司3月23日公告的2023年财报显示，营业收入同比2022年下降0.4%，归母净利润同比下跌14.3%，经营现金流同比下跌18.3%。某煤炭龙头B公司3月14日公告的2023年业绩快报显示，营业收入同比增加2.38%，归母净利润同比下跌33.59%。虽然当前煤价和龙头煤企ROE绝对水平尚可，但是或许之前的预期过高，加之这两年煤炭的超额收益较显著，一些成长风格的资金也进入煤炭板块。一旦发生不达预期，即使是阶段性不达预期，板块的回调幅度可能也就加大了。虽然煤炭是红利的代表，但是煤炭对红利投资的影响或许有限，对红利投资影响更大的或许是市场风格切换。以申万一级行业为例，红利通常涵盖煤炭、有色金属、石油石化、公共事业、银行，还有部分交通运输、钢铁、家用电器等。行业有一定的分散度，且当前煤炭外很多行业的基本面并无重大利空，煤炭本身的股息率也还尚可。因此因为煤炭近期回调就怀疑红利不能再投可能过于武断了。事实上，中证红利指数在3月8日至27日区间下跌2.97%，跌幅远小于煤炭同期的10%。基于红利的估值体系和核心投资者结构，若未有基本面驱动的市场风格切换，中短期红利机会或许仍大于风险，若有回调可能是分批买入时点。数据来源：Wind，海富通基金，数据截至2024/3/28注：煤炭板块指煤炭（申万一级），代码801950.SI，红利指中证红利指数，代码000922.CSI风险提示：市场有风险，投资需谨慎。我国基金运作时间较短，不能反映股市发展的所有阶段。基金的过往业绩并不预示其未来表现，基金管理人管理的其他基金的业绩并不构成基金业绩表现的保证。海富通基金郑重提醒您注意投资风险，请仔细阅读基金合同和基金招募说明书，在了解基金的具体情况及听取销售机构适当性意见的基础上，根据自身的风险承受能力、投资期限和投资目标，对基金投资作出独立决策。</t>
         </is>
       </c>
     </row>
@@ -779,16 +779,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4640076242</v>
+        <v>9903704439</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>博纶</t>
+          <t>青木长青</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>沪深300才3500不到，怎么也要到4000吧，公募肯定会想办法炒高好多赚管理费。公募私募游资，各种主力的炒作方式和获利方式不一样的</t>
+          <t>实际上QE只是时间问题，因为没有其他选择。2015年前，人民币供应主要依靠出口结汇。2015-2024，人民币供应依靠不断降准释放。如今外储稳定、准备金率已经很低，必须寻找其他方式确保人民币总量继续增长。随着经济发展合理QE本身不是问题，危险之处在于QE容易上瘾和路径依赖，然后忽视真正的问题，最终积重难返。$沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -797,16 +797,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8235769212</v>
+        <v>4881411306</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>未虑胜先虑败2024</t>
+          <t>大浪佛</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>今天收益0.11%，$古井贡B(SZ200596)$ 单骑救主，加上转债TOP2仓位凯中转债和九洲转2不算拉胯，勉强收红。跑赢可转债等权，跑输沪深300盘中补仓科蓝转债，有几只题材债看来是买高了。看来不买高是投资题材债的命门。</t>
+          <t>回复@IronSpiderman: 那上证50和沪深300里面的沉淀资金就会越来越多，量变就会引起质变//@IronSpiderman:回复@泡沫艺术家:那你还看多吗？ 毕竟国家队不会买板块稳指数。 如果券商一直砸，国家队一直买50和300，大概结果又会怎么样？</t>
         </is>
       </c>
     </row>
@@ -815,16 +815,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3965370993</v>
+        <v>5391741246</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大川成长价值投资</t>
+          <t>股市沉浮戮</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">大川对今明两年的a股和人民币汇率都是很乐观的，我看好今明两年的人民币汇率，也看好今明两年的a股行情！不知道你们怎么看？这场金融Z，老美就是想消耗完我们的外汇储备，搞垮我们人民币汇率，但是我们咬着后槽牙，全都扛过来的，7.5都没有到，更别说8字头了，一直稳定在7.2-7.3。六月老美大概率要开始降息了，前几天瑞士率先提前完成降息，欧洲主要国家一定会紧跟老美，一同降息的，大势所趋。我们人民币汇率一定会迎来一定幅度的升值。升值会影响我们出口吗？我们外贸出口这两年确实不好，对俄罗斯的出口倒是不错。但个人认为后市人民币的升值对出口影响不大，别忘了欧美都会陆续开始降息，这是有利于我们出口的，我预测后面美国也会主动找我们缓和关系的，当这次金融Z的僵持阶段，逐渐向我们倾斜的时候，老美后面注定会来找我们的，等着吧$上证指数(SH000001)$ $沪深300(SH000300)$ $中药(BK0041)$ </t>
+          <t>回复@大道同归: 唉，药明康德是15年职业炒股以来最让我失望的一只股票，我1月8、9、10日建仓，当时依据就是上证50和沪深300底部区域明显，药明康德当时5月线上穿10月线的一个回踩走势，同时看好医药行业，对药明康德管理层和基本面逻辑也非常认可。虽然通过做t和加仓但是现在成本依然有52.3，账面亏损60多万。买在上证50底部，结果反弹不仅和我无缘，持仓还亏损这么多，太郁闷了。//@大道同归:回复@股市沉浮戮:药明a最理想就是别创新低，那就是反弹浪的2浪回踩的形态，接下来就是走3浪主升了，如果创新低的话，那就跟h一样的走势了，最简单都要先构建一组底部反转k线。</t>
         </is>
       </c>
     </row>
@@ -833,16 +833,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1384220130</v>
+        <v>3158541848</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>趋势估值V止损为王</t>
+          <t>趋势交易元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>今后十年二十年一百年，我仍然只玩沪深300成份股，甚至有一天会开始，只玩红利ETF和沪深300ETF。</t>
+          <t xml:space="preserve">聊聊YH下场购债这件事。其实就一句话，可以做，但没必要。首先，法律规定YH不能在一级市场购债，但可以在二级市场购买，之前07年的时候也确实这么干过，而且现在存量好像还有1.5万亿其次，补充流动性的工具有很多，包括但不限于，降准、MLF、OMO等。之前行长还表态过，降准还有非常大的空间。最后，即便是二级市场购债，也不代表学美国QE，这跟之前的重要会议可以说是180度的大转向，没有经过高层会议就这么做基本不可能。所以，即便是购债，也是作为一种补充流动性的工具，没必要过度解读。$上证50ETF(SH510050)$ $沪深300(SH000300)$ $中证500(SH000905)$ </t>
         </is>
       </c>
     </row>
@@ -851,16 +851,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7130800476</v>
+        <v>2348619056</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>步步高陈</t>
+          <t>紫梦蝶裳</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024年，内外重压之下，变革加速，资本市场和宏观经济都加速出清。A股宽幅震荡，熊牛转折，结构性牛市，弱化指数重个股。2月5日的恐慌性低点2635不会再跌破，系统性风险也不太可能再出现，那么，每次跌到3000点附近，都是长线布局良机。$中证1000(SZ399852)$ $沪深300(SH000300)$ $上证50(SH000016)$</t>
+          <t>顺昌玖里近200亿楼盘四小时日光，刷新中国新房开盘纪录🌟共738组认筹，512套房源🌟最后大筹结束，卖出505套，剩余7套交给小筹🌟总共货值约199亿，均价17.2万，套均4000万，刷新了2021年深圳润玺180亿+的单次清盘纪录🌟市场反馈表明，上海核心资产依旧被低估而此时此刻，雪球里的大V们还在满脑子沪金美股然后唱空一线人民币核心资产$上证指数(SH000001)$ $创业板指(SZ399006)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -869,16 +869,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7244958347</v>
+        <v>7548165403</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>huadong</t>
+          <t>ETFiner</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>$沪深300(SH000300)$ 今天持仓下跌-0.13，大盘上涨+0.51，跑输大盘-0.64个点。思摩尔国际跌幅较大，其它涨跌都不大。</t>
+          <t>回复@我家布布爱蹦楼: 沪深300也不太适合普通散户，买入不操作，最后可能连债券收益都跑不过。//@我家布布爱蹦楼:回复@村树94:沪深300。红利，标普500三支ETF的组合应该能满足你部分要求。国内价值投资的无底洞，根本不适合散户。但从康波周期而言，应该是处于熊市末期也是最熬人的阶段了。</t>
         </is>
       </c>
     </row>
@@ -887,16 +887,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5124430882</v>
+        <v>7434365723</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7X24快讯</t>
+          <t>淡定的升值小同情</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>【三大赛道受关注 新能源ETF易方达（516090）等产品布局热点板块】截至今日收盘，中证新能源指数上涨2.1%，中证人工智能主题指数下跌2.4%，沪深300医药卫生指数下跌0.3%。</t>
+          <t>回复@道正为用: 我是左侧的其实，沪深300估值低了我就慢慢买，高了就慢慢卖。//@道正为用:回复@淡定的升值小同情:是的，预期趋势不是一下子走完的，左侧右侧各有所爱吧，</t>
         </is>
       </c>
     </row>
@@ -905,16 +905,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5519392453</v>
+        <v>2497555481</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>汤诗语</t>
+          <t>浦银安盛基金</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>港股那边回购力度大的公司的股价真的走稳了。恒生指数也明显强于上证指数及沪深300了。</t>
+          <t>3月21日，国新办举行近期投资、财政、金融有关数据及政策新闻发布会，公布2024年1-2月全国一般公共预算收支情况。1-2月，全国一般公共预算收入44585亿元，同比下降2.3%，扣除去年同期中小微企业缓税入库抬高基数、去年年中出台的部分减税政策翘尾减收等特殊因素影响后，可比增长2.5%左右。全国一般公共预算支出43624亿元，同比增长6.7%。分中央和地方看，中央一般公共预算本级支出4828亿元，同比增长14%；地方一般公共预算支出38796亿元，同比增长5.8%。收入端来看，2.5%的增长率从历史同期看相对偏缓，低于狭义财政预算增速3.3%。由于年初的财政收入往往是上一年年末经济的滞后反应，因此增速偏低主要体现23年四季度经济增速的小幅放缓。分收入结构来看，2023年税收收入同比下降4.0%，非税收入同比增加 8.6%。从税收种类来看，1-2月同比增速较低的税种有国内增值税（同比-5.3%，下同）、企业所得税（0%）、个人所得税（-15.9%）、印花税（-7.1%）。其它表现较好的税种主要有国内消费税（同比 14%，基数-18.4%）、车辆购置税（同比 29.8%，基数-32.8%）、 土地与地产相关税种（合并后同比 11.6%，基数-11.3%）。此外，1-2 月出口退税增速走高，录得 23.9%，反映了外贸环境的向好趋势，但出口退税对财政收入又将形成下拉力。支出方面，1-2月一般公共预算支出在2023年同期支出高基数上仍实现较大幅度的同比增长，1-2月完成预算进度的15.3%，创历史新高。在积极的财政支出影响下，2024年 1-2月制造业投资及基建投资表现亮眼，分别达到9.4%和6.3%，反映出财政政策前置发力扩 大内需并推动经济回升的政策效果。分支出类型看，基建仍然突出：1- 2 月三项代表性民生类支出拉动支出增速0.8%（12月拖累0.8%）；基建类支出合计拉动支出增速3.3%（12月拉动4.3%），主要是城乡社区、农林水两项增发国债集中支持领域支出合计拉动3.1 %，增速均创近五年同期新高；科技环保支出合计拉动支出增速0.3%（12月拉动 1.6%）。1-2月全国政府性基金收入同比增长2.6%，土地出让增速同比持平，与地产相关税共同指向土地市场热度回升；收入完成进度 10.1%，高于过去两年平均水平，主要是地方土地出让收入实现零增长，同比较23年有明显改善。全国政府性基金支出下降0.2%，完成预算进度的9.3%，进度偏慢，主要是同期专项债发行节奏偏慢，制约支出力度。总体来说，1-2月财政数据中土地出让收入略好于预期，似有筑底迹象；财政支出靠前发力特征明显；前期专项债等节奏偏慢对应后续有较大概率加快节奏。尚存问题是狭义财政的收入表现有待改善，广义财政的支出节奏偏慢。往后看，财政政策的发力点主要是产业政策与金融政策协同：年初以来伴随着地方政府化债政策的不断实施与推进，重点领域如地产“三大工程”、金融“五大文章”、设备更新改造等一系列产业金融政策陆续出台，有助于支撑投资维持增长。$浦银安盛沪深300指数增强(F519116)$ $浦银安盛沪深300指数增强C(F019210)$ $沪深300(SH000300)$ #浦银观点秀# 风险提示：基金有风险，投资需谨慎。浦银创业板ETF的风险等级为【R4-中高风险】。在代销机构申购的应以代销机构的风险评级规则为准。以上信息出现的任何观点、分析及预测不构成对阅读者任何形式的投资建议或业绩保证，本公司亦不对因使用上述内容所引发的直接或间接损失负任何责任。如需购买本基金，请您关注投资者适当性管理相关规定，提前做好风险测评，并根据您自身的风险承受能力购买与之相匹配的风险等级的基金产品。基金管理人承诺将本着诚信严谨的原则，勤勉尽责地管理基金资产，但并不保证基金一定盈利，也不保证最低收益基金的过往业绩并不预示其未来表现，基金管理人管理的其他基金的业绩并不构成本基金业绩表现的保证。我国基金运作时间较短，不能反映股市发展的所有阶段。投资者在投资本基金前，请务必认真阅读《基金合同》及《招募说明书》等法律文件。</t>
         </is>
       </c>
     </row>
@@ -923,16 +923,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1847208802</v>
+        <v>8768504444</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鹏华基金</t>
+          <t>海洋之心yao</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>#今日大盘#上证指数收盘涨0.17%，报3031.48点；沪深300涨0.51%，报3525.76点；深证成指涨0.28%，报9449.43点；创业板指涨0.44%，报1841.54点。市场全天成交额9609.3亿元，北向资金净买入47.25亿元，南向资金净买入45.27亿港元。（数据来源：Wind，截至2024.3.26）</t>
+          <t>我们在分析市场时会发现一个现象，某类团体会特别厌恶某类股票品种，这和人类性格有关系，激进的讨厌织布的个股，稳健的不喜欢概念题材，被套的不喜欢看不懂逻辑的。而市场恰恰没有喜好和情绪，所以有些难以捉摸。今天拉这些拉不上去明天就换另一个，有时不见得是一波人干的而是各种人组合成了市场。最后会有一些人才试出重围形成了领涨的状态，我们把它定义为领涨板块领涨个股。为什么领涨的股票容易生长？里面有几个因素：资金，筹码，关注度。三高三多这三高三多很明显，最得利的必然是大资金，无论什么时候入场都可以在短期内有影响力，有钱就可以吸收很多正在交易的筹码。反过来想，为什么深跌的个股长时间很难有上涨，也是这个原因，上方陆陆续续有大量抄底的资金套牢，主力资金连续几天拉升也未必能达到他们的成本线，对于深套的群体来说不到成本肯定是不给你的，这时场上能交易的活跃筹码就少，拿的少做起来就不划算。而高活跃高交易的筹码个股，第一天吃一部分第二天用来砸，看似亏本，其中获利的、做t的、短亏的都会在一定时间内卖出交易，可供吸收的就多，效率高。对于大资金来说，筹码是第一位的，拉升有资金不在于点位价格，计算好各项成本就可以了。相当于活跃个股热股的日产量高放大了上涨和下跌空间，冷门股热度小日产筹码量少缩小了上涨和下跌空间。如此一来我们就得出结论：在用技术分析的同时，要考虑到市场竞争，以此来提高分析的效率和意义。这一点无论是用在什么阶段都适用，既可以在熊市里找到集中的小圈子，又可以在牛市中防止卖飞后不敢接回。$中证A50(CSI930050)$ $上证指数(SH000001)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -941,16 +941,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>8538477915</v>
+        <v>1335328516</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>友谊路扛把子</t>
+          <t>最笨的股民</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>黑丝哥说的极是，折腾来折腾去，回头一看还跑不过沪深300 打算以后就在510300上，3000点以下只买不卖，3000以上做网格</t>
+          <t>煤炭圈子调研了一圈，动力煤800的支撑是靠谱的，今年焦煤相对压力较大，虽然山西减产，但是下游需求差，蒙煤增量，煤炭股优先选择无烟煤和动力煤。#上证指数# #沪深300# #大宗商品# $中国神华(SH601088)$ $山西焦煤(SZ000983)$ $兰花科创(SH600123)$</t>
         </is>
       </c>
     </row>
@@ -959,16 +959,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1760673340</v>
+        <v>1578828467</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HIS1963</t>
+          <t>水漫兄弟</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>今天三千保卫战有惊无险，所幸生产队再次出手。A股市场的主流还是投机，二三十年来不变，而基金连股民都不如，因为股民追涨杀跌是希望自己赚，而基金追涨杀跌也是希望自己赚。每一个轮回都是，先疯狂赌博玩出巨大泡沫，然后泡沫破裂股灾，然后各种咒骂，呼喊救命救市，救市了，从ICU刚出来，马上又去会所赌博，循环往复，年复一年。这一次有点不一样，救市大干沪深300，死里逃生的赌徒们居然在看笑话，我感觉最后成为笑话的一定是赌徒，而且下一次赌徒不行了，不再会有救市，因为赌徒都在会所赌博，自生自灭，A股的主战场已经在沪深300了，要救也是救沪深300，时代不同了。今年盈利25%左右时，想全仓换沪深300ETF，因为觉得还能继续跑赢沪深300，也因为不太喜欢沪深300那前几大权重权，下不了决心，否则现在的今年盈利应该是35%左右，自负的后果就是这一段，满仓中国神华和中远海控，踏空一轮小牛市，妥妥的跑输15个点，现在今年盈利只剩20%左右。后悔也晚了，炒股K线往左看，自己的操作全是错的。昨天今天高抛低吸加横切，只能说是手气好，折腾比不折腾多赚了2个点，这种内卷之机会，可遇不可求，而且经常做反做错，给做对的当美食，相当于肉手量化高频交易，镰刀互砍，谁赢谁输，全凭运气和手气。不想折腾了，静心等待中远海控后天晚上的年报，希望有惊喜，立足于没惊喜，但愿没有惊吓没有雷，今后十年二十年一百年，我仍然只玩沪深300成份股，甚至有一天会开始，只玩红利ETF和沪深300ETF。</t>
+          <t>今天的反弹属于超跌反弹，在$科创50ETF(SH588000)$ 一口气跌了9个点后，今天30分钟和60分钟终于有了有效反弹，突破了分钟级别10周期线的压制。但是这是一个弱反弹。理由如下。1.之前我说过一个反弹强弱指标，以$沪深300ETF(SH510300)$ 为例，就是30分钟级别RSI6是否上75，今天反弹最高只到66，然后下午就再次向下。这就是弱反弹的标志。2.$上证指数(SH000001)$ 和沪深300都没能收复30日均线，连续两日失守。3.留给多头反抗的时间还有一天，明天沪深300不上10日均线的话，沪深300的20日均线就会拐头向下。4.科创50连昨天的最高点都没能拿下就回落，反弹力度不够，依旧没收复10周线。手上有货的，建议做好保护措施，逢高开出对应期权备兑，锁定收益。因为科创50和沪深300的周线超买指标仍未修复。继续等待下一个更好的建仓机会。今天趁着反弹，昨天到期的588000用于备兑仓位，在800价位252一张开出备兑，两个月累计480一张锁定收益，非常满意。底仓配合期权备兑，就跟穿了防弹衣一样。有很多人不理解为什么不清仓，开备兑也要承受现货下跌的风险。其实这个概率有关，当你的交易跟概率完美契合时，那你的交易策略就完美了，才能在风险和收益之间找到平衡点。今天收市情绪1710，较昨天有所恢复，主要是低空经济板块贡献。</t>
         </is>
       </c>
     </row>
@@ -977,16 +977,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4519706668</v>
+        <v>6058377857</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>花谱</t>
+          <t>盐官先生</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>不看不知道，一看你买了这么多股票，不如以后搞个60指数吧，买沪深300不如买沪深60</t>
+          <t>今天听了一下发布会，主要两个关键点，负债端在降成本，资产端加大投资的分散性，投资方向包括:低估高息，能源，黄金，新质生产力等等。风格不太明确，这么分散，最终投资收益也就平凡，估计跟沪深300也就差不多</t>
         </is>
       </c>
     </row>
@@ -995,16 +995,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1724858115</v>
+        <v>8650261992</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>91卡子哥</t>
+          <t>进雪球做方丈</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>今日回血1090元，2024年亏损3225清仓了温氏，加仓养殖ETF昨天跌的今天回来三分之一，感觉短期调整要结束了，满仓干它。#新能源# #沪深300# #养殖#</t>
+          <t>回复@进雪球做方丈: $沪深300(SH000300)$ $上证50(SH000016)$ $创业板指(SZ399006)$ 超跌反弹一年还是反弹几年，本质还是信心问题，我们既然来股市了，说明还是有希望的，在反弹底部怕这怕那干脆销户好了。就算最差最差，反弹一年，高价值高成长，高现金流高股息，也会有一定表现的，优秀个股就是香饽饽，更何况外面水还这么大呢！至于战争影响不是主要的//@进雪球做方丈:回复@进雪球做方丈:$沪深300(SH000300)$ $上证50(SH000016)$ $创业板指(SZ399006)$ 今年是超跌反弹的第一年，超跌反弹的持续性可长可短，不是一定就会出现19-21年那种两三年级别的大反弹，不论市场咋样，高价值高成长，高现金流高股息都是价值投资的基石</t>
         </is>
       </c>
     </row>
@@ -1013,16 +1013,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5122903091</v>
+        <v>7961082554</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>易方达指数通</t>
+          <t>远方问道</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>虽然自开年以后，A股指数快速来到3000点以上，但A股总体仍具有显著的估值优势，且近段时间关于资本市场改革的措施不断出台，推动了市场情绪的回升，加上外资流入A股的资金量明显增加，A股核心资产有望受益~$中证A50ETF易方达(SH563080)$ $上证指数(SH000001)$ $沪深300(SH000300)$</t>
+          <t>基金考试违规！中基协抛出处罚：成绩取消，禁考三年！基金从业人员考试违纪    近日中国证券投资基金业协会发布关于基金从业人员资格考试违纪人员处理的公告，对2024年12月基金从业人员资格考试违纪人员做出处理。2024年全国基金业两次统考时间第一次统考： 5月12日第二次统考： 11月9日$上证指数(SH000001)$ $沪深300(SH000300)$ $创业板指(SZ399006)$</t>
         </is>
       </c>
     </row>
@@ -1031,16 +1031,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6032024743</v>
+        <v>1837888097</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>奇异佬鱼干儿</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>回复@专业情绪化分析: 精彩的回答！2023年曾被大家认为是养猪“最难一年”，大家觉得，2024年的生猪行业能否实现峰回路转呢？$畜牧养殖ETF(SH516670)$ $牧原股份(SZ002714)$ $沪深300(SH000300)$ 我刚分给这个回答 ￥2.88 悬赏奖金，也推荐给你。//@专业情绪化分析:回复@畜牧养殖ETF:@畜牧养殖ETF 根据你所描述的情况,股价、期货和现货猪价三者同步走强,显示出以下几个信号:猪肉供需关系趋紧 猪价持续反弹,说明市场对未来猪肉供给趋紧的预期在升温。供需关系的变化,将继续推动猪价和相关上游养殖企业的股价和衍生品价格同步上行。市场人气持续升温 在猪价、期货先行情况下,猪肉股及相关ETF也持续走强,反映了市场人气的持续升温,更多资金开始关注并布局这一投资热点。周期拐点可能临近 猪肉作为大宗商品,供给和需求遵循较为明确的周期性规律。上述现象的显现,有可能意味着这一轮猪周期的底部阶段即将结束,新一轮周期拐点临近。预期修复和估值修复 猪价和猪肉期货持续上涨,意味着相关企业的业绩预期和估值在不断修复。短期来看,这将为猪肉股提供较好的市场表现动力。综合以上信号,我判断当前可能正处于猪周期的底部阶段。未来如果供需关系进一步收紧,猪价继续上行,那么就将逐步转向新一轮猪周期的上行周期,行业景气度持续回升。不过,这种判断仍需结合后续猪价、生猪存栏数据以及供需形势进一步验证。毕竟猪周期波动规律大致明确,但具体拐点的把握仍需要谨慎。如果这轮上涨过于短暂,那么也不排除之后还需经历一段时间的低位震荡整理的可能。投资者在参与相关个股和ETF投资时,要审慎把握时机,密切关注后续数据变化,合理控制仓位和风险。在趋势确认前,不做过于乐观的判断很关键</t>
+          <t xml:space="preserve">去年摸鱼写了一篇关于股息分红文字，今天用表格大改画了一下图，结合去年网页链接 这篇可以更清晰的了解一下分红、持仓时间计算规则以及红利计税的问题。(本篇还是摸鱼时所写所画难免有瑕疵，如有大佬发现问题，也请直接指正。感谢~）$招商银行(SH600036)$ $长江电力(SH600900)$ $沪深300(SH000300)$ </t>
         </is>
       </c>
     </row>
@@ -1049,16 +1049,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1017586359</v>
+        <v>5530901060</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>好股零成本长期持有</t>
+          <t>这点钱算什么</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>【2024.3.26】今日各指数弱势震荡，尾盘发力收红！沪深300 收3543点，上证指数收3031点！今日仅1只股票成本下降。</t>
+          <t>市场已经证明mm   t  能起飞行情，再说债务刚性，泡沫发展解决问题已经被被人证明过了，为何上面把索性就这么干了哈？扭扭捏捏$上证指数(SH000001)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -1067,16 +1067,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7114490722</v>
+        <v>7273510240</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>徜徉在大A</t>
+          <t>投得时</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>虽然今天盈利，但依然输给了沪深300，果然一顿操作猛如虎，收盘一看还不如不动今天换仓短线，卖了$神州泰岳(SZ300002)$ ,亏损7%，实在是看不到它能上涨，趋势不好，板块近期较冷直到快收盘，还在犹豫要不要换个新板块试试，找了半天，今天大热的小米概念以及固态电池概念，都太高，下不去手，找了一只今日回调，趋势还在的，光刻机板块的，明天看看会不会上涨，要是上涨了，再发不来，哈哈，最近没有信心了</t>
+          <t>2023年7月24日，中央提出“活跃资本市场，提振投资者信心”。此时点位3150点和3800点（沪深300）至2024年2月5日，沪指最低2635点，300最低3100点，较政策底下跌约17%。时间间隔为6个月左右。看，多对称。</t>
         </is>
       </c>
     </row>
@@ -1085,16 +1085,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9933887151</v>
+        <v>3161268859</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>我韭菜割我</t>
+          <t>战胜市场-汤</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">个股的调整难以捉摸，但是不要指望指数下去多少，有的是方法拉住沪深300。至于中证1000那边是机构对冲重灾区，你们猜猜为什么机构不去大力空沪深300和上证50。接下来如果中小盘继续调整，保险金融地产会托住大盘。中小盘一旦企稳，这些板块会带领指数直接突破。保险板块调整的非常充分了，保险和地产又是一体的行业。潘先生昨晚谈到地产出现了一些积极信号，我又观察到三十年期国债正在被大量做空。保险和地产行业的启动，就是临门一脚的事。唱多地产目前看是一件吃力不讨好的事，会引来一边倒的批评和嘲讽。不要把对房价的仇恨带到对房地产行业的理解，罔顾一些真实发生的变化。我不知道希望我们的地产业崩盘的人到底是图什么，屁股坐在哪边。$上证50ETF(SH510050)$ $沪深300ETF(SH510300)$ $房地产ETF(SH512200)$ </t>
+          <t>$三一重工(SH600031)$ $沪深300(SH000300)$ 接下来，我们来测试下地狱模式下的A股波动以及收益情况吧。(一) 沪深300全收益指数的相关统计值我们把这次的分析时间窗口选择在2015年12月31日到2023年12月29日，共8年。平均值为：3.5%标准差为：22.5%年复合收益率为：1.13%这8年，波动性还是极大，上上下下，来来回回的，又回到了起点。年复合收益率只有1.13%。(二) 沪深300全收益指数原始收益情况以及“幸存者组合”收益情况。所以，如果选择了调整后的幸存者组合，即使在地狱模式下也能获得接近5%的收益率。</t>
         </is>
       </c>
     </row>
@@ -1103,16 +1103,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1996362963</v>
+        <v>7244958347</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>欢实的蹦蹦跶</t>
+          <t>huadong</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>补周一的summary：沪深300和上证继续下行-0.5%，各行业普落。资源和基建有些许涨幅，TOP3分别是基建（0.82）、房地产（0.58）和有色金属（0.77）。跌幅最猛的是文化娱乐，包揽了downer前三影视、动漫和传媒。显然文化娱乐结束了之前的涨势，迎来了调整curve。</t>
+          <t>$沪深300(SH000300)$ 今天持仓上涨+0.63，大盘上涨+0.52，超过大盘+0.11个点。联邦制药跌幅较大，锦欣生殖涨幅较好。</t>
         </is>
       </c>
     </row>
@@ -1121,16 +1121,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9386155961</v>
+        <v>1542561424</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>以梦为马的老韭菜</t>
+          <t>拼命三郎的投资进阶</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>净值-1.63% 对比沪深300 跑输2.16%仓位 151%上周二开始回撤 累积8.8% 同期hs300今日反弹账户净值还在回落 风格完全不符合市场半导体板块总仓位第一 逆势是真的难要回头思考一下原则了</t>
+          <t>某5年8倍股经历过两段&amp;#34; 两年多不涨 &amp;#34;。但是，少数三段上涨，均采用&amp;#34;暴涨&amp;#34;形势。这个这类型股票固定的属性，天天分析，没有用的。成长股，价值股，周期股，ST股，各不同。$沪深300(SH000300)$$上证指数(SH000001)$</t>
         </is>
       </c>
     </row>
@@ -1139,16 +1139,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9713736719</v>
+        <v>1847208802</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>岩王帝君</t>
+          <t>鹏华基金</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>$上证指数(SH000001)$ 今天收评：中证500，中证1000，中证2000全体收跌，上证50沪深300小幅上涨，北向大力护盘有攻当奖，权重拉抬领涨三市，今天最低点抄底小仓位，小有赢利，明天一开盘就卖，锁定利润$创业板指(SZ399006)$</t>
+          <t>#今日大盘#上证指数收盘涨0.59%，报3010.66点；沪深300涨0.52%，报3520.96点；深证成指涨1.31%，报9342.92点；创业板指涨0.95%，报1806.90点。市场全天成交额9372.9亿元，北向资金净买入23.35亿元，南向资金净买入38.02亿港元。（数据来源：Wind，截至2024.3.28）</t>
         </is>
       </c>
     </row>
@@ -1157,16 +1157,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>8867390119</v>
+        <v>2590827906</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>上善山水</t>
+          <t>丹霞山客</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>回复@布鲁费思: 沪深300基本上是流通市值最大的300只，标普500不是，尽管传说它是。这有一个很小的差异，看指数规则，都有专家会员会，问题在于，两个委员会发挥的作用不一样，咱这个形同虚设，他们那个是有用的。//@布鲁费思:回复@上善山水:中证A50比沪深300指数好吗？以我的理解，美国的标普500指数也是500只股票的集合，纳指100也是100只的集合，中证A50才50只，是否少了一点。当然美股这十几年的卓越表现主要仰仗七姐妹的艳丽。宽基要宽是常理。到底A50和沪深300谁更优秀，还值得研究。</t>
+          <t>尽管今天涨了2.2万，昨天全年还是亏损的。目前全年赚了1.9w，全年跑输沪深300，1.24%点，可悲。几天就把6万折腾没了。太玛德狠了。</t>
         </is>
       </c>
     </row>
@@ -1175,16 +1175,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1390370241</v>
+        <v>1017586359</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>五月看海</t>
+          <t>好股零成本长期持有</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>50万实盘开始时间：2023年12月25初始资金：50万收益2023年 1.3%2024年 5%今天-500多元，累计6.7%。同期沪深300 5%，创业板 3%。</t>
+          <t>【2024.3.28】今日各指数弱势震荡，下午市场冲高后回落，收红！沪深300 收3520点，上证指数收3010点！今日仅3只股票成本下降。</t>
         </is>
       </c>
     </row>
@@ -1193,16 +1193,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>8023026311</v>
+        <v>1542561424</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>布鲁费思</t>
+          <t>拼命三郎的投资进阶</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>中证A50比沪深300指数好吗？以我的理解，美国的标普500指数也是500只股票的集合，纳指100也是100只的集合，中证A50才50只，是否少了一点。当然美股这十几年的卓越表现主要仰仗七姐妹的艳丽。宽基要宽是常理。到底A50和沪深300谁更优秀，还值得研究。</t>
+          <t>$标普500指数(.INX)$ 股票平均持有期从8年下降至仅5个月！如何击败市场，思路很清晰了。$沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -1211,16 +1211,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2912888404</v>
+        <v>9209974501</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>期货鱼大爷</t>
+          <t>奥利弗史塔克</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">今日收盘前10分钟操作：3522买入3手IF2406，止损放近3天最低3494-1个ATR=3456。行情依然在震荡，此时空仓或重仓都难受，所以我买回3手、保持约57%的风险度。理论上最多亏5.9万、能承受。接下来几天密切观察是否能突破20日均线——目前虽然墨迹，但上涨趋势没走坏。#股指期货# #沪深300# #中证500# </t>
+          <t>写了一篇长帖子，结果发不出来。主要就是解释下，央行在公开市场操作里面买卖国债，和大家认为M.M.T.根本不是一回事儿。这里最简短地说一下吧。第一，央行的公开市场操作本就包括现券交易，这是本来就有的职能，不是新的政策。官网上可以看到公开市场业务的包含范围。第二，公开市场操作一般以OMO或者MLF这样的质押回购操作为主。一方面，回购操作可以满足公开市场操作所需要的几千亿或者上万亿这种大的规模的流动性投放，另一方面，回购的定价可以体现政策利率的变化，向市场释放明确的价格信号。第三，央行一般不使用现券交易这个工具，主要是为了避免对债券市场造成价格的异常波动，否则动辄几千亿规模的二级买卖操作，显然会对债券市场形成意外的冲击。用这样的办法维护银行间流动性，成本太高了。第四，人民银行法有明确规定，央行不能自一级市场直接申购财政部发行的国债，不允许进行财政赤字的货币化。——总而言之，我们央行的传统惯例是维持稳健的货币政策方向，几乎不可能进行大规模刺激的M.M.T。——今天，更加专业的债券市场对这类essay的反应是非常平淡的，因为做FICC的机构们心里门儿清。M.M.T？别逗了$沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -1229,16 +1229,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>8013994156</v>
+        <v>1542561424</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>foldermax</t>
+          <t>拼命三郎的投资进阶</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>$沪深300(SH000300)$ 日线圆弧形态已经完成顶部结构了。月线季线都是空头排列。</t>
+          <t>#中央汇金买入ETF被证实##a股#全市场最大偏离度板块，全市场被彻底遗忘的行业。如果两年3-5倍，那也是别人应得的。$上证指数(SH000001)$$沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -1247,16 +1247,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1734585936</v>
+        <v>7357408423</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>谭校长专注投资理财</t>
+          <t>国信证券东东</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>北向持续坚定流入，不管它什么性质、是不是“郭嘉怼”马甲，都是大资金、聪明资金或带任务的资金，是把看空的散户筹码接走的资金。当持续到一定程度，量变发生质变，市场最后会恍然大悟过来的，然后……$上证指数(SH000001)$ $沪深300(SH000300)$ $创业板指(SZ399006)$</t>
+          <t>上周五市场回调，主要原因恐怕是人民币汇率在盘中急跌。去年人民币汇率对股指波动的解释能力还是比较强的，股市作为人民币资产的一种，难免受影响。恐怕是因为瑞士央行率先降息，市场发现其他国家央行有可能会先于美国降息，这样有些投资者可能会选择拥抱美元，所以不止人民币，亚洲多种货币也下跌。#全球资产配置# $上证指数(SH000001)$ $沪深300(SH000300)$ $深证成指(SZ399001)$ #人民币汇率# 东东觉得，有一个投资上需要考虑的点的确需要重视了——只配置单一品类的资产，其波动性太大，投资体验不佳。这两年出现过的单边走势，我们有必要思考全球多资产配置相关知识学习的必要性！东东把它称为一次“技能提升之旅”，这可不是一次普通的旅行，而是关乎你的金融知识如何带你在全球市场中智慧地“旅行”，实现投资能力提升的大戏码。想象一下，你手握一只魔法钱包，里面装满了各种各样的“种子”——股票、债券、黄金、原油、Reits、外汇等等。这就是我们所说的“资产”，而全球多资产配置，就是将这些“种子”巧妙地撒向世界各地，让它们在不同的土壤（市场）里生根发芽，在适当的条件下可能开花结果。正如加里·布林森（1995年被《财富》杂志赋予“全球资产配置之父”的殊荣）所言“做投资决策，最重要的是要着眼于市场，确定好投资类别。从长远看，大约90%的投资收益是来源于成功的资产配置”“如果从投资的总体情况来看，你就会发现，一种分散化的投资组合、巧妙地将各类资产混合，才是成功的必要因素。”来自美国91只大型养老基金1974-1983年的实证研究数据说明：《投资组合选择：投资的有效多元化》。笔者注：不同的研究结论会有所差异，但资产配置的重要性是共识。为什么要进行全球多资产配置呢？这就像是“不把鸡蛋放在同一个篮子里”。因为每个国家和地区的经济周期、政策环境都有所差异，某一类资产在一个地方可能表现平平，但在另一个地方可能就如日中天。通过全球布局，我们可以利用不同市场的涨跌互补性，降低单一市场波动带来的风险，实现收益与风险之间的平衡。数据说明：Wind，截至2024年1月。低相关性是多样化资产配置的基础。在过去10年中（2014-2023年），美股指数与A股指数长期相关性较低；而黄金、债券资产与股票资产的长期相关性也较低。多样化资产配置有助于降低组合波动，也存在提高组合收益的可能，但过往业绩并不代表未来收益，数据仅供参考，每位投资者都要独立作出投资决策。例如，在2018至2022年，中美股票市场普遍下跌时，黄金和债券资产却有不错的表现，如果同时配置的话，就能一定程度上对冲股票仓位的损失。数据说明：Wind，指数均为人民币计价。1.沪深300指数 2.创业板指数3.标普500指数 4.纳斯达克100指数5.AU9999指数 6.中债新综合财富（总值）指数就像品尝世界各地的美食一样，全球多资产配置也能让投资者感受到多元化的投资“美食组合”。无论是美国科技股的创新活力、新兴市场股市的成长潜力，亦或是债券资产相对稳定的回报，都有可能根据投资者本身的“口味”和“接受度”成为投资者配置组合中的美味佳肴。简单以中美权益资产混搭为例：在过去10年中（2014-2023年），沪深300指数和标普500指数等权配置组合的年化收益超过同期沪深300指数年化收益率。对于国内投资者而言，学习全球资产配置知识，可能有助于降低风险和优化投资结构。数据来源：Wind，截至2023年12月。指数均以人民币计价。过往业绩不代表未来收益，请投资者独立作出判断。投资有风险，入市需谨慎。但是，有必要提醒一下：全球多资产配置并非简单的“买全球，卖全球”，它更需要策略和智慧。有时候，即使我们进行了全球多资产配置，在某种极端情况下或是特定时间内，仍然有可能发生不尽如人意的情况。我们需要根据自身的风险承受能力、投资目标以及对全球经济形势的理解，灵活调整各类资产的比例，从而在全球市场中找到适合自己的投资节奏。全球多资产配置就像是在世界经济的大棋盘上布下一局精妙的棋局，既要有远见卓识的全局观，也要有细腻入微的战术执行。只有你掌握好这个“游戏规则”，才能让你的投资能力在全球舞台上翩翩起舞，享受这场充满挑战与机遇的精彩冒险！当然，有时候，即使我们进行了全球多资产配置，在某种极端情况下或是特定时间内，仍然有可能发生不尽如人意的情况，但东东认为配置品种过于单一带来的风险可能比这个更大。东东所在的投顾团队过去一段时间以来反复研究、回测，将更深入地与大家探讨全球多资产配置的课题，敬请期待。特别提示：本文仅为学习交流使用，文中的信息均来源于公开资料，我公司对这些信息的准确性和完整性不作任何保证。本文中所描述内容仅供参考，不构成任何投资建议，不构成对投资者进行或不进行某项行为的推荐意见。过往业绩不代表未来收益，投资者应独立作出投资决策，国信证券不对投资者的投资收益或者损失作出任何保证或承诺。我公司及其雇员对使用本报告及其内容所引发的任何直接或间接损失概不负责。本文版权归国信证券股份有限公司所有。未经我公司书面许可，任何机构和个人均不得以任何形式翻版、复制、引用或转载。风险提示：投资有风险，入市需谨慎。-投资者教育-以上资料由国信证券广州分公司编辑，转载请注明出处。林雄建投资顾问（证券投资顾问登记编号：S0980610120209）朱智勇投资顾问（证券投资顾问登记编号：S0980610120135）袁宇轩投资顾问（证券投资顾问登记编号：S0980612080011）林奕涛投资顾问（证券投资顾问登记编号：S0980611110026）刘竟辉投资顾问（证券投资顾问登记编号：S0980620090016）风险提示：以上内容仅供参考，不能作为投资决策的唯一依据。股市有风险，投资需谨慎！免责声明：文章中所述的内容和意见仅供参考，列示上市公司仅陈述其与该事件相关，不构成投资建议，投资者应独立作出投资决策。我公司对这些信息的准确性和完整性不作任何保证。我公司及其雇员对使用本报告及其内容所引发的任何直接或间接损失概不负责。部分资讯信息、数据资料来源于第三方，平台无法核实信息的真实性、准确性、完整性及原创性等。本文内容仅代表该作者观点，不代表国信证券任何观点或立场。</t>
         </is>
       </c>
     </row>
@@ -1265,16 +1265,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9045420040</v>
+        <v>1724858115</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>富由心生S财随心转</t>
+          <t>91卡子哥</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">昨晚招商银行发布了2023年报，不仅业绩非常稳健，还提高了分红水平，今早股价也反映出市场对招行的偏爱，盘中一度上涨3.5%，带动整个银行板块逆大盘上涨。随后，上证指数也从盘中最低3008点左右逐渐转涨。时至今日，我觉得走势方向也越来越明朗，并不需要悲观，原因我昨天已讨论过，感兴趣的朋友可以去看。另外，我多次提到，大金融银行板块已逐渐变为整个市场的压舱石，银行板块企稳上涨、大盘也会企稳上涨，至于具体行业和股票是会有先后 ，但那些没有基本面支撑的小弱差微盘股不建议碰，别当韭菜。当然，银行板块的上涨也不是一蹴而就，此前就经历了长达一个月的持续调整，未来还会反复，毕竟要改变市场对银行板块长达6-7年的偏见还是需要一些时间的。但近期来看，随着不少银行宣布加大分红，我个人认为银行板块调整基本到位，要开启新一轮的价值回归式上涨，同时稳定市场大盘。补充一点，虽然这两天市场下跌势能不小，上证指数不断向3000点下探，且技术上看，各个宽基都在画圆弧，但我发现主力维护市场的难度在变小，各个宽基的ETF成交量并没有出现明显的类似过年前后那种放量且在这个位置能稳住，这说明市场已有相当一部分资金正在与主力形成合力，这是好现象，说明主力不再是单打独斗，获得了部分市场资金的认可，主线也逐渐清晰，只有获得市场资金的认可才能成为真正的主线。所以，我认为大金融银行板块总体势头还是好的，这个有大小逻辑做支撑。大逻辑简单讲就是“金融强国”战略和《金融供给侧改革已在路上》所讨论内容，小逻辑就是主力在落实过程中的操作思路和方向，比如之前文章《中特估上涨没结束》、《中央汇金入场的根本目的--增加信心、提供主线》以及我对日常主力的一些操作动向、监管机构的政策文件解读。另外，我还专门通过《走出熊市的逻辑》分析为什么银行板块要率先企稳。今天银行板块再次逆势上涨，我猜测银行股阶段性调整已经结束，即将带领大盘突破。当然，猜走势和猜时点总是难的，总容易犯错，况且过程中还会有反复，但我相信大方向不会变。拭目以待。$上证指数(SH000001)$ $上证50(SH000016)$ $沪深300(SH000300)$ </t>
+          <t>今日回血1924，回来昨天三分之一不到，2024年还亏损7556。全天没有进行任何操作，持股待涨，加油！#新能源# #沪深300# #养殖#</t>
         </is>
       </c>
     </row>
@@ -1283,16 +1283,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5719411375</v>
+        <v>1925135419</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>电池ETF_561910</t>
+          <t>半导体设备ETF</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>回复@2024牛先生: 确实，像智己L6一次充电续航里程可超过1000公里，轻松实现从北京直抵大连，而且是准900V超快充，这意味着未来电动汽车的续航焦虑问题将得到彻底解决~$电池ETF(SH561910)$ $沪深300(SH000300)$ 我刚分给这个回答 ￥2.88 悬赏奖金，也推荐给你。//@2024牛先生:回复@电池ETF_561910:$电池ETF(SH561910)$我认为固态电池就是电动汽车的终极杀器。超常续航与快充，会极大的加速电车的普及。作为东北人，如果实际续航超过600公里，充电时间在半个小时左右，那么即使我家没有充电设备，我也会考虑换电车。@电池ETF_561910 查看图片</t>
+          <t>回复@星雪: 存储复苏及高性能计算强劲需求，大家觉得，中国大陆有望引领晶圆厂设备支出吗~~$半导体设备ETF(SH561980)$ $沪深300(SH000300)$ 我刚分给这个回答 ￥2.88 悬赏奖金，也推荐给你。//@星雪:回复@半导体设备ETF:看好半导体产能扩充，去库存进行的不错，存储行业减产之后业绩回升，消费电子预期回暖，AI持续推动，下游需求提升倒推产业链向上一路提升，今年半导体设备厂商的表现更加值得期待。查看图片</t>
         </is>
       </c>
     </row>
@@ -1301,16 +1301,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2979429675</v>
+        <v>1390370241</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>阿土大叔</t>
+          <t>五月看海</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>就奇了怪了。为什么有那么多人觉得自己能把某队套上。为什么有那么多人偏和某队对着干。领导夹菜你转桌，领导敬酒你不喝，领导唱K你切歌，领导喝水你刹车。某队买上证50沪深300，我偏买中证2000微盘股。凭直觉，没好果子吃。$上证50(SH000016)$ $沪深300(SH000300)$ $上证指数(SH000001)$</t>
+          <t>50万实盘开始时间：2023年12月25初始资金：50万收益2023年 1.3%2024年 5.9%今天4000多元，累计7.6%。同期沪深300 5%，创业板 3%。</t>
         </is>
       </c>
     </row>
@@ -1319,16 +1319,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3965370993</v>
+        <v>1957011017</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>大川成长价值投资</t>
+          <t>均衡策略-滚雪球</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>目前a股跌破发行价的股票有1089只，我建议退市制度里，参考“连续20个交易日收盘价低于1元将被强制退市”这一具体的退市量化标准，再制定一条长期跌破发行价将强制退市的条例，这个长期具体的时间可以再论证。 $上证指数(SH000001)$ $沪深300(SH000300)$ $中药(BK0041)$</t>
+          <t>$沪深300(SH000300)$市场全天冲高回落，三大指数均小幅上涨。盘面上，低空经济板块持续爆发近40股涨停或涨超10%。低空经济大涨也带动了AI概念股展开反弹，算力方向领涨，浪潮信息涨停。下跌方面，银行股陷入调整，光大银行跌超5%。总体上个股涨多跌少，全市场超4500只个股上涨。沪深两市今日成交额9322亿，较上个交易日缩量238亿。沪深 300指数目前已经处于短线非进攻状态，维持窄幅震荡整理，但下行空间有限，一直建议短线敏感度强的可以适当控制操作频率，中长线稳健投资者保持定力，继续耐心等待市场完成震荡整固发起第二轮行情，只要做好优质资产配置，剩下的交给市场和时间就可以了！</t>
         </is>
       </c>
     </row>
@@ -1337,16 +1337,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4342024769</v>
+        <v>9386155961</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>陌上花开456</t>
+          <t>以梦为马的老韭菜</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>$宁德时代(SZ300750)$ 地球的宁德，A50能托起来吗，沪深300切的，专门买了会分红的A50$中证A50ETF指数基金(SH560350)$ 希望这些龙头多分红</t>
+          <t>净值+1.98% 跑赢沪深300 1.46% 仓位 156%仓位似乎没变 但今天还是积极挪动了一下继续砍标的 集中一些到固定的板块盘中富贵了一把 盘中最高回来昨天一半的亏损 警告自己对于回血要有个合理预期 尤其是储存昨天切换导致今天反弹力度下降了有的时候越动越错学问太深了 慢慢学吧 最起码是不太会单边下跌了但是交易计划节奏混乱+情绪崩坏还是很容易什么趋势都亏钱依然是做的很差 慢慢学</t>
         </is>
       </c>
     </row>
@@ -1355,16 +1355,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>8509077221</v>
+        <v>8427914778</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中秋月餅</t>
+          <t>混合基金玩家</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>$上证指数(SH000001)$ 不要天天骂指数假，如果知道自己几斤几两，跑不赢指数就买沪深300</t>
+          <t>在投资领域，连续五年跑赢沪深300、维持93%的三年盈利概率，能否直接触动您的投资神经？该基金的信息引发了大众的兴趣与讨论，毫无疑问，这是一只优质的基金，充分展示出了农银汇理基金管理有限公司的实力。农银行业轮动混合A这只基金持有满3年的盈利概率高达93%，近五年每年均赢过沪深300，连续四个季度表现优秀，毫无疑问得到了投资者们的青睐。核心力量来源于经验丰富的管理者邢军亮，任职以来表现尽显真功夫。虽然今年以来跌幅为-5.96%，但其在这个大环境下合理控制风险，凸显了管理团队的实力。这一切不难解释为什么它会被晨星评为五星基金。我们来详细了解一下这只基金。该基金由农银汇理基金管理有限公司管理，基金规模达4.52亿，至今已成立11年137天，一直是混合型-偏股基金，属于中风险级别。投资多元化，偏重于电子行业。主要投资的公司中，中际旭创、立讯精密、泸州老窖、昆仑万维、天岳先进、三花智控等公司占比较高。对农银行业轮动混合A的解读，必须提及其资产配置。该基金优化资产配置，股票比例高达84.29%，有力支撑盈利表现；现金占比15.58%，方便应对市场脉动；其他资产比例仅1.6%。这种稳健的策略充分显示了基金经理的卓越眼光和精准判断。再看它的盈利信息，年化收益率高达16.37%，累计收益达到了惊人的557.21%。其持续稳健的盈利能力主要源于其优秀的管理团队和明确的投资策略。总结来说，农银行业轮动混合A是一只有深度、有策略、有眼光的基金。其混合配置战略、优秀的管理团队、丰厚的盈利潜力都值得投资者关注。最后，每一位投资者都需要根据自身的风险承受能力和投资目标来进行投资决策。这只五星级的金牛基金农银行业轮动混合A，就像是整个宇宙中的一颗靓丽星辰，会在您的投资路上照亮您前行的方向。</t>
         </is>
       </c>
     </row>
@@ -1373,16 +1373,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9181830424</v>
+        <v>1896585883</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>白白胖胖天天向上</t>
+          <t>曲水SOHO</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>$巨化股份(SH600160)$ 中证500市值第一了，坐等调入沪深300</t>
+          <t>等你不吼吼了，我来陪你，但我T的出，你还是没法卖。你小看828。去年5月初见顶的现在有回踩创阶段新高的，有完成早于春节前大盘见底触底的。哪个不比券商舒服？券商每次点火熄火的高度都决定了下波大盘折腾的力度。问题是谁在决定券商的高度？是韭菜们吗？关键几年前券指还能算沪指PLUS，敏感度高于沪指，现在和沪指都差不多了，也就比沪深300敏感些，你怎么操作？不操作，天天看盘不是折磨自己吗？</t>
         </is>
       </c>
     </row>
@@ -1391,16 +1391,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1652329269</v>
+        <v>8204361729</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>谦卑低调</t>
+          <t>younxia</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>今天私募与公募汇合了，实际上还有外资。回归低位低估值权重，核心资产，中国当下最优质的企业行业。此举让公募私募回归正轨，也就是选股尽量在权重，在沪深300里选，大家都公平对待。一方面低位低估值风险低，另一方面也让大盘能够稳定运行，而不是天天抱团炒作估值上天的概念股微小盘。$沪深300ETF(SZ159919)$ $宁德时代(SZ300750)$  $亿纬锂能(SZ300014)$ 赛力斯，上证指数，创业板指，深证成指</t>
+          <t>$入小流不随大流(ZH1060141)$ @younxia  指数完全被上证50，沪深300绑架了，今天小盘股很优秀，但权重不干了，下午13：06～14：36，权重差点把涨幅1.35%的上证指数干绿了，真是夸张！    机构们都在提前卖出权重，准备好了基民们准备的赎回之资，可怜之人必有可嫌之处，加油！！！干死机构！</t>
         </is>
       </c>
     </row>
@@ -1409,16 +1409,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6110878566</v>
+        <v>8427914778</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>hengshu</t>
+          <t>混合基金玩家</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>回复@胡锡泥: 很遗憾我刚对比了一下，船舶和上证50，重工和沪深300，走势都没有明显相关性，可能个人技术水平有限吧。//@胡锡泥:回复@hengshu:你可以对比一下，三者的板块联动几乎可以忽略不计，造船板块里的船舶重工是典型大盘股走势，防务动力跟中盘股，海兰信亚光天海防务之类的完全跟小微盘，整个板块一盘散沙，总共不超过10个标的，却无法呈现新能源，芯片那种整个板块齐涨齐跌的情况，这不是板块行情的演绎，纯随各自的成分随波逐流。</t>
+          <t>随着近期A股不断修复，投资市场风云变幻，每一个明智的投资者都在寻找合适的投资机会。今天重点解读一只能源基建领域的优质基金——景顺长城能源基建，透视其风险与机遇，揭其胜率与赢概率，此基金连续几年优秀表现斩获了晨星五星基金的荣誉，让我们进一步来看看。揭秘首先从盈利概率上看，这只基金的盈利概率极高，如果你持有满3年，盈利概率甚至高达90%，对于长期投资的投资者来说，是个非常不错的选择。再来看看基金本身，景顺长城能源基建，年化收益高达+13.03%，今年以来收益率已经达到了+8.47%，累计收益更是高达331.59%。这只基金是由景顺长城基金管理有限公司于2009年10月20日成立，目前基金规模为42.60亿，基金码为260112。基金的负责人是经验丰富的基金经理鲍无可，他任职以来的回报高达365.2804%，并且已经在该职位工作了9年278天。这只基金的投资策略明晰，资产配置为股票占78.05%、现金占10.84%和其他占11.7%，对行业的精准把握使得重仓股票如紫金矿业、华能水电、川投能源等在其操盘下都展现出良好的增长趋势。在行业分布上，他们专注于有色金属、公用事业、煤炭和钢铁等具有成长性的行业。景顺长城能源基建显示出强大的竞争力，连续5个月跑赢沪深300，连续6个季度跑赢沪深300，连续3年跑赢沪深300。这无疑证明了其对市场的把控力和投资实力。综上所述，景顺长城能源基建是一只集稳健、高收益、低风险于一体的优质基金。它以鲜明的投资策略和优秀的表现，展现出了让人信服的投资能力。对于寻求长期稳定收入和风险可控的投资者来说，这无疑是一个值得考虑的选择。</t>
         </is>
       </c>
     </row>
@@ -1427,16 +1427,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9752028711</v>
+        <v>6396424032</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>六乘风</t>
+          <t>下课老师不让走</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">价值回归，成长为王，将成为2024年乃至今后很长一段时间的主旋律。$沪深300(SH000300)$ </t>
+          <t>$沪深300(SH000300)$ 做多的势力还是略输做空的，下午这波下跌除了有一些获利了结的，大部分都是做空来砸的</t>
         </is>
       </c>
     </row>
@@ -1445,16 +1445,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1547389697</v>
+        <v>9045420040</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>胡锡泥</t>
+          <t>富由心生S财随心转</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>造船行情还没有开始演绎，船舶重工防务纯粹跟各自的权重指数，船舶跟上证50，重工跟沪深300，防务跟中证500，三者之间目前联动很弱。</t>
+          <t>回顾前段时间的剧情，跟现在没啥两样。是不是真以为银行下跌，大盘和其他票就能快乐的持续涨？另外，也别拿“四大行分红没涨，股价就要跌”这样的逻辑说事，去年底和过年前市场可没这样的期待，那时候没见银行少涨，甚至还是领涨。我还是那个逻辑，大金融银行板块止跌上涨，市场才能企稳上涨。“银行跌市场涨”是三年前的逻辑，“市场跌银行跌”是两年前的逻辑，现在早就今非昔比了，证据就是从去年底到现在的整体走势。$上证指数(SH000001)$ $上证50(SH000016)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -1463,16 +1463,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9394798834</v>
+        <v>5122903091</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>懵懵懂懂小基民</t>
+          <t>易方达指数通</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>以前说到核心资产，必然想到沪深300和上证50。但它们金融板块占比相对较大，导致行业不够分散。但中证A50指数不一样，这个指数它是在细分行业中选择出了每个行业中的龙头股，也就是汇聚了各行业老大的指数。$中证A50ETF易方达(SH563080)$ $贵州茅台(SH600519)$ $中国平安(SH601318)$</t>
+          <t>数据显示，截至2023年底，中证A50指数平均股息率为2.7%，2022财年平均股利支付率为42.4%，均显著高于市场整体水平。此外，超七成样本公司连续10年分红，体现出较高的分红可持续性~$中证A50ETF易方达(SH563080)$ $上证指数(SH000001)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -1481,16 +1481,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6396424032</v>
+        <v>4836148088</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>下课老师不让走</t>
+          <t>来自天边的一朵花</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>$沪深300(SH000300)$ GJD现阶段的目标就是一边治理市场环境，一边吸筹，一边维稳。</t>
+          <t>$上证指数(SH000001)$ETF期权行权交收，看涨期权卖方迅速砸盘，沪深300连续大跌？有一部分影响，大部分基金机构其实都有相应的对冲工具，现在现货股票上涨，期权买方平仓加购期权卖方属于正常行为，但是一来一去，对行情影响将会是巨大的，如果所有基金都在FOF增仓指数类ETF，那么对于权重来说，突然引发一场年初小盘股雪球大跌的行情也不是不可能。</t>
         </is>
       </c>
     </row>
@@ -1499,16 +1499,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1465420860</v>
+        <v>5719411375</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>王增森</t>
+          <t>电池ETF_561910</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>$沪深300(SH000300)$ 时线前顶底支撑，盘整，双底。看看能不能冲到60小时线附近。曾经的支撑位，现在是反弹阻力位了。现在这种走势，看着半小时线操作，才可能是安全的。</t>
+          <t xml:space="preserve">今晚小米汽车首款车型“Xiaomi SU7”将于19:00举行发布会。花旗银行此前预计其售价在20万至30万元人民币之间，预计2024年至2026年，小米SU7的电动车出货量将分别达到5.87万辆、12.55万辆和19.47万辆。雷军曾暗示SU7的价格“会有点贵”，但具体定价尚未公布。市场猜测小米可能采用两种策略：一是起售价低于20万元，二是起售价在22万元至23万元之间。第一种策略可能有助于小米在竞争激烈的中型纯电轿车市场中获得性价比优势；第二种策略则可能基于小米的流量和生态智能优势，以及有限的产能，吸引消费者购买。大家觉得小米的首款车型“Xiaomi SU7”会定价多少呢~~数据来源：和讯网，2024.3.28$小米集团-W(01810)$ $电池ETF(SH561910)$ $沪深300(SH000300)$ </t>
         </is>
       </c>
     </row>
@@ -1517,16 +1517,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5122903091</v>
+        <v>3767710260</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>易方达指数通</t>
+          <t>伍三霸的投资日记</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>中证A50龙头属性突出，指数兼具大市值属性与行业表征性，选取了50只各行业市值最大的证券，样本整体基本面表现较为优秀，多数成份股具高分红特征，与中长期资金投资风格更为契合~$中证A50ETF易方达(SH563080)$ $上证指数(SH000001)$ $沪深300(SH000300)$</t>
+          <t>记住资金只有从涨势里才能出来$上证指数(SH000001)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -1535,16 +1535,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3965370993</v>
+        <v>5919676938</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>大川成长价值投资</t>
+          <t>熙凤吖</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">天道：即为自然规律，也就是易经里的道法自然。包括当年明月也提及过，他原本也不信天道，后来他发现这个世界是存在规律的。太阳东升西落，月亮阴晴圆缺这就是自然规律。一年有四季，春天播种，秋天丰收，这就是自然规律。违背了自然规律，那就必然会有灾祸。冬雷震震夏雨雪。。。乃敢与君绝。人道：即为人性规律，也就是人性，包括七情六欲、贪嗔痴念都是人性的一部分。还有王阳明的心学也是。我们得学会控制自己的欲望，克服人性的前提下，抓住他人的人性规律，那么我们就离成功近了一大步。比如说炒股，巴菲特说的别人恐惧我贪婪，就是一种抓住众人人性规律的自我逆人性投资的行为。因为往往在跌到极致的时候，人性都是会恐慌的，涨到极致的时候，人性都是会疯狂、得意忘形的。真正取得成功的人都是善于利用规律去顺势而为做成一些事情的，包括当年的淘宝、QQ、支付宝、微信、抖音、拼多多、美团等等，不难发现，以上的成功都是遵循人性规律的。包括农民伯伯成功的种出粮食也是遵循自然规律的，春耕播种，你如果秋耕播种，估计得饿死。天道和人道或者说是天道和人性的结合就是天人合一。$上证指数(SH000001)$ $沪深300(SH000300)$ $中药(BK0041)$ </t>
+          <t>$永赢低碳环保智选混合发起C(F016387)$ 低空经济暴涨7%！这么炸裂还有多大空间？今天大盘指数重回3000点，低空经济7%领涨市场！那后续这个方向还有机会？消息上，有关部门表示，在2030年，要将通用航空装备全面融入生产生活各领域。受此消息推动，低空经济方向大幅拉升。此外，今年两会中低空经济被多次提及，同时，低空经济被我国定义为新质产业的代表。这表明了该方向是符合当前和未来的政策导向。有数据显示：在2030年我国低空经济有望达2万亿。综上，低空经济这个态势，可能只是起步。现在很多人都在找低空经济的产品，我发现一只永赢低碳环保C016387 ，我看到基金经理说已经关注低空经济了，应该是调仓了。而且这两天的走势看，目前应该是唯一纯粹关注低空经济的基金。今天板块涨了7%，这只应该比板块涨更多，说不准今天会打榜。我已经加入自选了，择机上车。$上证指数(SH000001)$ $沪深300(SH000300)$ #低空经济# #低空经济继续活跃，再掀涨停潮#</t>
         </is>
       </c>
     </row>
@@ -1553,16 +1553,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5551861679</v>
+        <v>9222280625</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>云霄之外无泡影</t>
+          <t>泡沫艺术家</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>磨磨叽叽，我走了$京投发展(SH600683)$ #沪深300# #指数基金#</t>
+          <t>回复@南宫小晨: 跟去年不太一样，现在上证50与沪深300有GJD守着，而小微盘股量化玩的比去年都嗨，猜猜后面会发生啥事？所以千万别碰微盘股与2000，等量变折腾成质变，后面很有可能来个年初2.0版本。//@南宫小晨:回复@泡沫艺术家:行情很不对劲，仍然在反复玩去年一样的套路…</t>
         </is>
       </c>
     </row>
@@ -1571,16 +1571,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5293575692</v>
+        <v>2249215046</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>科创100ETF</t>
+          <t>补天计划ing</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>整体在海外宏观流动性和制度流动性的释放下，外资持股占比较高、注重ESG指数编制理念的中证A50指数有望迎来资金加持，中期指数弹性可期，A50ETF基金（159592）值得重点关注$A50ETF基金(SZ159592)$ $上证指数(SH000001)$ $沪深300(SH000300)$</t>
+          <t>小盘股难堪大任？？昨天割肉，今天又追高的，头都被打爆了吧全市场唯一增量就是gjd，只有沪深300、上证50、中证50可以搞？？$上证指数(SH000001)$</t>
         </is>
       </c>
     </row>
@@ -1589,16 +1589,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1652329269</v>
+        <v>4235823013</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>谦卑低调</t>
+          <t>指数先锋</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>意识快动作快的公募私募，已经开始抢占沪深300里的低位低估优质板块和个股，尤其是盘子适中的企业，弹性大也容易取得超额收益，同时大盘也能稳步上涨。同时也意味着在出清一些高估值高位，获利盘巨大的个股，尤其是微盘股。$沪深300ETF(SZ159919)$ $宁德时代(SZ300750)$ $亿纬锂能(SZ300014)$ 赛力斯，上证指数，创业板指，深证成指</t>
+          <t>随着A股市场不断修复，投资者的关注焦点越来越集中在有一定盈利前景和市场胜率的投资标的。在众多可能的投资选择中，有一支基金独树一帜，稳健而又高效，就是金牌基金——天弘中证红利低波动100C。首先，关于盈利信息，它今年以来的收益达到2.21%。累计收益率高达49.09%，年化收益则为9.98%。而且，它不仅连续5个月跑赢了大盘沪深300，连续6个季度也跑赢了沪深300，且连续3年跑赢沪深300，给投资者带来了稳定且可观的回报。持有满3年的盈利概率达到100%，更展现了它的高盈利可能性。而这支颇具魅力的基金就是天弘中证红利低波动100C，代码008115。它由天弘基金管理有限公司管理，成立于2019年12月10日，共成立了4年110天。现在的基金规模为16.43亿。该基金的风险级别在中等水平，最大回撤为14.08%，是一款股票型-标准指数的基金。同时，该基金是一款四星级的基金，说明其过去的表现也非常优秀。基金经理刘笑明是这源动力的核心，他任职期间带领基金获得了31.4495%的回报，已经有2年284天的任职经验。这个基金资产配置上，主要以股票为主，约占90.69%，现金占5.03%，其他资产占5.61%。此外该基金的重仓股票包括雅戈尔、双汇发展、大秦铁路等十只优质股票，其中雅戈尔的权益占比最高，为2.63%。从行业分布来看，钢铁、煤炭、纺织服饰和食品饮料都在其投资考虑之列。因此，从历史表现、盈利情况、资产配置等各项数据我们可以看出，天弘中证红利低波动100C这支基金在市场中具有非常好的竞争优势和投资价值。其稳定性和高盈利概率将对投资者的投资组合起到很好的保值增值效果。天弘中证红利低波动100C具有很高的安全性和成长性，是适合中长期持有的基金。对于注重稳健投资成长，追求可观切稳定回报的投资者来说，它将是一个理想的投资选择。</t>
         </is>
       </c>
     </row>
@@ -1607,16 +1607,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1419079863</v>
+        <v>7680168391</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中证1000指数ETF</t>
+          <t>指慧家</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>对比一下现在市场上“50指数”的编制方案可以发现，相较于MSCI中国A50、上证50、深证50，中证A50将ESG评价体系作为首要选样标准，首先剔除了ESG评分在C及以下的公司标的，确保入选证券的ESG得分不低，有助于降低样本发生重大负面风险事件概率，顺应碳中和进程和社会责任担当趋势，排除公司治理有问题的企业，保障了指数质量。$中证A50ETF易方达(SH563080)$ $上证指数(SH000001)$ $沪深300(SH000300)$</t>
+          <t>【今年债券市场怎么看呢？】小慧家$N国债30ETF(SH511130)$ 的基金经理觉得，“今年债券牛市依然值得持续期待”。一是考虑到年内海外货币政策大概率会转向进入降息通道，海外扰动对国内货币政策的制约有望逐步得到解除，同时针对当前国内经济仍在慢修复通道中、实际利率偏高制约内需改善、银行净息差压力偏大等多方面因素和背景来看，央行年内进一步下调短端政策利率的必要性仍然存在，如果短端利率得到进一步下行，也将打开长端和超长端利率的下行空间。二是考虑到“资产荒”格局的延续，“10Y国债利率也大概率会在短端利率下行后，跟随走低。”$上证指数(SH000001)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -1625,16 +1625,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3965370993</v>
+        <v>5542625036</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>大川成长价值投资</t>
+          <t>就这吧</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">虽然一直满仓没动，但是有闲钱都是会存起来等待加仓的，从不考虑减仓或做t。由于持仓配比的问题，某股票远未买够，今明两年可能会多次加仓，不急。对于想加仓的标的，我是真心开心看到它股价下调的。我不排斥走势可以更傲人更磨人一点。因为对于好的公司，大多数人观点会趋于同质化，那么情绪和心态的差异化，将是人与人之间最大的区别。$上证指数(SH000001)$ $沪深300(SH000300)$ $中药(BK0041)$ </t>
+          <t>跌得受不了割了，然后猛涨，涨的眼红追进去就站岗，循环往复，定点打击，现在这个市场咋就这么变态了，就得活生生的玩死存量资金呗今天小股来了3小时的普反，中证500和沪深300碰到5日线直接拉稀。。明儿不会又反过来吧，这猫一天狗一天的，谁受得了</t>
         </is>
       </c>
     </row>
@@ -1643,16 +1643,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4121192598</v>
+        <v>1542561424</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>好咖啡的味道</t>
+          <t>拼命三郎的投资进阶</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>一旦发现好机会、标普500点策略是合理价位即可建仓用90%时间持股等待沪深300的策略是、用90%的时间持币等待一个极端变态的低价、然后all in 他虽然都在等待、策略完全不同差别在于～不同的市场生态环境米国是分红+成长的市场A股是投机博弈的市场</t>
+          <t>关于老二一直表现很弱，持仓唯一浮亏的:①该板块过去两年某铁杆账号，天天发帖，在12月停更。②该板块某V本周提问未来发帖方向，继续专注该板块是没流量。③最新财报，国外龙头亏损，国内龙头也亏损。逆向投资谈何容易，反人性的，也要承受持续浮亏的情况。$上证指数(SH000001)$$沪深300(SH000300)$$恒生指数(HKHSI)$</t>
         </is>
       </c>
     </row>
@@ -1661,16 +1661,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6032024743</v>
+        <v>1321174334</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>畜牧养殖ETF</t>
+          <t>养鸡吃炸鸡玩烧鸡</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>回复@不负遇见_: 方正证券：整个养殖股投资从之前的养猪产能去化逻辑，移到猪价上涨右侧逻辑~~$畜牧养殖ETF(SH516670)$ $沪深300(SH000300)$  我刚分给这个回答 ￥1.88 悬赏奖金，也推荐给你。//@不负遇见_:回复@畜牧养殖ETF:养猪企业的股价虽然已经反弹了一波，但还是在低位等待调整下来。个人认为可以积极介入，是一个好的右侧买入点。 查看图片</t>
+          <t>21年2月是沪深300 恒生科技等指数牛市最高点，140很正常 属于泡沫牛价格</t>
         </is>
       </c>
     </row>
@@ -1679,16 +1679,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7820504248</v>
+        <v>6820205050</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>缠学汇</t>
+          <t>小白兔读报</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>【总市值】跟踪分析 2024.03.26$沪深300(SH000300)$ $中证500(SZ399905)$ 技术：1、如图，今天早盘形成一个1分钟3卖后，目前正在延伸第2个1分钟中枢。2、从整体上看，目前基本要走日线向下笔延伸，从时间上算，还有几个交易日。3、现短线的任务是观察第2个中枢的位置，关键位置在7662点，站稳再算。策略：退潮期，留子弹，等下一波吧。</t>
+          <t>$上证50(SH000016)$  $沪深300(SH000300)$ 下午，外资净买入，大盘股的跌速  远大于 小盘股。散户力挺，但国内大资金，砸盘，某些人很怂蛋！</t>
         </is>
       </c>
     </row>
@@ -1697,16 +1697,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5293575692</v>
+        <v>8704550738</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>科创100ETF</t>
+          <t>战忽局老张</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>感谢关注！也欢迎大家多多关注银华家的$A50ETF基金(SZ159592)$ ～ 中证A50选取50只各行业市值最大的证券作为指数样本，“指挥棒”效用凸显$上证指数(SH000001)$ $沪深300(SH000300)$</t>
+          <t>短期获利自己了解走了 从低点上来 29%了 对于一些大资金来说 可能不会赚那么多 但是他们体量大 几个亿想走 就得找个有承接的时候 现在沪深300可以接住但是是被动的接 他们就撤了，我猜的</t>
         </is>
       </c>
     </row>
@@ -1715,16 +1715,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1265824060</v>
+        <v>4318166962</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>五星差评</t>
+          <t>悄悄滴662</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>生物医药回本行动，第二步启动，将之前逢高卖出的部分，开始买回来。本次买入金额为持仓金额的3倍。（之前本来就是组合中的小仓位，卖掉大部分之后，只剩很少份额）。浮亏比例直接降为10%以下（可见医药有多惨，抄底也能浮亏30%）。预留一次买入金额。如果再下跌超过5%（今日收盘价为基准），再买入这部分。希望最多买入2次之后，能够迅速回本，然后拜拜。当然，如果行情好，那就继续持有。咱的投资目标，总不能总是回本吧。先挽救生物医药的原因：仅适用于我当前的持仓，仅传递一种方法，请勿照搬。1、涨得最少，跌的最深，持仓成本烫平价值最大；2、医药利空最多最久，总感觉有其他因素存在；3、整个市场应该说开始走向正常，所以打算慢慢加仓了，其他两个持仓感觉还没到位。对了，再强调一下，我的策略是追求胜率，不求绝对的抄底和逃顶，属于长期持有+波段操作策略，炒股型投资者可能是看不上我这套路的$生物医药ETF(SZ159859)$ $沪深300(SH000300)$ #2024投资炼金季# #妖股艾艾精工开盘跌停#</t>
+          <t>$沪深300(SH000300)$ 大家可以关注一下$畜牧养殖ETF(SH516670)$ ，在拐点临近时潜力大，暴发力强，是配置猪周期的最好选择。</t>
         </is>
       </c>
     </row>
@@ -1733,16 +1733,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7152429226</v>
+        <v>1462516889</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>cocofox</t>
+          <t>大道无型我无情</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>$沪深300(SH000300)$ 不出意外，GJD下午会来撑撑场子。</t>
+          <t>#上证指数# #沪深300# $沪深300(SH000300)$ 很多人说今天是GJD进场，其实并不是。对比1月中旬和2月初沪深300ETF的成交量，就知道今天的拉升跟GJD没关系。今天拉升的是中证2000和1000，一般什么资金喜欢玩这些呢？量化，游资，北向，这些都是超短线，昨天卖也是他们，今天拉也是他们。昨天的暴跌和今天的拉升他们赚钱了，明天或者后续大概率要跑的。去年可以通过转融通T+0当天高开低走收割，今年只不过换成T+1晚点收割罢了。我是做中长线大周期的，所以就今天的情况来说，我依旧不看好。除非回调到2944，或者形成有效突破，再说了。</t>
         </is>
       </c>
     </row>
@@ -1751,16 +1751,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6234325608</v>
+        <v>5293575692</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>广州楚桩黄小炼</t>
+          <t>科创100ETF</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>$房地产(CSI931775)$ 打个赌，今年的房地产指数能跑赢沪深300</t>
+          <t>中证A50指数填补了全市场“超大盘”风格宽基的空白、中长期有望夺回A股核心资产的定价权、还推动了我国特色指数体系的“国际化”进程，有望成为A股指数“新旗舰”$A50ETF基金(SZ159592)$ $上证指数(SH000001)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -1769,16 +1769,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1394327357</v>
+        <v>2746100331</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>英哪俾斯</t>
+          <t>loveme6782</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">如果依靠拍马屁就能够实现事业的飞黄腾达，那谁还愿意埋头苦干呢？如果依靠走捷径就可以成功，那谁还愿意长期脚踏实地工作呢？如果说谎话得到的是奖赏，那谁还愿意说实话呢？如果油腻滑头是忠厚，那谁还敢老实巴交呢？但现实并非完全如此，我们相信，埋头苦干、长期脚踏实地、说实话、做老实人依然是最正的人生理念，拍马屁走捷径说谎话油腻滑头并不容易，是高难度的技术活，也不是你想干就能干得了的，没有一定的天分都不行，你以为呢？对于像我们这样的普通人来说，采取更稳健的投资策略，如长期投资和价值投资是正道，其它再高级的什么策略我们不会，是自身能力不够导致的不会，不完全是因为不想做。投资是长期持有投资品，并通过资本增值、分红等方式获得回报的策略。投资者通常会选择具有潜力的资产，如股票、债券或房地产，并持有较长时间，以期望获得长期稳定的回报。尽管投资风险较低，但回报潜力也较为稳定。结论：1）我们多少是可以知道股票好坏的，连房子这么大的投资品的好坏都知道按地段、按开发商、按物业管理、按租售比来衡量，股票并不比选房子难，我们是会的。2）像房子我们买到手都知道长期持有才能赚钱，股票也是一样的，把买股票简化成买房子，这是我们的优势所在。$沪深300(SH000300)$ $上证指数(SH000001)$ $深证成指(SZ399001)$ @今日话题 @玩转雪球 </t>
+          <t>还是更看好龙头的确定性机会，切了沪深300来A50了$中证A50ETF指数基金(SH560350)$查看图片</t>
         </is>
       </c>
     </row>
@@ -1787,16 +1787,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1139434297</v>
+        <v>7184246736</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>小赢算赢</t>
+          <t>龟龟夹头</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>$恒生科技指数(HKHSTECH)$ 前面经过20%涨幅后，最近阴跌，感觉资金一时不知道该怎么办了。老美要降息，又一会半会找不到充足的理由；国内感觉要复苏，也找不到充足的证据；大模型很热，又有些不太相信商业化。就这么纠结着复苏概念、煤炭有色石油轮着涨一天，又跌一天，涨的没跌的多，就这么纠结着…$恒生指数(HKHSI)$ $沪深300(SH000300)$</t>
+          <t xml:space="preserve">老美在AI上面押注to c端应用；国内在AI上面押注to b端应用都是提升生产效率，但从可行性来看可能to b端比较容易落地$海康威视(SZ002415)$ $沪深300(SH000300)$ #算力工程再度大涨，浪潮信息封板涨停# </t>
         </is>
       </c>
     </row>
@@ -1805,16 +1805,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2344071735</v>
+        <v>4450276134</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>耐心等待21中药</t>
+          <t>精良的翻倍小白云</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>不是沪深300更好均衡吗？</t>
+          <t>回复@清朗的回报小策划师: 国家队在买$沪深300(SH000300)$ ，不知道我的$A50ETF(SZ159601)$ 能不能喝一点汤？//@清朗的回报小策划师:回复@菜头日记:我看$A50ETF(SZ159601)$ 这几天表现很强势，是不是会有行情</t>
         </is>
       </c>
     </row>
@@ -1823,16 +1823,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>8159875117</v>
+        <v>8435309187</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>叽叽喳喳又呱呱</t>
+          <t>鹏扬基金</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>$沪深300(SH000300)$ 你们还没加自选的在观望啥哦，这周期说转就转，随时准备好$畜牧养殖ETF(SH516670)$</t>
+          <t xml:space="preserve">在连续几天的震荡调整之后，今天A股开启反击，高开高走直接站上3000点，北向资金也过来帮忙，截至午盘收盘，北向资金净流入超30亿。（数据来源：Wind）那在3000点这个对A股意义极大的点位上，我们是否应该看好今年A股的表现？我认为，我们还是可以对今年上半年的权益资产抱有希望。主要原因有三点：第一是内部因素看市场情绪和经济数据。首先，市场风险偏好正在提升，北向资金大幅流入，融资余额占比较低，市场依然较为理性。其次，国内经济有望逐步复苏。今年经济目标不低，上市公司盈利增长有所保障，财政加码发力托底经济，经济数据指标如PMI生产经营活动预期正在好转，多重政策刺激下，经济复苏方向较为确定。第二，外部因素来看，美联储今年大概率会降息，利好科技成长板块。最后从市场位置上来说，当前沪深300和中证500都处于负两倍标准差附近，股票依然具有较高性价比。除此之外，今天的科技板块也强势拉升，领涨沪深。作为「新质生产力」的动力源泉，科技创新近年来来一直被寄予厚望。而想发展新质生产力，就要在以数字化、智能化和网络化为主要特点的新一轮科技革命里拔得头筹，数字经济就是新质生产力的主要载体。所以结合政策和科技发展趋势，我更看好科技板块中的数字经济。数字经济受政策持续驱动，在新质生产力的快速推动下，数字经济高质量顶层设计将会越发完善。指数属于科技成长风格，受益于当前流动性偏松且通胀压力较小的环境，随着市场风险偏好提升，指数已逐渐迎来估值修复。指数两大权重行业计算机和电子是人工智能的重要映射行业，随着海内外大模型快速迭代更新，半导体和计算机有望迎来业绩修复。$沪深300(SH000300)$ $鹏扬沪深300质量低波指数A(F011132)$ $500质量成长ETF(SH560500)$ </t>
         </is>
       </c>
     </row>
@@ -1841,16 +1841,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>8948398218</v>
+        <v>5293575692</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>做多中国1996</t>
+          <t>科创100ETF</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>买房账户充值20万，个人账户-20万个人账户清仓了，准备就拿10万玩玩了期间跑赢沪深300 8.77%，还算满意了…</t>
+          <t>中证A50指数有望受益于我国经济转型背景下行业集中度的提升、投资者机构化趋势下龙头效应的强化$A50ETF基金(SZ159592)$ $上证指数(SH000001)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -1859,16 +1859,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4726671336</v>
+        <v>8812024968</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>随行去执</t>
+          <t>Puradox</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>$沪深300(SH000300)$ $上证指数(SH000001)$ 到底走第一种还是第二种呢？</t>
+          <t>都是虚晃一下#上证指数# #沪深300# #A股#</t>
         </is>
       </c>
     </row>
@@ -1877,16 +1877,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5093452365</v>
+        <v>7357408423</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>修罗道人</t>
+          <t>国信证券东东</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>$上证指数(SH000001)$ 只有沪深300和科技能玩毕竟是GJD花了真金白银买的，有一定的资金沉淀，其他板块基本一日游。</t>
+          <t>2023胡润财富报告发布了，根据里面的数据，拥有亿元资产的“超高净值家庭”数量达到13.3万户，比上年减少5200户，减少3.8%。有意思的是，新闻里提到：千万资产“高净值家庭”构成中，企业的拥有者，这部分人占到52%。大型企业集团、跨国公司的高层人士，这部分人占34%，职业股民这部分人占8%，是从事股票、期货等金融投资的专业人士，不动产投资者占6%。亿元资产“超高净值家庭”构成中，企业主体比例占到79%，职业股民占14%，不动产投资者占7%。也就是说，要发大财的话，做企业还是首选，但如果目标只是要过千万的话，做超级白领也是有可能的，占比还不少。但如果资产要过亿，要巨富的话，那么靠打工就有点难了，反而职业投资者占据14%，也就是说职业投资算得上是除了创业以外最有可能过亿的途径了。想想，打工的人里面，年薪几百万的已经是很顶尖的了，但就算每年300万，要过亿也要三十几年，除非老板慷慨再给其他的股权激励啥的，不然就算30岁就开始年薪300万，要在退休前过亿也是有难度的。而投资呢，由于是算百分比的，由于复利效应，所以后面有加速增长的可能，像巴菲特那样的，大多数的财富是后面赚到的。总之，炒股是很难的，但想想啥不难呢，要靠创业资产过亿的话那个比例说不定也和炒股过亿差不多，只不过和创业相比，炒股残酷的一点是如果达不到某条线就是亏，比创业和打工残酷不少。#2023胡润全球富豪榜发布# $上证指数(SH000001)$ $沪深300(SH000300)$ $深证成指(SZ399001)$ @今日话题 各位老乡们，加油啊！国内某社交巨头和电商巨头都公布了业绩，电商巨头的业绩实在炸裂，可惜没在港股上市，社交游戏巨头的业绩东东觉得其实也不错，不过比起业绩更吸引眼球的是它宣布今年回购的资金提高到千亿的水平。这公司不断被其南非大股东减持，一边不断用自己资金增持，但无奈股价总是起不来。其实它的生意真的是财源滚滚，东东希望它如果能不断用赚到的钱回购股份的话，有朝一日总是能把货卖完的，到时股价就有救了？人工智能方面，国内一个叫KIMI的大模型近期受到较多关注，其无损上下文长度从20万汉字提升了一个数量级至200万汉字，可以直接通过学习用户输入的大量资料，在短时间内成为某个领域的初级专家。目前的应用包括文献、报告的提炼、数据分析、编写代码等等。在文字处理长度上，它超过了国外的大模型，受消息刺激，国内不少有AI概念的传媒股大涨，但东东觉得，这一轮反弹以来就是各个概念股轮番炒作，感觉不能太当真。AI的大机会说不定还在后头，东东最近也开始在用一些AI了，而且的确感觉国内的AI在中文处理上有优势，不过距离好用到产生依赖，愿意交钱的地步还有一定的距离。#Kimi启动200万字无损上下文内测# #Kimi大模型每天获客成本或超20万元# 几大指数目前已经MACD死叉，但是从趋势上来看依然比较温和，有时候就是这样，越是怕回调越是不回调，万一哪天觉得不回调了可能就真的来了，而且说不定时间还不短。-投资者教育-以上资料由国信证券广州分公司编辑，转载请注明出处。林雄建投资顾问（证券投资顾问登记编号：S0980610120209）朱智勇投资顾问（证券投资顾问登记编号：S0980610120135）袁宇轩投资顾问（证券投资顾问登记编号：S0980612080011）林奕涛投资顾问（证券投资顾问登记编号：S0980611110026）刘竟辉投资顾问（证券投资顾问登记编号：S0980620090016）风险提示：以上内容仅供参考，不能作为投资决策的唯一依据。股市有风险，投资需谨慎！免责声明：文章中所述的内容和意见仅供参考，列示上市公司仅陈述其与该事件相关，不构成投资建议，投资者应独立作出投资决策。我公司对这些信息的准确性和完整性不作任何保证。我公司及其雇员对使用本报告及其内容所引发的任何直接或间接损失概不负责。部分资讯信息、数据资料来源于第三方，平台无法核实信息的真实性、准确性、完整性及原创性等。本文内容仅代表该作者观点，不代表国信证券任何观点或立场。</t>
         </is>
       </c>
     </row>
@@ -1895,16 +1895,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1011184242</v>
+        <v>8125209399</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>他好像条狗啊</t>
+          <t>锐观察</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>上证今天的30日线是3003，每天上升10个点，明天就是3013左右；深圳今天是9304，每天上升50个点，明天就是9354左右；创业板今天是1817，每天上升9个点，明天就是1826左右；沪深300今天是3509，每天上升9个点，明天就是3518左右；上证50已经在30日线下了。</t>
+          <t xml:space="preserve"> 对于近期的“红利”，很多投资者会问： 一只基金，刚成立就能分红？ 一只基金，没有盈利也能分红？ 一只基金，月月都能分红？ …… 是的，你说的没错，财富君可以很明确的告诉你，随着ETF的迅猛发展，不但份额规模，就连资管规模，双双进入万亿时代，甚至资管规模已经突破了2万亿元。 更为重要的一点是，随着“红利策略”的普及，分红已经成为ETF基金的杀手锏，成功吸引了众多投资者的关注。 毫无疑问，ETF基金，已经进入了红利时代！ （1）分红  分红，来的有点猝不及防！尤其是在今年。 近日，来自工银瑞信基金的公告显示，旗下中证A50ETF基金实施2024年第一次分红，且为该基金第一次分红。资料显示，作为首批10只中证A50ETF基金之一，这只基金于3月18日刚上市交易，仅上市4天就开始第一次分红。 根据公告，此次分红方案为每10份基金份额分配0.066元，收益分配基准日为3月15日，基准日基金份额净值为1.0114元，基准日基金可供分配利润为1003.1658万元。此外，中证A50ETF基金此次分红权益登记日为3月26日，现金红利发放日为4月1日。 对此，财富君查阅公告发现，该基金的分红条件是，基金管理人在每季度对基金累计报酬率和标的指数同期累计报酬率进行评估，在符合有关基金分红条件的前提下，该基金可进行收益分配。 其实，就在首批10只中证A50ETF中，其他基金也有类似分红规定，以摩根中证A50ETF为例，该基金就创新性的加入了“季度强制分红”机制。 基金合同约定，每季度最后一个交易日，ETF相对标的指数的超额收益率大于0时，基金就会进行分红，收益分配比例不低于超额收益率的60%，基金公司将在次季度起的15个工作日内拟定收益分配方案。 同样，今年3月刚成立的万家中证红利ETF，则创新设计了“月月可分红”机制，万家中证红利ETF设有月度分红机制，当超额收益率达到0.01%以上时，管理人可以根据基金合同的相关规定进行收益分配。 很显然，这样的分红条件，财富君认为，应该属于“强制分红”范畴，并不是以盈利为前提的分红，这在以往还是比较少见。 这样的分红，也算是一种创新！ （2）万亿  其实，就在创新分红之前，ETF的豪横，也在另一个角度得到展现，那就是规模，无论是行业整体规模，还是单只产品的规模。 中基协近日发布了一个数据，这个数据的内容并不多，但包含的信息量并不少：除了公布全行业的公司数量外，公募基金的最新家底也正式出炉：截止今年2月底，公募基金管理规模达到29.3万亿元，创下国内公募基金行业有史以来新高。 更为重要的是，相比今年1月份，基金管理规模单月暴涨了近2万亿元。而在财富君梳理后发现，除了债券基金、货币基金外，ETF作出的贡献也是有目共睹。 最新数据显示，在新基金发行整体一般的背景下，整体规模同比增幅达7.09%，而从产品类型来看，股票型基金、混合型基金以及债基规模均有不同程度的上涨，涨幅分别为17.93%、7.55%和5.77%。 不过，ETF的表现更加抢眼。数据显示，ETF规模在2月份再度猛增，非货币ETF规模增长了3907.7亿元，总规模达到了2.18万亿元，股票ETF规模达到了2.07万亿元，环比增加了3808.94亿元，创下了股票ETF单月规模增量的新高。 再看单只产品，那就更加夺人眼球。就在3月初，华泰柏瑞沪深300ETF的资产规模一度达到2002.76亿元，成为A股市场首只规模突破2000亿元的权益类ETF基金，而在去年底，这只ETF的规模还只有1310.87亿元，并在去年8月份刚刚突破1000亿元，这样的规模增长速度令人赞叹。 不过，表现突出的并不止华泰柏瑞沪深300ETF一只。易方达沪深300ETF、嘉实沪深300ETF、华夏沪深300ETF以及华夏上证50ETF的规模均超过1000亿元，而在去年10月份，上述几只基金的规模还大都在两三百亿元左右。 来自东方财富Choice数据显示，截至3月26日，ETF基金管理规模已经突破2.4万亿元，而份额规模也逼近了2万亿份。 （3）助涨  ETF资金的净流入，对股市有啥影响？ 对于这个问题，包括财富君在内，相信很多人都想知道答案，而中信建投的一份研究报告，给出了这样的答案：  2024年以来，部分宽基ETF规模也创下历史新高，各类宽基ETF资金净流入显著加速，其中沪深300类ETF净流入2554.9亿元，中证500类ETF净流入428.68亿元，中证1000类ETF净流入272.82亿元，上证50类ETF净流入260.14亿元。 以沪深300类ETF和中证500类ETF为例，利用日收益和日流入回归计算超额净流入，区间为2014年至2023年3月21日，截至2024年3月21日，沪深300类ETF及中证500类ETF异常净流入分别为2332.66亿元和423.09亿元。 中信建投的结论是，在指数上涨伴随ETF高额净流出，之后短期内指数仍会上涨，但在长期指数下跌。而高额异常净流入大多在指数下跌后发生，这种带有“救市”性质的资金可以让指数在未来下跌放缓或企稳，当资金净流入和指数上涨共振，指数的涨势可持续性更强。 看到这里，您明白了吧？随着ETF资金的净流入，股市反弹的趋势有望得到延续。 （4）估值修复  那么，问题来了：ETF后市如何？普通投资者还能入场吗？ 对于这个问题，在鹏华基金举办的第二届基本面投资峰会暨2024年春季投资策略会上，鹏华基金量化及衍生品投资部总经理苏俊杰指出，未来货币政策仍然具有较大空间，可能会继续延续宽松的主基调，加之海外或将逐渐进入降息周期，都给国内指数级别的机会、风格趋势奠定了基础。所以，随着微观流动性改善，市场风险偏好抬升，以及主流宽基指数的收益修复，指数级别的机会值得大家重视和布局。 作为时下多方关注的热点，苏俊杰也进一步分享了自己关于ETF的交易思路。主要有两条： 一是受益于市场风险偏好提升的小市值品种。从风格的角度来说，小市值风格和科技成长方向是目前仍然被低估的方向，以杠杆资金为代表的市场风险偏好虽然得到了一定的修复，但是整个修复仍然在进行过程当中，未来有望延续。 另外，流动性冲击之后，多数指数仍未完成修复，特别是小盘和科技成长方向存在比较大的修复空间，这其中，就包括科创100。 苏俊杰认为，科创100弹性大、进攻性强，是底部区域布局修复行情的首选标的，是受益于整个小市值风格周期以及在科技成长方向上可以掘金新质生产力的方向。而且科创100聚焦了科创主题下六大战略新兴产业，覆盖全面、权重均衡、市值较小，未来修复空间较大。 二是哑铃型策略。哑铃两端完全代表了两个不同的投资思路和方向。一端的稳定价值类，可能更适合风险偏好低、追求稳定回报的投资者；另一端景气成长类可能更加适合追求高回报或者说具备一定交易能力和有成长股投资偏好的一些资金，去博取Alpha的收益。 区别于目前大众对于哑铃策略的配置，苏俊杰认为在哑铃两端需要采用不同的配置思路：在红利端，可能更接近于偏类固收的配置思路，对于景气成长类，更强调投资的久期，要拉长周期去承受波动，获取超额收益。 对于稳定价值类，本质来讲是反转策略，反转策略做的一定是均值回归，做的是逢低买入。他建议大家逢低布局，去左侧做一些交易。 具体到投资上，苏俊杰也给出了自己具体的ETF配置建议：稳定价值类，左侧布局可以关注证券ETF龙头、油气ETF、道琼斯ETF；景气成长类，重点推荐一键买入新质生产力的科创100ETF。 苏俊杰认为，站在当前时点，主要宽基指数未来一年有望取得15%以上正收益，估值修复成为主要收益来源。采用收益分解模型，把股票预期收益来源拆成股息率、股本变动、盈利增速和估值变化等模块，并对每一个独立项单独建模，最后进行加总。以未来一年时间窗口进行收益预测，盈利与估值的变动对股票定价占主导影响因素。收益预览模型来看，站在2月下旬，沪深300、中证500等宽基指数未来一年都有望实现显著正收益，其中估值修复和盈利增长分别有望贡献10%和5%以上收益。 ETF基金，已经进入红利时代！ </t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>回复@李守约: 稳稳降低成本的原因在于大资金在持有股票分红后，原本花了一个亿买的某些数量，分红除息后每股成本降低了，以分红形式还给你一部分钱，总股数不变。就像我们进货买几箱白酒，本来花了300买一瓶，半年后公司给你说打个折还给你几十块，相当于200多买的酒。看似是左手给右手，实际不能这样理解，这是在降低成本，我们原计划是为了买这些酒，除了高抛低吸以外，公司另外还给你一部分钱被动帮你节约成本，在市场上高抛低吸有概率做错，而公司每年被动以分红形式帮你降低的成本是不需要你操作的所以是稳的。第二问题，当你盈利后怎么卖出都是对的，只是说对于大资金来讲，建仓一次不容易持有周期很长，不会像我们这样随意，他们建仓后几个亿股数，当通过高抛低吸加分红形式把成本降低到非常低甚至完全回本后，仍然保留着几个亿的股数，此时每年都有白给的分红。类似我们入股开饭店，花了30万，过程中我们通过在饭店上班和年底分红的形式在两年后回本了30万落到口袋里了，此时仍然有饭店分红，而且占股百分比没变，往后每年你会得到什么？会得到净赚的分红。就是这个意思。假设你在饭店赚钱后卖出股份，后期饭店可能倒闭也可能上市，那么如果上市了或者越来越赚钱，此时你随着过程中一直在变卖股份，往后获得的分红就会越来越少或者没有。这中间存在赚钱最大化和风险控制问题，所以没有特别必须要怎么样，只是一个大资金的理念，也是自我如何看待这家公司未来的多种操作方法，哪种都行。对于钱少的人来说分红没有什么意义，分红后填权会带来些收益，因为体量不够没有大量囤货的人赚的多。$中证A50(CSI930050)$ $上证指数(SH000001)$ $沪深300(SH000300)$//@李守约:回复@海洋之心yao:谢谢你的回复！还想请教，你说“分红简单理解就是公司帮你被动做t，对于长期持股尤其巨额资金来说，稳稳地降低了百分之几的成本”，被动做t，为什么就能稳稳降低百分之几的成本呢？另外，你说“卖出个股数量，卖出的是货物，货物始终是有限的，分红是无限的”，如果我是以合理价格卖出股票/货物（按照价值投资理念，公司价值是未来现金流的折现，我按未来现金流折现的价格卖出这些股票），那是不是我也没吃亏呀？</t>
+          <t>今天走的就是文字尾部说的赛道股上涨中字头辅助的形式，可以说是普涨也可以说是赛道股带领。这一点直接看上证指数不明显，单纯看上证50这类小一点的指数会比较明显。如果我们把现在的国内市场分割成不同量级会看到不同作战区有些细微区别，比如把视角放大到中证800或者国证1000，可以看出几股力量都在尝试上涨，比如浪潮类科技路线，消费中免，医疗类的药明康德等都有资金在运作。整体上涨较多的是近期热点科技类，这也是深圳为什么走的好的原因，无论是科技还是赛道他都沾光。从技术上来说，上证50暂时没有出现新低，延续了这个60分钟上涨，个股方面我们提到都在15分钟趋势下跌末端极大概率出现60分钟反弹，今天已经开始在为此运作了。仔细研究过结构的朋友应该知道，60分钟的结构2到3周是正常，3周以上最高8周大概率是趋势类型。因此从预期的角度来看，从下周开始就会有反弹型60分钟高点出现的可能，如果出现趋势就是按照月（3周以上）的角度思考60分钟高点。与前文结合，我们就能知道区别，过短的行情面对的是反弹后继续日级回调的风险，走的够长够远面临的是新高的期待。再细致一点，市场上这些东西走的好，或者今天没有怎么涨的后来者陆陆续续跟上开始涨，就说明第二种概率大，下周走的都不怎么样第一种深调的概率就大。$中证A50(CSI930050)$ $上证指数(SH000001)$ $沪深300(SH000300)$</t>
         </is>
       </c>
     </row>
@@ -1931,16 +1931,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5034451788</v>
+        <v>8856526117</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>阿尔法投资</t>
+          <t>工银瑞信基金</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>手上的股票被套了，这也是避免不了的，在A股这个市场，被套是主旋律。对我来说是可以及时止损的，只不过现在手上也有闲钱，暂时也没什么机会。就随波躺平。个人来说，现在沪深300机会还是蛮大的，到底是资金分散投资一半价值，一半趋势。还是说集中子弹等待打满的趋势机会。。。。。$贝斯特(SZ300580)$</t>
+          <t>1、宽基指数一般是指（ ）。A、不限于特定行业或投资主题，市场代表性强的一类指数B、集中投资的特定的一些策略类、风格类、行业类、主题类的相关指数C、主要投资于市值较大公司的指数2、以下哪些属于宽基指数（ ）。A、沪深300、上证50、医药生物指数B、新能源车、中证1000、国证2000C、中证A50、中证500、中证10003、宽基指数的特点一般有（ ）？A、覆盖面积比较广，可以分散风险，生命力也比较坚强B、成分股通常市值较大，以大盘蓝筹股为主C、指数成分股一般较少，风格较为集中#AI应用主线回归，影视板块全线大涨# #消费电子持续走强，板块内多股涨停#$中证A50ETF基金(SH561230)$ $沪深300(SH000300)$ $中证A50(CSI930050)$风险提示：本材料由工银瑞信基金管理有限公司提供，为客户服务资料，并非基金宣传推介资料，不构成投资建议或承诺。投资者不应以该等信息取代其独立判断或仅依据该等信息作出决策。基金管理人依照恪尽职守、诚实信用、谨慎勤勉的原则管理和运用基金财产，但不保证基金一定盈利，也不保证最低收益。基金有风险，投资者应认真阅读《基金合同》《招募说明书》《基金产品资料概要》等基金法律文件， 在全面了解基金的风险收益特征、费率结构、各销售渠道收费标准等情况，并根据自身的投资目的、投资期限、投资经验、资产状况等以及听取销售机构适当性意见的基础上，审慎选择适合自身风险承受能力的投资品种进行投资，基金投资须谨慎。</t>
         </is>
       </c>
     </row>
@@ -1949,16 +1949,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9819053049</v>
+        <v>5118156974</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>实干的涨幅小蜗牛</t>
+          <t>Timeless__</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>3100.85点是沪深300未来5～10年的大底，随着水位不断提升，其中枢线也在不断抬升。情绪指标与资金指标何时发生共振？需要更多点耐心。大部份股票历经3年熊市，都经历过C浪杀跌，底部夯实。情绪面波动大，但是放到更长久的周期看，情绪面起到的作用，其实不值一提。2018年中美贸易战，川普讹诈的一句话，沪深指数跌停，最低的时候上证指数于2019年1月31日跌到2440.91点，各种外企搬迁撤资不绝于耳。情绪面低谷。那又有多少人相信，那时起上证开启了3年的牛市，直至2021年2月26日3731.69点见顶。今天依然是一样。历史只是不断重复。历史只是不那么简单的重复。</t>
+          <t>回复@alex-wuhaifei: 姜老板分享过的，沪深300全收益指数长期收益率在10%，所以就用10%作为要求收益率//@alex-wuhaifei:回复@Timeless__:这是你自己YY的</t>
         </is>
       </c>
     </row>
@@ -1967,16 +1967,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4425085908</v>
+        <v>7357408423</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>方丈出家</t>
+          <t>国信证券东东</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>$沪深300(SH000300)$$中证500ETF(SH510500)$还是那句话，既然什么都不想改，也改不动，不给死鱼价。坚决不买！！！也不能买！！</t>
+          <t>上周一中央统计局公布经济数据，1-2月份，全国固定资产投资同比增长4.2%，增速较去年加快1.2个百分点，其中民间投资增速由负转正；社会消费品零售总额同比增长5.5%，增速比去年12月回落1.9个百分点，规模以上工业增加值同比上涨7.0%，比去年12月加快0.2个百分点。看了一些宏观报告，普遍认为这个经济数据显示除了房地产行业以外，其他数据都有好转的态势，民间投资增速也出现转正。中央政治局曾表示经济恢复是“波浪式发展、曲折式前进”，这决定了政策将保持持续且适度。消费方面，四条主线虽然有分歧，但汽车、通讯器材、石油消费出现上行，必需品消费保持平稳。#低空经济继续活跃，再掀涨停潮##低空经济#  $上证指数(SH000001)$ $沪深300(SH000300)$ $深证成指(SZ399001)$ @今日话题 图片来源：天风宋雪涛《细数出口逆势增长的中国商品》最近，看过一篇研报是分析中国出口的商品在全球中的份额变化的，根据统计，电池、针织品、汽车、造船、工程机械、电池隔膜等出口份额是在增长的。以前曾经提过，看看哪些细分领域能把产品卖到全球去，这类公司可能会有更高的估值水平。这两天市场热炒的是低空经济，这个东西其实挺科幻的，在众多的电影和漫画里面我们都能看到空中汽车，会看到未来的都市里移动的交通工具是立体的，非常科幻。东东觉得，空中的士其实就是一个大号的无人机，而中国目前在无人机领域较为领先，世界上目前最强的民用无人机公司就是中国的公司，所以中国在这块很有希望，如果低空运输能成型的话，有望产生运输和物流业的革命。不过，这个东西现在谈商用恐怕真的是太早了。别说坐人上去，现在连在空中大量飞行的快递和外卖都还没实现，不知道大家会不会担心天上同时飞着几千台无人机运送各种快递和外卖，会不会掉下来砸到人的问题。东东猜测，在商用载人普及之前，无人机送快递和外卖会先普及。等大家觉得这类设备足够安全了，飞个一年半载都没有发生过事故，开始觉得人也可以坐上去的时候，东东觉得才不是题材。如果你问到时候股价是不是已经飞上去了，那东东想用新能源车和光伏的例子告诉大家：N年前就有电动车和光伏的概念了，但真正的大行情还是等到2019年才有。创业板指数在某电池龙头巨额分红的刺激下继续拔高，现在市场的矛盾就是大家担心回调随时会出现，但回调一直不出现，东东觉得也不好猜头部在哪里，因为老猜错，大家可以参考一下东东新发现的趋势指标，虽然这个也可能错，但东东已经觉得比自己的主观判断要准一点点。板块方面，最近比较喜欢滞涨的大众消费和永远的创新药。-投资者教育-以上资料由国信证券广州分公司编辑，转载请注明出处。林雄建投资顾问（证券投资顾问登记编号：S0980610120209）朱智勇投资顾问（证券投资顾问登记编号：S0980610120135）袁宇轩投资顾问（证券投资顾问登记编号：S0980612080011）林奕涛投资顾问（证券投资顾问登记编号：S0980611110026）刘竟辉投资顾问（证券投资顾问登记编号：S0980620090016）风险提示：以上内容仅供参考，不能作为投资决策的唯一依据。股市有风险，投资需谨慎！免责声明：文章中所述的内容和意见仅供参考，列示上市公司仅陈述其与该事件相关，不构成投资建议，投资者应独立作出投资决策。我公司对这些信息的准确性和完整性不作任何保证。我公司及其雇员对使用本报告及其内容所引发的任何直接或间接损失概不负责。部分资讯信息、数据资料来源于第三方，平台无法核实信息的真实性、准确性、完整性及原创性等。本文内容仅代表该作者观点，不代表国信证券任何观点或立场。</t>
         </is>
       </c>
     </row>
@@ -1985,16 +1985,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9207568266</v>
+        <v>1652329269</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>柒天ming</t>
+          <t>谦卑低调</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">不同于上证50，沪深300，中证A50实际上用了一种更新的视角来刻画A股市场的龙头公司，有望成为A股市场新晋旗舰指数之一。$中证A50ETF易方达(SH563080)$ $贵州茅台(SH600519)$ $中国平安(SH601318)$ </t>
+          <t>意识快动作快的公募私募，已经开始抢占沪深300里的低位低估优质板块和个股，尤其是盘子适中的企业，弹性大也容易取得超额收益，同时大盘也能稳步上涨。同时也意味着在出清一些高估值高位，获利盘巨大的个股，尤其是微盘股。$沪深300ETF(SZ159919)$ $宁德时代(SZ300750)$ $工业富联(SH601138)$ 中际旭创，上证指数，创业板指，深证成指</t>
         </is>
       </c>
     </row>
@@ -2003,16 +2003,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8360009538</v>
+        <v>6396424032</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>正直的兜兜风</t>
+          <t>下课老师不让走</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>各大行如何预测2024年中国股市？12月13日大摩预测MSCI从初值55.47点到目标位60点变幅8.2%，11月13日瑞银MSCI62点变幅12%，大摩预测沪深300从3431点到目标位3850点变幅12.2%，12月9日高盛预测MCSI66点、12月13日摩根大通66点变幅19%，高盛预测沪深300目标4200点变幅22%，高盛和摩根大通预测是大于15%的大牛市。君晟沪深3700点变幅7.8％和MSCI59点变幅6.4％的初值预测相对所有国际投行最保守谨慎，已调高到4100点和54点，对应上证3500点。</t>
+          <t>$沪深300(SH000300)$ 做空的快来砸呀，不砸就要爆仓了</t>
         </is>
       </c>
     </row>
@@ -2021,16 +2021,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2979429675</v>
+        <v>5122903091</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>阿土大叔</t>
+          <t>易方达指数通</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>未来已来。和过去每次科技革新一样，AⅠ时代也是在不知不觉中到来的。计算机已经主导了A股市场。涨0.3就抛，跌0.5就抄。积少成多，不知疲倦，反正是机器自动化操盘。参予其中的散户，在机器的微操中慢慢亏损。指数在摩擦中阴跌不止。研究基本面的声音，已经几乎听不到了。价值投资，你才是价值投资，你全家都是价值投资。2023年8月印花税调降，真金白银利好高频量化，然后A股月线7连跌。也许不是巧合。$沪深300(SH000300)$ $上证50(SH000016)$ $上证指数(SH000001)$</t>
+          <t xml:space="preserve">【据上证报消息，随着多只宽基ETF近期披露2023年年报，中央汇金大手笔买入ETF被证实，买入的都是沪深300、上证50这样的大盘宽基指数，中证A50是不是也会受益？】$中证A50ETF易方达(SH563080)$ $上证指数(SH000001)$ $沪深300(SH000300)$ </t>
         </is>
       </c>
     </row>
@@ -2039,16 +2039,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>8435309187</v>
+        <v>6889257022</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>鹏扬基金</t>
+          <t>降维与升维</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>一、国内经济：工业生产环比持续走强，1-2月合并看处在历史高位，有助于经济加快循环。制造业产能过剩情况小幅缓解，但供过于求的格局依然没变，短期内可能有读数回落压力。内需季节性回升，但是强度难以驱动价格环比中枢超预期上行。居民边际消费倾向修复以及商品向服务切换已经完成，根据当前劳动力市场的状况，暂未看到收入增速加快的迹象来支持消费需求持续大幅走强。不过，基于低基数和政策稳物价预期，市场在通过生猪、农产品、有色等品种交易CPI读数逐步回升的预期。上周基建、房建实物工作量季节性好转，但低于对齐春节之后的历史季节性水平，尤其是房建相关指标依然较弱。目前整体基建地产综合实物工作量绝对水平更多依靠基建以及房建竣工端在支撑，后续要看地产开工能否回升。房地产销售持续疲弱，购房者信心受到债务负担、房价低迷和保交楼进度缓慢的影响。未来房地产需求侧政策是经济增长的主要变量，关注保交楼是否有公共财政资金介入，按揭利率能否有更大力度下调。3月作为传统信贷大月，票据利率自月初就上行至高位，略高于2023年同期，6M国股行转贴票利率在1.94%，反映信贷投放节奏可能较快，重点关注3月最后一周票据利率上行幅度，以及全月大行净卖出规模是否明显超出往年同期。3月21日，央行在记者会再度强调“更加注重信贷投放节奏平稳”，预计3月信贷投放大幅偏离季节性的概率不高。 二、海外经济：美联储3月议息会议小幅上调对经济增长预期，对降息的表述相较于1月没有变化，但淡化了强劲经济数据对于通胀回到2%的阻碍。这意味着美联储未来的利率决策对于通胀的容忍度可能在提高，市场维持3次降息预期。其他央行方面，瑞士央行提前降息，英国央行释放鸽派信号。此前人民币兑美元持续在7.2以下运行，人民币兑日元和其他新兴市场货币都持续走强，因而在上周日本央行加息时人民币兑美元突破7.2，我们倾向于认为这是主动释放前期积累的贬值压力，后续外汇市场压力可控。3月25日情况来看，人民币日内升值，显示出韧性和强势特征。三、资产策略：大类资产：美国金融条件宽松，有可能会导致降息时点延后。中美利差扩大，股票估值很难扩张。股票在二季度可能会面临一定的压力，包括经济不及预期、美债利率回摆等因素，但这两个潜在风险充分定价后股票机会大于风险。债券市场短期防守，中期机会依然看好，短期回调是加仓机会，股债中长期走势年内能否逆转，主要将取决于房地产需求侧政策是否能有重大措施出台。上周五国常会提及进一步优化房地产政策，关注核心一线城市放松限购的可能和城市房地产融资协调机制接下来的落地效果。货币市场：上周DR007呈窄幅波动，全周在1.86%-1.89%区间，较7天逆回购利率高出6-10bp。1Y存单利率下行至2.25%。跨季时点临近，大行资金融出供给充裕，日均值保持在4万亿元以上，市场对资金面预期整体偏乐观，但量宽松、价格中枢难下行的状态预计仍将持续，资金分层或会季节性加剧，但应不超过往年同期。短期内不排除提高汇率对资金面的影响权重，关注人民币中间价偏离幅度是否持续。供给结构方面，关注城农商的资金供应走势，以及货基、理财等主体的融出是否继续保持稳定。利率：上周债券市场呈现多空交织的震荡态势，长端利率小幅下行，曲线走陡，中短端地方债表现好于国债、好于政金。周初市场对经济数据演绎利空出尽的交易情绪；周三市场对特别国债供给冲击担忧升温，叠加利率再次回到前低附近，国债期货低开后维持偏弱震荡；下半周，央行副行长在国新办发布会再次强调降准仍有空间，债市情绪得到提振；周五人民币汇率短线快速下跌突破7.20位置，引发市场对资金面及货币政策的担忧，债市情绪再度转弱。$鹏扬淳明债券A(F007564)$ 展望后市，特别国债重启发行将为稳增长、防风险提供长期保障资金，但供给增加以及政策利率保持不变，短期内利率下行动能不足。目前银行配置仓位不高，显示出对市场震荡偏谨慎的看法，利率单边快速下行告一段落，但也意味着难以深调。我们认为利率市场偏震荡为主，机构行为和消息面的边际扰动加剧，交易性价比减弱。债券组合维持中性久期暴露，投资者需要强化应对，关注税期及季末资金情况决定后市杠杆中枢。信用：上周全周来看，曲线在震荡中呈现了牛陡的走势。信用方面，收益率整体下行，其中AA-产业及城投债收益率下行幅度最大，在5-15bp之间。信用利差短下长上，1年期中高等级信用债利差压缩5bp左右。目前2年期信用债在调整后性价比出现小幅抬升，在近期一级市场季节性放量发行的背景下，可在一二级市场关注信用债调整后的参与机会。地产债方面，关注地产企业受到的支持情况以及稳地产政策的影响，目前时点我们对于中长期地产债券继续保持相对谨慎看法。一揽子化债方案推动下，中低等级城投债券收益率下行迅速。若城投债供给偏少的格局延续，有利于行情延续，风险点则是目前市场走得比政策落地更快，关注快速上涨后的估值风险，尤其是对于负债不稳定的组合，尽量规避资质偏弱、且业务较杂的城投主体。金融债方面，银行次级债目前利差偏低。可转债：当前转债的赔率胜率均优于年初，正股基本面低位震荡，重心需要放在资金面的博弈上，对主题板块及时止盈。正股在短期反弹的幅度较大，叠加四月份马上进入财报季，转债正股防踩雷，中期偏乐观。全年主线可能依然是TMT和高股息，等待回调布局机会。股票：股市外资净流入边际放缓，境内增量资金不明显。高股息的标杆行业煤炭逐渐从类债估值模型进入景气投资模型，关注4-5月非电耗煤需求和煤价走势能否支撑煤炭股基本面。历史经验来看，如果美联储降息，那么互联网、医疗保健、科技等行业表现较优，传统行业表现相对弱。后市看好的景气板块包括以创业板为代表的超跌大盘成长，以高端制造、新能源为代表的出口链。在基本面实质性改善或者传统稳增长手段加码发力之前，预计新质生产力、设备更新、低空经济等政策主题交易依然会受到市场关注，机会轮动出现。$鹏扬中证数字经济主题ETF发起式联接A(F015787)$ $沪深300(SH000300)$ 风险提示：本材料为客户服务材料，并非基金宣传推介材料，亦不构成任何法律文件。本材料所载观点以及陈述的信息不构成任何投资建议或承诺，不应被接收者作为对其独立判断的替代或投资决策依据。鹏扬基金管理有限公司（“鹏扬基金”）不对任何人使用本材料全部或部分内容的行为或由此而引致的任何损失承担任何责任。投资有风险，基金投资需谨慎。投资者投资鹏扬基金管理的产品时，应认真阅读读基金合同、招募说明书（更新）和基金产品资料概要（更新）等相关法律文件，在全面了解产品情况及听取销售机构适当性意见的基础上，选择适合自身风险承受能力的基金品种进行投资。</t>
+          <t>#000300# 日线具备回调波完成的条件，这个位置得考虑怎么做多了，还处于模棱两可的状态终中，假如当下是个30分钟上涨波，那就等待其完成。</t>
         </is>
       </c>
     </row>
@@ -2057,16 +2057,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5122903091</v>
+        <v>8435309187</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>易方达指数通</t>
+          <t>鹏扬基金</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>回复@马克陈: 价值投资强调寻找被低估的发展前景较好的公司，长期持有以待市场价值回归和享受公司发展带来的利润分享。尽管市场波动大，许多价值投资者仍取得良好回报，关键在于坚持原则并耐心等待~$中证A50ETF易方达(SH563080)$ $上证指数(SH000001)$ $沪深300(SH000300)$//@马克陈:回复@蓝筹69:价值投资在中国也是有效的</t>
+          <t xml:space="preserve">最近几天，虽然A股开始了震荡回调的走势，但低空经济这个概念却持续火爆，周四再次迎来涨停潮。那低空经济到底是什么？到底为啥突然爆火？就在前段时间，深圳率先进行了一次空中出租车的首飞实验，并取得了成功。这次首飞的成功，不仅展示了技术的进步，更是对低空经济潜力的一次生动展现。想象一下，原本需要3小时车程的距离，通过空中出租车，仅仅需要20分钟就能到达。这不仅是时间的节省，更是对生活质量的极大提升。我们先来解释下低空。我们说低空通常指距正下方地平面垂直距离在1000米以内的空域，根据不同地区特点和实际需要可延伸至3000米。而低空经济就是以这部分空域为依托进行的各种经济活动。我们为什么要发展低空经济？首先是为了给生产生活提供便利，比如无人机的应用提高了多方面的工作效率。其次低空经济正在激发一个巨大的潜在市场，特别是对我国航空航天产业带来了更好的发展机遇。据相关报告表明（中商产业研究院发布的《2022-2027年中国航空航天产业发展趋势及投资风险研究报告》），2022年低空经济对国民经济的综合贡献值约为4000亿元，同比增长29.03%，这一数字的增长充分展示了低空经济的活力。报告还预测，2024年低空经济的综合贡献值将达到5035亿元。这些数据和预测都表明，低空经济将为我国经济发展注入新的活力。那么低空经济会成为下一个风口么？我们不难发现低空经济的概念频繁出现在多地政府的工作报告中。这一现象不仅反映了国家对该领域的高度重视，也反应出低空经济对于各地方的重要性。此外，我国已经拥有了“低空智能运输系统”建设的关键技术，为低空经济的发展奠定了坚实的基础。特别是对于锂电池等作为主要能源的飞行系统来说，我国的技术和产能储备也表现出显著优势。我们相信，在政策的大力支持与科技进步的双重驱动下，低空经济未来可期！$沪深300(SH000300)$ $数字经济ETF(SZ159658)$ $鹏扬中证数字经济主题ETF发起式联接C(F015788)$ </t>
         </is>
       </c>
     </row>
